--- a/name/vnindex/20221212/VNINDEX_HOSE_5p_20221212.xlsx
+++ b/name/vnindex/20221212/VNINDEX_HOSE_5p_20221212.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P53"/>
+  <dimension ref="A1:P123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,7 +454,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1670836200000</v>
+        <v>1670836320000</v>
       </c>
       <c r="B2">
         <v>300</v>
@@ -481,7 +481,7 @@
         <v>3000000</v>
       </c>
       <c r="J2" t="str">
-        <v>2022-12-12T09:10:00.000Z</v>
+        <v>2022-12-12T09:12:00.000Z</v>
       </c>
       <c r="K2">
         <v>3000000</v>
@@ -504,2557 +504,6057 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>1670836500000</v>
+        <v>1670836440000</v>
       </c>
       <c r="B3">
-        <v>10117900</v>
+        <v>2914700</v>
       </c>
       <c r="C3">
-        <v>10882200</v>
+        <v>2497400</v>
       </c>
       <c r="D3">
-        <v>9324500</v>
+        <v>9237600</v>
       </c>
       <c r="E3">
-        <v>172144063000</v>
+        <v>44463714000</v>
       </c>
       <c r="F3">
-        <v>171315873000</v>
+        <v>40379367000</v>
       </c>
       <c r="G3">
-        <v>145364133000</v>
+        <v>144190323000</v>
       </c>
       <c r="H3">
-        <v>30324600</v>
+        <v>14649700</v>
       </c>
       <c r="I3">
-        <v>488824069000</v>
+        <v>229033404000</v>
       </c>
       <c r="J3" t="str">
-        <v>2022-12-12T09:15:00.000Z</v>
+        <v>2022-12-12T09:14:00.000Z</v>
       </c>
       <c r="K3">
-        <v>488827069000</v>
+        <v>229036404000</v>
       </c>
       <c r="L3">
-        <v>30324900</v>
+        <v>14650000</v>
       </c>
       <c r="M3">
-        <v>764300</v>
+        <v>-417300</v>
       </c>
       <c r="N3">
-        <v>-828190000</v>
+        <v>-4084347000</v>
       </c>
       <c r="O3">
-        <v>764000</v>
+        <v>-417600</v>
       </c>
       <c r="P3">
-        <v>-831190000</v>
+        <v>-4087347000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1670836800000</v>
+        <v>1670836560000</v>
       </c>
       <c r="B4">
-        <v>9295700</v>
+        <v>3112300</v>
       </c>
       <c r="C4">
-        <v>5224900</v>
+        <v>3841500</v>
       </c>
       <c r="D4">
-        <v>70700</v>
+        <v>60200</v>
       </c>
       <c r="E4">
-        <v>145695278000</v>
+        <v>52181193000</v>
       </c>
       <c r="F4">
-        <v>93391281000</v>
+        <v>61707245000</v>
       </c>
       <c r="G4">
-        <v>1151401000</v>
+        <v>878395000</v>
       </c>
       <c r="H4">
-        <v>14591300</v>
+        <v>7014000</v>
       </c>
       <c r="I4">
-        <v>240237960000</v>
+        <v>114766833000</v>
       </c>
       <c r="J4" t="str">
-        <v>2022-12-12T09:20:00.000Z</v>
+        <v>2022-12-12T09:16:00.000Z</v>
       </c>
       <c r="K4">
-        <v>729065029000</v>
+        <v>343803237000</v>
       </c>
       <c r="L4">
-        <v>44916200</v>
+        <v>21664000</v>
       </c>
       <c r="M4">
-        <v>-4070800</v>
+        <v>729200</v>
       </c>
       <c r="N4">
-        <v>-52303997000</v>
+        <v>9526052000</v>
       </c>
       <c r="O4">
-        <v>-3306800</v>
+        <v>311600</v>
       </c>
       <c r="P4">
-        <v>-53135187000</v>
+        <v>5438705000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1670837100000</v>
+        <v>1670836680000</v>
       </c>
       <c r="B5">
-        <v>4506000</v>
+        <v>4090900</v>
       </c>
       <c r="C5">
-        <v>6167600</v>
+        <v>4543300</v>
       </c>
       <c r="D5">
-        <v>48600</v>
+        <v>26700</v>
       </c>
       <c r="E5">
-        <v>76615802000</v>
+        <v>75499156000</v>
       </c>
       <c r="F5">
-        <v>108258747000</v>
+        <v>69229261000</v>
       </c>
       <c r="G5">
-        <v>827656000</v>
+        <v>295415000</v>
       </c>
       <c r="H5">
-        <v>10722200</v>
+        <v>8660900</v>
       </c>
       <c r="I5">
-        <v>185702205000</v>
+        <v>145023832000</v>
       </c>
       <c r="J5" t="str">
-        <v>2022-12-12T09:25:00.000Z</v>
+        <v>2022-12-12T09:18:00.000Z</v>
       </c>
       <c r="K5">
-        <v>914767234000</v>
+        <v>488827069000</v>
       </c>
       <c r="L5">
-        <v>55638400</v>
+        <v>30324900</v>
       </c>
       <c r="M5">
-        <v>1661600</v>
+        <v>452400</v>
       </c>
       <c r="N5">
-        <v>31642945000</v>
+        <v>-6269895000</v>
       </c>
       <c r="O5">
-        <v>-1645200</v>
+        <v>764000</v>
       </c>
       <c r="P5">
-        <v>-21492242000</v>
+        <v>-831190000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1670837400000</v>
+        <v>1670836800000</v>
       </c>
       <c r="B6">
-        <v>6169400</v>
+        <v>5043300</v>
       </c>
       <c r="C6">
-        <v>8589900</v>
+        <v>2568700</v>
       </c>
       <c r="D6">
-        <v>109700</v>
+        <v>55900</v>
       </c>
       <c r="E6">
-        <v>99311514000</v>
+        <v>78676702000</v>
       </c>
       <c r="F6">
-        <v>155186238000</v>
+        <v>40808308000</v>
       </c>
       <c r="G6">
-        <v>1146973000</v>
+        <v>888397000</v>
       </c>
       <c r="H6">
-        <v>14869000</v>
+        <v>7667900</v>
       </c>
       <c r="I6">
-        <v>255644725000</v>
+        <v>120373407000</v>
       </c>
       <c r="J6" t="str">
-        <v>2022-12-12T09:30:00.000Z</v>
+        <v>2022-12-12T09:20:00.000Z</v>
       </c>
       <c r="K6">
-        <v>1170411959000</v>
+        <v>609200476000</v>
       </c>
       <c r="L6">
-        <v>70507400</v>
+        <v>37992800</v>
       </c>
       <c r="M6">
-        <v>2420500</v>
+        <v>-2474600</v>
       </c>
       <c r="N6">
-        <v>55874724000</v>
+        <v>-37868394000</v>
       </c>
       <c r="O6">
-        <v>775300</v>
+        <v>-1710600</v>
       </c>
       <c r="P6">
-        <v>34382482000</v>
+        <v>-38699584000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1670837700000</v>
+        <v>1670836920000</v>
       </c>
       <c r="B7">
-        <v>6388100</v>
+        <v>3210900</v>
       </c>
       <c r="C7">
-        <v>8687400</v>
+        <v>1683800</v>
       </c>
       <c r="D7">
-        <v>79400</v>
+        <v>9400</v>
       </c>
       <c r="E7">
-        <v>121605983000</v>
+        <v>50310048000</v>
       </c>
       <c r="F7">
-        <v>151343688000</v>
+        <v>33035327000</v>
       </c>
       <c r="G7">
-        <v>2543015000</v>
+        <v>173949000</v>
       </c>
       <c r="H7">
-        <v>15154900</v>
+        <v>4904100</v>
       </c>
       <c r="I7">
-        <v>275492686000</v>
+        <v>83519324000</v>
       </c>
       <c r="J7" t="str">
-        <v>2022-12-12T09:35:00.000Z</v>
+        <v>2022-12-12T09:22:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1445904645000</v>
+        <v>692719800000</v>
       </c>
       <c r="L7">
-        <v>85662300</v>
+        <v>42896900</v>
       </c>
       <c r="M7">
-        <v>2299300</v>
+        <v>-1527100</v>
       </c>
       <c r="N7">
-        <v>29737705000</v>
+        <v>-17274721000</v>
       </c>
       <c r="O7">
-        <v>3074600</v>
+        <v>-3237700</v>
       </c>
       <c r="P7">
-        <v>64120187000</v>
+        <v>-55974305000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1670838000000</v>
+        <v>1670837040000</v>
       </c>
       <c r="B8">
-        <v>5966600</v>
+        <v>1958000</v>
       </c>
       <c r="C8">
-        <v>8284400</v>
+        <v>2432900</v>
       </c>
       <c r="D8">
-        <v>84400</v>
+        <v>11400</v>
       </c>
       <c r="E8">
-        <v>112001138000</v>
+        <v>31889273000</v>
       </c>
       <c r="F8">
-        <v>141860509000</v>
+        <v>47057267000</v>
       </c>
       <c r="G8">
-        <v>1530053000</v>
+        <v>190313000</v>
       </c>
       <c r="H8">
-        <v>14335400</v>
+        <v>4402300</v>
       </c>
       <c r="I8">
-        <v>255391700000</v>
+        <v>79136853000</v>
       </c>
       <c r="J8" t="str">
-        <v>2022-12-12T09:40:00.000Z</v>
+        <v>2022-12-12T09:24:00.000Z</v>
       </c>
       <c r="K8">
-        <v>1701296345000</v>
+        <v>771856653000</v>
       </c>
       <c r="L8">
-        <v>99997700</v>
+        <v>47299200</v>
       </c>
       <c r="M8">
-        <v>2317800</v>
+        <v>474900</v>
       </c>
       <c r="N8">
-        <v>29859371000</v>
+        <v>15167994000</v>
       </c>
       <c r="O8">
-        <v>5392400</v>
+        <v>-2762800</v>
       </c>
       <c r="P8">
-        <v>93979558000</v>
+        <v>-40806311000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1670838300000</v>
+        <v>1670837160000</v>
       </c>
       <c r="B9">
-        <v>6405000</v>
+        <v>1958100</v>
       </c>
       <c r="C9">
-        <v>7174400</v>
+        <v>1980300</v>
       </c>
       <c r="D9">
-        <v>80800</v>
+        <v>8900</v>
       </c>
       <c r="E9">
-        <v>120194759000</v>
+        <v>35154484000</v>
       </c>
       <c r="F9">
-        <v>139128705000</v>
+        <v>35228268000</v>
       </c>
       <c r="G9">
-        <v>2252255000</v>
+        <v>307120000</v>
       </c>
       <c r="H9">
-        <v>13660200</v>
+        <v>3947300</v>
       </c>
       <c r="I9">
-        <v>261575719000</v>
+        <v>70689872000</v>
       </c>
       <c r="J9" t="str">
-        <v>2022-12-12T09:45:00.000Z</v>
+        <v>2022-12-12T09:26:00.000Z</v>
       </c>
       <c r="K9">
-        <v>1962872064000</v>
+        <v>842546525000</v>
       </c>
       <c r="L9">
-        <v>113657900</v>
+        <v>51246500</v>
       </c>
       <c r="M9">
-        <v>769400</v>
+        <v>22200</v>
       </c>
       <c r="N9">
-        <v>18933946000</v>
+        <v>73784000</v>
       </c>
       <c r="O9">
-        <v>6161800</v>
+        <v>-2740600</v>
       </c>
       <c r="P9">
-        <v>112913504000</v>
+        <v>-40732527000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1670838600000</v>
+        <v>1670837280000</v>
       </c>
       <c r="B10">
-        <v>6782500</v>
+        <v>1631400</v>
       </c>
       <c r="C10">
-        <v>5995900</v>
+        <v>2726800</v>
       </c>
       <c r="D10">
-        <v>77400</v>
+        <v>33700</v>
       </c>
       <c r="E10">
-        <v>129561370000</v>
+        <v>26280573000</v>
       </c>
       <c r="F10">
-        <v>114055128000</v>
+        <v>45520858000</v>
       </c>
       <c r="G10">
-        <v>1019489000</v>
+        <v>419278000</v>
       </c>
       <c r="H10">
-        <v>12855800</v>
+        <v>4391900</v>
       </c>
       <c r="I10">
-        <v>244635987000</v>
+        <v>72220709000</v>
       </c>
       <c r="J10" t="str">
-        <v>2022-12-12T09:50:00.000Z</v>
+        <v>2022-12-12T09:28:00.000Z</v>
       </c>
       <c r="K10">
-        <v>2207508051000</v>
+        <v>914767234000</v>
       </c>
       <c r="L10">
-        <v>126513700</v>
+        <v>55638400</v>
       </c>
       <c r="M10">
-        <v>-786600</v>
+        <v>1095400</v>
       </c>
       <c r="N10">
-        <v>-15506242000</v>
+        <v>19240285000</v>
       </c>
       <c r="O10">
-        <v>5375200</v>
+        <v>-1645200</v>
       </c>
       <c r="P10">
-        <v>97407262000</v>
+        <v>-21492242000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1670838900000</v>
+        <v>1670837400000</v>
       </c>
       <c r="B11">
-        <v>5979100</v>
+        <v>2532500</v>
       </c>
       <c r="C11">
-        <v>5662100</v>
+        <v>3514100</v>
       </c>
       <c r="D11">
-        <v>60800</v>
+        <v>18200</v>
       </c>
       <c r="E11">
-        <v>100327090000</v>
+        <v>40220989000</v>
       </c>
       <c r="F11">
-        <v>111193062000</v>
+        <v>62232230000</v>
       </c>
       <c r="G11">
-        <v>956213000</v>
+        <v>478532000</v>
       </c>
       <c r="H11">
-        <v>11702000</v>
+        <v>6064800</v>
       </c>
       <c r="I11">
-        <v>212476365000</v>
+        <v>102931751000</v>
       </c>
       <c r="J11" t="str">
-        <v>2022-12-12T09:55:00.000Z</v>
+        <v>2022-12-12T09:30:00.000Z</v>
       </c>
       <c r="K11">
-        <v>2419984416000</v>
+        <v>1017698985000</v>
       </c>
       <c r="L11">
-        <v>138215700</v>
+        <v>61703200</v>
       </c>
       <c r="M11">
-        <v>-317000</v>
+        <v>981600</v>
       </c>
       <c r="N11">
-        <v>10865972000</v>
+        <v>22011241000</v>
       </c>
       <c r="O11">
-        <v>5058200</v>
+        <v>-663600</v>
       </c>
       <c r="P11">
-        <v>108273234000</v>
+        <v>518999000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1670839200000</v>
+        <v>1670837520000</v>
       </c>
       <c r="B12">
-        <v>4235600</v>
+        <v>2048300</v>
       </c>
       <c r="C12">
-        <v>7854700</v>
+        <v>3371600</v>
       </c>
       <c r="D12">
-        <v>26000</v>
+        <v>76000</v>
       </c>
       <c r="E12">
-        <v>79874077000</v>
+        <v>32864321000</v>
       </c>
       <c r="F12">
-        <v>121052696000</v>
+        <v>63640507000</v>
       </c>
       <c r="G12">
-        <v>717679000</v>
+        <v>520897000</v>
       </c>
       <c r="H12">
-        <v>12116300</v>
+        <v>5495900</v>
       </c>
       <c r="I12">
-        <v>201644452000</v>
+        <v>97025725000</v>
       </c>
       <c r="J12" t="str">
-        <v>2022-12-12T10:00:00.000Z</v>
+        <v>2022-12-12T09:32:00.000Z</v>
       </c>
       <c r="K12">
-        <v>2621628868000</v>
+        <v>1114724710000</v>
       </c>
       <c r="L12">
-        <v>150332000</v>
+        <v>67199100</v>
       </c>
       <c r="M12">
-        <v>3619100</v>
+        <v>1323300</v>
       </c>
       <c r="N12">
-        <v>41178619000</v>
+        <v>30776186000</v>
       </c>
       <c r="O12">
-        <v>8677300</v>
+        <v>659700</v>
       </c>
       <c r="P12">
-        <v>149451853000</v>
+        <v>31295185000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1670839500000</v>
+        <v>1670837640000</v>
       </c>
       <c r="B13">
-        <v>4814600</v>
+        <v>2660300</v>
       </c>
       <c r="C13">
-        <v>10476900</v>
+        <v>3300000</v>
       </c>
       <c r="D13">
-        <v>99000</v>
+        <v>17200</v>
       </c>
       <c r="E13">
-        <v>79854737000</v>
+        <v>45335690000</v>
       </c>
       <c r="F13">
-        <v>186392326000</v>
+        <v>60770937000</v>
       </c>
       <c r="G13">
-        <v>2886352000</v>
+        <v>164217000</v>
       </c>
       <c r="H13">
-        <v>15390500</v>
+        <v>5977500</v>
       </c>
       <c r="I13">
-        <v>269133415000</v>
+        <v>106270844000</v>
       </c>
       <c r="J13" t="str">
-        <v>2022-12-12T10:05:00.000Z</v>
+        <v>2022-12-12T09:34:00.000Z</v>
       </c>
       <c r="K13">
-        <v>2890762283000</v>
+        <v>1220995554000</v>
       </c>
       <c r="L13">
-        <v>165722500</v>
+        <v>73176600</v>
       </c>
       <c r="M13">
-        <v>5662300</v>
+        <v>639700</v>
       </c>
       <c r="N13">
-        <v>106537589000</v>
+        <v>15435247000</v>
       </c>
       <c r="O13">
-        <v>14339600</v>
+        <v>1299400</v>
       </c>
       <c r="P13">
-        <v>255989442000</v>
+        <v>46730432000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1670839800000</v>
+        <v>1670837760000</v>
       </c>
       <c r="B14">
-        <v>6038500</v>
+        <v>2818800</v>
       </c>
       <c r="C14">
-        <v>9622200</v>
+        <v>3336100</v>
       </c>
       <c r="D14">
-        <v>80600</v>
+        <v>30600</v>
       </c>
       <c r="E14">
-        <v>106638732000</v>
+        <v>54021912000</v>
       </c>
       <c r="F14">
-        <v>168195077000</v>
+        <v>56291410000</v>
       </c>
       <c r="G14">
-        <v>1349929000</v>
+        <v>1065662000</v>
       </c>
       <c r="H14">
-        <v>15741300</v>
+        <v>6185500</v>
       </c>
       <c r="I14">
-        <v>276183738000</v>
+        <v>111378984000</v>
       </c>
       <c r="J14" t="str">
-        <v>2022-12-12T10:10:00.000Z</v>
+        <v>2022-12-12T09:36:00.000Z</v>
       </c>
       <c r="K14">
-        <v>3166946021000</v>
+        <v>1332374538000</v>
       </c>
       <c r="L14">
-        <v>181463800</v>
+        <v>79362100</v>
       </c>
       <c r="M14">
-        <v>3583700</v>
+        <v>517300</v>
       </c>
       <c r="N14">
-        <v>61556345000</v>
+        <v>2269498000</v>
       </c>
       <c r="O14">
-        <v>17923300</v>
+        <v>1816700</v>
       </c>
       <c r="P14">
-        <v>317545787000</v>
+        <v>48999930000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1670840100000</v>
+        <v>1670837880000</v>
       </c>
       <c r="B15">
-        <v>4683200</v>
+        <v>2497600</v>
       </c>
       <c r="C15">
-        <v>4234800</v>
+        <v>3755500</v>
       </c>
       <c r="D15">
-        <v>19900</v>
+        <v>47100</v>
       </c>
       <c r="E15">
-        <v>81058641000</v>
+        <v>48474585000</v>
       </c>
       <c r="F15">
-        <v>74695840000</v>
+        <v>63594842000</v>
       </c>
       <c r="G15">
-        <v>407614000</v>
+        <v>1460680000</v>
       </c>
       <c r="H15">
-        <v>8937900</v>
+        <v>6300200</v>
       </c>
       <c r="I15">
-        <v>156162095000</v>
+        <v>113530107000</v>
       </c>
       <c r="J15" t="str">
-        <v>2022-12-12T10:15:00.000Z</v>
+        <v>2022-12-12T09:38:00.000Z</v>
       </c>
       <c r="K15">
-        <v>3323108116000</v>
+        <v>1445904645000</v>
       </c>
       <c r="L15">
-        <v>190401700</v>
+        <v>85662300</v>
       </c>
       <c r="M15">
-        <v>-448400</v>
+        <v>1257900</v>
       </c>
       <c r="N15">
-        <v>-6362801000</v>
+        <v>15120257000</v>
       </c>
       <c r="O15">
-        <v>17474900</v>
+        <v>3074600</v>
       </c>
       <c r="P15">
-        <v>311182986000</v>
+        <v>64120187000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1670840400000</v>
+        <v>1670838000000</v>
       </c>
       <c r="B16">
-        <v>3962300</v>
+        <v>2481500</v>
       </c>
       <c r="C16">
-        <v>3372000</v>
+        <v>3566900</v>
       </c>
       <c r="D16">
-        <v>40000</v>
+        <v>22800</v>
       </c>
       <c r="E16">
-        <v>61071339000</v>
+        <v>50538495000</v>
       </c>
       <c r="F16">
-        <v>64196635000</v>
+        <v>51772782000</v>
       </c>
       <c r="G16">
-        <v>465329000</v>
+        <v>360950000</v>
       </c>
       <c r="H16">
-        <v>7374300</v>
+        <v>6071200</v>
       </c>
       <c r="I16">
-        <v>125733303000</v>
+        <v>102672227000</v>
       </c>
       <c r="J16" t="str">
-        <v>2022-12-12T10:20:00.000Z</v>
+        <v>2022-12-12T09:40:00.000Z</v>
       </c>
       <c r="K16">
-        <v>3448841419000</v>
+        <v>1548576872000</v>
       </c>
       <c r="L16">
-        <v>197776000</v>
+        <v>91733500</v>
       </c>
       <c r="M16">
-        <v>-590300</v>
+        <v>1085400</v>
       </c>
       <c r="N16">
-        <v>3125296000</v>
+        <v>1234287000</v>
       </c>
       <c r="O16">
-        <v>16884600</v>
+        <v>4160000</v>
       </c>
       <c r="P16">
-        <v>314308282000</v>
+        <v>65354474000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1670840700000</v>
+        <v>1670838120000</v>
       </c>
       <c r="B17">
-        <v>3066000</v>
+        <v>2589400</v>
       </c>
       <c r="C17">
-        <v>7056200</v>
+        <v>3150400</v>
       </c>
       <c r="D17">
-        <v>32100</v>
+        <v>46100</v>
       </c>
       <c r="E17">
-        <v>52308534000</v>
+        <v>45766558000</v>
       </c>
       <c r="F17">
-        <v>131565851000</v>
+        <v>58642448000</v>
       </c>
       <c r="G17">
-        <v>689097000</v>
+        <v>890571000</v>
       </c>
       <c r="H17">
-        <v>10154300</v>
+        <v>5785900</v>
       </c>
       <c r="I17">
-        <v>184563482000</v>
+        <v>105299577000</v>
       </c>
       <c r="J17" t="str">
-        <v>2022-12-12T10:25:00.000Z</v>
+        <v>2022-12-12T09:42:00.000Z</v>
       </c>
       <c r="K17">
-        <v>3633404901000</v>
+        <v>1653876449000</v>
       </c>
       <c r="L17">
-        <v>207930300</v>
+        <v>97519400</v>
       </c>
       <c r="M17">
-        <v>3990200</v>
+        <v>561000</v>
       </c>
       <c r="N17">
-        <v>79257317000</v>
+        <v>12875890000</v>
       </c>
       <c r="O17">
-        <v>20874800</v>
+        <v>4721000</v>
       </c>
       <c r="P17">
-        <v>393565599000</v>
+        <v>78230364000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1670841000000</v>
+        <v>1670838240000</v>
       </c>
       <c r="B18">
-        <v>3265100</v>
+        <v>2274600</v>
       </c>
       <c r="C18">
-        <v>8798800</v>
+        <v>3336600</v>
       </c>
       <c r="D18">
-        <v>29400</v>
+        <v>20600</v>
       </c>
       <c r="E18">
-        <v>60704810000</v>
+        <v>39462266000</v>
       </c>
       <c r="F18">
-        <v>165727079000</v>
+        <v>67709025000</v>
       </c>
       <c r="G18">
-        <v>477106000</v>
+        <v>342279000</v>
       </c>
       <c r="H18">
-        <v>12093300</v>
+        <v>5631800</v>
       </c>
       <c r="I18">
-        <v>226908995000</v>
+        <v>107513570000</v>
       </c>
       <c r="J18" t="str">
-        <v>2022-12-12T10:30:00.000Z</v>
+        <v>2022-12-12T09:44:00.000Z</v>
       </c>
       <c r="K18">
-        <v>3860313896000</v>
+        <v>1761390019000</v>
       </c>
       <c r="L18">
-        <v>220023600</v>
+        <v>103151200</v>
       </c>
       <c r="M18">
-        <v>5533700</v>
+        <v>1062000</v>
       </c>
       <c r="N18">
-        <v>105022269000</v>
+        <v>28246759000</v>
       </c>
       <c r="O18">
-        <v>26408500</v>
+        <v>5783000</v>
       </c>
       <c r="P18">
-        <v>498587868000</v>
+        <v>106477123000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1670841300000</v>
+        <v>1670838360000</v>
       </c>
       <c r="B19">
-        <v>3833300</v>
+        <v>2780500</v>
       </c>
       <c r="C19">
-        <v>11799100</v>
+        <v>2845300</v>
       </c>
       <c r="D19">
-        <v>40100</v>
+        <v>50800</v>
       </c>
       <c r="E19">
-        <v>71467284000</v>
+        <v>54539068000</v>
       </c>
       <c r="F19">
-        <v>209545440000</v>
+        <v>57955063000</v>
       </c>
       <c r="G19">
-        <v>495861000</v>
+        <v>1175386000</v>
       </c>
       <c r="H19">
-        <v>15672500</v>
+        <v>5676600</v>
       </c>
       <c r="I19">
-        <v>281508585000</v>
+        <v>113669517000</v>
       </c>
       <c r="J19" t="str">
-        <v>2022-12-12T10:35:00.000Z</v>
+        <v>2022-12-12T09:46:00.000Z</v>
       </c>
       <c r="K19">
-        <v>4141822481000</v>
+        <v>1875059536000</v>
       </c>
       <c r="L19">
-        <v>235696100</v>
+        <v>108827800</v>
       </c>
       <c r="M19">
-        <v>7965800</v>
+        <v>64800</v>
       </c>
       <c r="N19">
-        <v>138078156000</v>
+        <v>3415995000</v>
       </c>
       <c r="O19">
-        <v>34374300</v>
+        <v>5847800</v>
       </c>
       <c r="P19">
-        <v>636666024000</v>
+        <v>109893118000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1670841600000</v>
+        <v>1670838480000</v>
       </c>
       <c r="B20">
-        <v>4319300</v>
+        <v>2245600</v>
       </c>
       <c r="C20">
-        <v>8163600</v>
+        <v>2559600</v>
       </c>
       <c r="D20">
-        <v>21700</v>
+        <v>24900</v>
       </c>
       <c r="E20">
-        <v>76373986000</v>
+        <v>41889510000</v>
       </c>
       <c r="F20">
-        <v>132074632000</v>
+        <v>44909896000</v>
       </c>
       <c r="G20">
-        <v>259939000</v>
+        <v>1013122000</v>
       </c>
       <c r="H20">
-        <v>12504600</v>
+        <v>4830100</v>
       </c>
       <c r="I20">
-        <v>208708557000</v>
+        <v>87812528000</v>
       </c>
       <c r="J20" t="str">
-        <v>2022-12-12T10:40:00.000Z</v>
+        <v>2022-12-12T09:48:00.000Z</v>
       </c>
       <c r="K20">
-        <v>4350531038000</v>
+        <v>1962872064000</v>
       </c>
       <c r="L20">
-        <v>248200700</v>
+        <v>113657900</v>
       </c>
       <c r="M20">
-        <v>3844300</v>
+        <v>314000</v>
       </c>
       <c r="N20">
-        <v>55700646000</v>
+        <v>3020386000</v>
       </c>
       <c r="O20">
-        <v>38218600</v>
+        <v>6161800</v>
       </c>
       <c r="P20">
-        <v>692366670000</v>
+        <v>112913504000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1670841900000</v>
+        <v>1670838600000</v>
       </c>
       <c r="B21">
-        <v>5763600</v>
+        <v>2187700</v>
       </c>
       <c r="C21">
-        <v>4310100</v>
+        <v>2204100</v>
       </c>
       <c r="D21">
-        <v>65400</v>
+        <v>29000</v>
       </c>
       <c r="E21">
-        <v>92902157000</v>
+        <v>47205656000</v>
       </c>
       <c r="F21">
-        <v>82301323000</v>
+        <v>41468187000</v>
       </c>
       <c r="G21">
-        <v>1194957000</v>
+        <v>395187000</v>
       </c>
       <c r="H21">
-        <v>10139100</v>
+        <v>4420800</v>
       </c>
       <c r="I21">
-        <v>176398437000</v>
+        <v>89069030000</v>
       </c>
       <c r="J21" t="str">
-        <v>2022-12-12T10:45:00.000Z</v>
+        <v>2022-12-12T09:50:00.000Z</v>
       </c>
       <c r="K21">
-        <v>4526929475000</v>
+        <v>2051941094000</v>
       </c>
       <c r="L21">
-        <v>258339800</v>
+        <v>118078700</v>
       </c>
       <c r="M21">
-        <v>-1453500</v>
+        <v>16400</v>
       </c>
       <c r="N21">
-        <v>-10600834000</v>
+        <v>-5737469000</v>
       </c>
       <c r="O21">
-        <v>36765100</v>
+        <v>6178200</v>
       </c>
       <c r="P21">
-        <v>681765836000</v>
+        <v>107176035000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1670842200000</v>
+        <v>1670838720000</v>
       </c>
       <c r="B22">
-        <v>4125200</v>
+        <v>3353400</v>
       </c>
       <c r="C22">
-        <v>4420200</v>
+        <v>2759000</v>
       </c>
       <c r="D22">
-        <v>155900</v>
+        <v>34000</v>
       </c>
       <c r="E22">
-        <v>64636233000</v>
+        <v>57283675000</v>
       </c>
       <c r="F22">
-        <v>91126504000</v>
+        <v>51855022000</v>
       </c>
       <c r="G22">
-        <v>3415639000</v>
+        <v>343647000</v>
       </c>
       <c r="H22">
-        <v>8701300</v>
+        <v>6146400</v>
       </c>
       <c r="I22">
-        <v>159178376000</v>
+        <v>109482344000</v>
       </c>
       <c r="J22" t="str">
-        <v>2022-12-12T10:50:00.000Z</v>
+        <v>2022-12-12T09:52:00.000Z</v>
       </c>
       <c r="K22">
-        <v>4686107851000</v>
+        <v>2161423438000</v>
       </c>
       <c r="L22">
-        <v>267041100</v>
+        <v>124225100</v>
       </c>
       <c r="M22">
-        <v>295000</v>
+        <v>-594400</v>
       </c>
       <c r="N22">
-        <v>26490271000</v>
+        <v>-5428653000</v>
       </c>
       <c r="O22">
-        <v>37060100</v>
+        <v>5583800</v>
       </c>
       <c r="P22">
-        <v>708256107000</v>
+        <v>101747382000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1670842500000</v>
+        <v>1670838840000</v>
       </c>
       <c r="B23">
-        <v>2989500</v>
+        <v>2249200</v>
       </c>
       <c r="C23">
-        <v>6435300</v>
+        <v>1837300</v>
       </c>
       <c r="D23">
-        <v>38700</v>
+        <v>21600</v>
       </c>
       <c r="E23">
-        <v>56108669000</v>
+        <v>42552703000</v>
       </c>
       <c r="F23">
-        <v>125677386000</v>
+        <v>33814526000</v>
       </c>
       <c r="G23">
-        <v>425906000</v>
+        <v>408084000</v>
       </c>
       <c r="H23">
-        <v>9463500</v>
+        <v>4108100</v>
       </c>
       <c r="I23">
-        <v>182211961000</v>
+        <v>76775313000</v>
       </c>
       <c r="J23" t="str">
-        <v>2022-12-12T10:55:00.000Z</v>
+        <v>2022-12-12T09:54:00.000Z</v>
       </c>
       <c r="K23">
-        <v>4868319812000</v>
+        <v>2238198751000</v>
       </c>
       <c r="L23">
-        <v>276504600</v>
+        <v>128333200</v>
       </c>
       <c r="M23">
-        <v>3445800</v>
+        <v>-411900</v>
       </c>
       <c r="N23">
-        <v>69568717000</v>
+        <v>-8738177000</v>
       </c>
       <c r="O23">
-        <v>40505900</v>
+        <v>5171900</v>
       </c>
       <c r="P23">
-        <v>777824824000</v>
+        <v>93009205000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1670842800000</v>
+        <v>1670838960000</v>
       </c>
       <c r="B24">
-        <v>5671100</v>
+        <v>2780100</v>
       </c>
       <c r="C24">
-        <v>4156600</v>
+        <v>2190000</v>
       </c>
       <c r="D24">
-        <v>24300</v>
+        <v>12500</v>
       </c>
       <c r="E24">
-        <v>98611318000</v>
+        <v>45218820000</v>
       </c>
       <c r="F24">
-        <v>80224597000</v>
+        <v>38549646000</v>
       </c>
       <c r="G24">
-        <v>649294000</v>
+        <v>441705000</v>
       </c>
       <c r="H24">
-        <v>9852000</v>
+        <v>4982600</v>
       </c>
       <c r="I24">
-        <v>179485209000</v>
+        <v>84210171000</v>
       </c>
       <c r="J24" t="str">
-        <v>2022-12-12T11:00:00.000Z</v>
+        <v>2022-12-12T09:56:00.000Z</v>
       </c>
       <c r="K24">
-        <v>5047805021000</v>
+        <v>2322408922000</v>
       </c>
       <c r="L24">
-        <v>286356600</v>
+        <v>133315800</v>
       </c>
       <c r="M24">
-        <v>-1514500</v>
+        <v>-590100</v>
       </c>
       <c r="N24">
-        <v>-18386721000</v>
+        <v>-6669174000</v>
       </c>
       <c r="O24">
-        <v>38991400</v>
+        <v>4581800</v>
       </c>
       <c r="P24">
-        <v>759438103000</v>
+        <v>86340031000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1670843100000</v>
+        <v>1670839080000</v>
       </c>
       <c r="B25">
-        <v>3556100</v>
+        <v>2191200</v>
       </c>
       <c r="C25">
-        <v>3688300</v>
+        <v>2667600</v>
       </c>
       <c r="D25">
-        <v>34700</v>
+        <v>41100</v>
       </c>
       <c r="E25">
-        <v>53383258000</v>
+        <v>37627606000</v>
       </c>
       <c r="F25">
-        <v>72693494000</v>
+        <v>59560809000</v>
       </c>
       <c r="G25">
-        <v>670395000</v>
+        <v>387079000</v>
       </c>
       <c r="H25">
-        <v>7279100</v>
+        <v>4899900</v>
       </c>
       <c r="I25">
-        <v>126747147000</v>
+        <v>97575494000</v>
       </c>
       <c r="J25" t="str">
-        <v>2022-12-12T11:05:00.000Z</v>
+        <v>2022-12-12T09:58:00.000Z</v>
       </c>
       <c r="K25">
-        <v>5174552168000</v>
+        <v>2419984416000</v>
       </c>
       <c r="L25">
-        <v>293635700</v>
+        <v>138215700</v>
       </c>
       <c r="M25">
-        <v>132200</v>
+        <v>476400</v>
       </c>
       <c r="N25">
-        <v>19310236000</v>
+        <v>21933203000</v>
       </c>
       <c r="O25">
-        <v>39123600</v>
+        <v>5058200</v>
       </c>
       <c r="P25">
-        <v>778748339000</v>
+        <v>108273234000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1670843400000</v>
+        <v>1670839200000</v>
       </c>
       <c r="B26">
-        <v>2773200</v>
+        <v>1637900</v>
       </c>
       <c r="C26">
-        <v>3844400</v>
+        <v>2928100</v>
       </c>
       <c r="D26">
-        <v>55900</v>
+        <v>7100</v>
       </c>
       <c r="E26">
-        <v>46408545000</v>
+        <v>32135535000</v>
       </c>
       <c r="F26">
-        <v>82625279000</v>
+        <v>46190399000</v>
       </c>
       <c r="G26">
-        <v>1122260000</v>
+        <v>218610000</v>
       </c>
       <c r="H26">
-        <v>6673500</v>
+        <v>4573100</v>
       </c>
       <c r="I26">
-        <v>130156084000</v>
+        <v>78544544000</v>
       </c>
       <c r="J26" t="str">
-        <v>2022-12-12T11:10:00.000Z</v>
+        <v>2022-12-12T10:00:00.000Z</v>
       </c>
       <c r="K26">
-        <v>5304708252000</v>
+        <v>2498528960000</v>
       </c>
       <c r="L26">
-        <v>300309200</v>
+        <v>142788800</v>
       </c>
       <c r="M26">
-        <v>1071200</v>
+        <v>1290200</v>
       </c>
       <c r="N26">
-        <v>36216734000</v>
+        <v>14054864000</v>
       </c>
       <c r="O26">
-        <v>40194800</v>
+        <v>6348400</v>
       </c>
       <c r="P26">
-        <v>814965073000</v>
+        <v>122328098000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1670843700000</v>
+        <v>1670839320000</v>
       </c>
       <c r="B27">
-        <v>4314500</v>
+        <v>1409600</v>
       </c>
       <c r="C27">
-        <v>3821100</v>
+        <v>3445000</v>
       </c>
       <c r="D27">
-        <v>29900</v>
+        <v>15100</v>
       </c>
       <c r="E27">
-        <v>81176047000</v>
+        <v>26654088000</v>
       </c>
       <c r="F27">
-        <v>79390404000</v>
+        <v>51988532000</v>
       </c>
       <c r="G27">
-        <v>426337000</v>
+        <v>385740000</v>
       </c>
       <c r="H27">
-        <v>8165500</v>
+        <v>4869700</v>
       </c>
       <c r="I27">
-        <v>160992788000</v>
+        <v>79028360000</v>
       </c>
       <c r="J27" t="str">
-        <v>2022-12-12T11:15:00.000Z</v>
+        <v>2022-12-12T10:02:00.000Z</v>
       </c>
       <c r="K27">
-        <v>5465701040000</v>
+        <v>2577557320000</v>
       </c>
       <c r="L27">
-        <v>308474700</v>
+        <v>147658500</v>
       </c>
       <c r="M27">
-        <v>-493400</v>
+        <v>2035400</v>
       </c>
       <c r="N27">
-        <v>-1785643000</v>
+        <v>25334444000</v>
       </c>
       <c r="O27">
-        <v>39701400</v>
+        <v>8383800</v>
       </c>
       <c r="P27">
-        <v>813179430000</v>
+        <v>147662542000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1670844000000</v>
+        <v>1670839440000</v>
       </c>
       <c r="B28">
-        <v>8854200</v>
+        <v>2050800</v>
       </c>
       <c r="C28">
-        <v>2852900</v>
+        <v>2932900</v>
       </c>
       <c r="D28">
-        <v>78700</v>
+        <v>5000</v>
       </c>
       <c r="E28">
-        <v>151080574000</v>
+        <v>38165375000</v>
       </c>
       <c r="F28">
-        <v>59096458000</v>
+        <v>45466683000</v>
       </c>
       <c r="G28">
-        <v>645231000</v>
+        <v>178949000</v>
       </c>
       <c r="H28">
-        <v>11785800</v>
+        <v>4988700</v>
       </c>
       <c r="I28">
-        <v>210822263000</v>
+        <v>83811007000</v>
       </c>
       <c r="J28" t="str">
-        <v>2022-12-12T11:20:00.000Z</v>
+        <v>2022-12-12T10:04:00.000Z</v>
       </c>
       <c r="K28">
-        <v>5676523303000</v>
+        <v>2661368327000</v>
       </c>
       <c r="L28">
-        <v>320260500</v>
+        <v>152647200</v>
       </c>
       <c r="M28">
-        <v>-6001300</v>
+        <v>882100</v>
       </c>
       <c r="N28">
-        <v>-91984116000</v>
+        <v>7301308000</v>
       </c>
       <c r="O28">
-        <v>33700100</v>
+        <v>9265900</v>
       </c>
       <c r="P28">
-        <v>721195314000</v>
+        <v>154963850000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1670844300000</v>
+        <v>1670839560000</v>
       </c>
       <c r="B29">
-        <v>4590100</v>
+        <v>1782500</v>
       </c>
       <c r="C29">
-        <v>2285800</v>
+        <v>3467800</v>
       </c>
       <c r="D29">
-        <v>24700</v>
+        <v>30900</v>
       </c>
       <c r="E29">
-        <v>82023417000</v>
+        <v>27999224000</v>
       </c>
       <c r="F29">
-        <v>41959802000</v>
+        <v>67902925000</v>
       </c>
       <c r="G29">
-        <v>564799000</v>
+        <v>754557000</v>
       </c>
       <c r="H29">
-        <v>6900600</v>
+        <v>5281200</v>
       </c>
       <c r="I29">
-        <v>124548018000</v>
+        <v>96656706000</v>
       </c>
       <c r="J29" t="str">
-        <v>2022-12-12T11:25:00.000Z</v>
+        <v>2022-12-12T10:06:00.000Z</v>
       </c>
       <c r="K29">
-        <v>5801071321000</v>
+        <v>2758025033000</v>
       </c>
       <c r="L29">
-        <v>327161100</v>
+        <v>157928400</v>
       </c>
       <c r="M29">
-        <v>-2304300</v>
+        <v>1685300</v>
       </c>
       <c r="N29">
-        <v>-40063615000</v>
+        <v>39903701000</v>
       </c>
       <c r="O29">
-        <v>31395800</v>
+        <v>10951200</v>
       </c>
       <c r="P29">
-        <v>681131699000</v>
+        <v>194867551000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1670850000000</v>
+        <v>1670839680000</v>
       </c>
       <c r="B30">
-        <v>12363800</v>
+        <v>2169400</v>
       </c>
       <c r="C30">
-        <v>6143500</v>
+        <v>5557800</v>
       </c>
       <c r="D30">
-        <v>496200</v>
+        <v>66900</v>
       </c>
       <c r="E30">
-        <v>199188674000</v>
+        <v>34774592000</v>
       </c>
       <c r="F30">
-        <v>118620358000</v>
+        <v>95896483000</v>
       </c>
       <c r="G30">
-        <v>7683011000</v>
+        <v>2066175000</v>
       </c>
       <c r="H30">
-        <v>19003500</v>
+        <v>7794100</v>
       </c>
       <c r="I30">
-        <v>325492043000</v>
+        <v>132737250000</v>
       </c>
       <c r="J30" t="str">
-        <v>2022-12-12T13:00:00.000Z</v>
+        <v>2022-12-12T10:08:00.000Z</v>
       </c>
       <c r="K30">
-        <v>6126563364000</v>
+        <v>2890762283000</v>
       </c>
       <c r="L30">
-        <v>346164600</v>
+        <v>165722500</v>
       </c>
       <c r="M30">
-        <v>-6220300</v>
+        <v>3388400</v>
       </c>
       <c r="N30">
-        <v>-80568316000</v>
+        <v>61121891000</v>
       </c>
       <c r="O30">
-        <v>25175500</v>
+        <v>14339600</v>
       </c>
       <c r="P30">
-        <v>600563383000</v>
+        <v>255989442000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1670850300000</v>
+        <v>1670839800000</v>
       </c>
       <c r="B31">
-        <v>5898400</v>
+        <v>1908600</v>
       </c>
       <c r="C31">
-        <v>6116300</v>
+        <v>5698000</v>
       </c>
       <c r="D31">
-        <v>39300</v>
+        <v>57900</v>
       </c>
       <c r="E31">
-        <v>100551130000</v>
+        <v>32503110000</v>
       </c>
       <c r="F31">
-        <v>125441338000</v>
+        <v>97583961000</v>
       </c>
       <c r="G31">
-        <v>472514000</v>
+        <v>954829000</v>
       </c>
       <c r="H31">
-        <v>12054000</v>
+        <v>7664500</v>
       </c>
       <c r="I31">
-        <v>226464982000</v>
+        <v>131041900000</v>
       </c>
       <c r="J31" t="str">
-        <v>2022-12-12T13:05:00.000Z</v>
+        <v>2022-12-12T10:10:00.000Z</v>
       </c>
       <c r="K31">
-        <v>6353028346000</v>
+        <v>3021804183000</v>
       </c>
       <c r="L31">
-        <v>358218600</v>
+        <v>173387000</v>
       </c>
       <c r="M31">
-        <v>217900</v>
+        <v>3789400</v>
       </c>
       <c r="N31">
-        <v>24890208000</v>
+        <v>65080851000</v>
       </c>
       <c r="O31">
-        <v>25393400</v>
+        <v>18129000</v>
       </c>
       <c r="P31">
-        <v>625453591000</v>
+        <v>321070293000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1670850600000</v>
+        <v>1670839920000</v>
       </c>
       <c r="B32">
-        <v>14095300</v>
+        <v>2914000</v>
       </c>
       <c r="C32">
-        <v>3425800</v>
+        <v>3211700</v>
       </c>
       <c r="D32">
-        <v>81500</v>
+        <v>22000</v>
       </c>
       <c r="E32">
-        <v>232742699000</v>
+        <v>53952115000</v>
       </c>
       <c r="F32">
-        <v>70679770000</v>
+        <v>56549942000</v>
       </c>
       <c r="G32">
-        <v>1335317000</v>
+        <v>373935000</v>
       </c>
       <c r="H32">
-        <v>17602600</v>
+        <v>6147700</v>
       </c>
       <c r="I32">
-        <v>304757786000</v>
+        <v>110875992000</v>
       </c>
       <c r="J32" t="str">
-        <v>2022-12-12T13:10:00.000Z</v>
+        <v>2022-12-12T10:12:00.000Z</v>
       </c>
       <c r="K32">
-        <v>6657786132000</v>
+        <v>3132680175000</v>
       </c>
       <c r="L32">
-        <v>375821200</v>
+        <v>179534700</v>
       </c>
       <c r="M32">
-        <v>-10669500</v>
+        <v>297700</v>
       </c>
       <c r="N32">
-        <v>-162062929000</v>
+        <v>2597827000</v>
       </c>
       <c r="O32">
-        <v>14723900</v>
+        <v>18426700</v>
       </c>
       <c r="P32">
-        <v>463390662000</v>
+        <v>323668120000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1670850900000</v>
+        <v>1670840040000</v>
       </c>
       <c r="B33">
-        <v>13227900</v>
+        <v>2479500</v>
       </c>
       <c r="C33">
-        <v>6429800</v>
+        <v>1636100</v>
       </c>
       <c r="D33">
-        <v>75500</v>
+        <v>1200</v>
       </c>
       <c r="E33">
-        <v>220776623000</v>
+        <v>38344902000</v>
       </c>
       <c r="F33">
-        <v>116969817000</v>
+        <v>29288095000</v>
       </c>
       <c r="G33">
-        <v>903542000</v>
+        <v>24235000</v>
       </c>
       <c r="H33">
-        <v>19733200</v>
+        <v>4116800</v>
       </c>
       <c r="I33">
-        <v>338649982000</v>
+        <v>67657232000</v>
       </c>
       <c r="J33" t="str">
-        <v>2022-12-12T13:15:00.000Z</v>
+        <v>2022-12-12T10:14:00.000Z</v>
       </c>
       <c r="K33">
-        <v>6996436114000</v>
+        <v>3200337407000</v>
       </c>
       <c r="L33">
-        <v>395554400</v>
+        <v>183651500</v>
       </c>
       <c r="M33">
-        <v>-6798100</v>
+        <v>-843400</v>
       </c>
       <c r="N33">
-        <v>-103806806000</v>
+        <v>-9056807000</v>
       </c>
       <c r="O33">
-        <v>7925800</v>
+        <v>17583300</v>
       </c>
       <c r="P33">
-        <v>359583856000</v>
+        <v>314611313000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1670851200000</v>
+        <v>1670840160000</v>
       </c>
       <c r="B34">
-        <v>5363700</v>
+        <v>1512900</v>
       </c>
       <c r="C34">
-        <v>5466200</v>
+        <v>1409700</v>
       </c>
       <c r="D34">
-        <v>255700</v>
+        <v>11600</v>
       </c>
       <c r="E34">
-        <v>91617317000</v>
+        <v>27927500000</v>
       </c>
       <c r="F34">
-        <v>95865852000</v>
+        <v>22970124000</v>
       </c>
       <c r="G34">
-        <v>4151713000</v>
+        <v>164517000</v>
       </c>
       <c r="H34">
-        <v>11085600</v>
+        <v>2934200</v>
       </c>
       <c r="I34">
-        <v>191634882000</v>
+        <v>51062141000</v>
       </c>
       <c r="J34" t="str">
-        <v>2022-12-12T13:20:00.000Z</v>
+        <v>2022-12-12T10:16:00.000Z</v>
       </c>
       <c r="K34">
-        <v>7188070996000</v>
+        <v>3251399548000</v>
       </c>
       <c r="L34">
-        <v>406640000</v>
+        <v>186585700</v>
       </c>
       <c r="M34">
-        <v>102500</v>
+        <v>-103200</v>
       </c>
       <c r="N34">
-        <v>4248535000</v>
+        <v>-4957376000</v>
       </c>
       <c r="O34">
-        <v>8028300</v>
+        <v>17480100</v>
       </c>
       <c r="P34">
-        <v>363832391000</v>
+        <v>309653937000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1670851500000</v>
+        <v>1670840280000</v>
       </c>
       <c r="B35">
-        <v>5932600</v>
+        <v>1906700</v>
       </c>
       <c r="C35">
-        <v>4659300</v>
+        <v>1901500</v>
       </c>
       <c r="D35">
-        <v>80700</v>
+        <v>7800</v>
       </c>
       <c r="E35">
-        <v>94681882000</v>
+        <v>34969746000</v>
       </c>
       <c r="F35">
-        <v>86066927000</v>
+        <v>36498795000</v>
       </c>
       <c r="G35">
-        <v>1386624000</v>
+        <v>240027000</v>
       </c>
       <c r="H35">
-        <v>10672600</v>
+        <v>3816000</v>
       </c>
       <c r="I35">
-        <v>182135433000</v>
+        <v>71708568000</v>
       </c>
       <c r="J35" t="str">
-        <v>2022-12-12T13:25:00.000Z</v>
+        <v>2022-12-12T10:18:00.000Z</v>
       </c>
       <c r="K35">
-        <v>7370206429000</v>
+        <v>3323108116000</v>
       </c>
       <c r="L35">
-        <v>417312600</v>
+        <v>190401700</v>
       </c>
       <c r="M35">
-        <v>-1273300</v>
+        <v>-5200</v>
       </c>
       <c r="N35">
-        <v>-8614955000</v>
+        <v>1529049000</v>
       </c>
       <c r="O35">
-        <v>6755000</v>
+        <v>17474900</v>
       </c>
       <c r="P35">
-        <v>355217436000</v>
+        <v>311182986000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1670851800000</v>
+        <v>1670840400000</v>
       </c>
       <c r="B36">
-        <v>12597200</v>
+        <v>1322000</v>
       </c>
       <c r="C36">
-        <v>4090800</v>
+        <v>1535700</v>
       </c>
       <c r="D36">
-        <v>36300</v>
+        <v>1800</v>
       </c>
       <c r="E36">
-        <v>222997501000</v>
+        <v>21562385000</v>
       </c>
       <c r="F36">
-        <v>77886565000</v>
+        <v>28970728000</v>
       </c>
       <c r="G36">
-        <v>568890000</v>
+        <v>11455000</v>
       </c>
       <c r="H36">
-        <v>16724300</v>
+        <v>2859500</v>
       </c>
       <c r="I36">
-        <v>301452956000</v>
+        <v>50544568000</v>
       </c>
       <c r="J36" t="str">
-        <v>2022-12-12T13:30:00.000Z</v>
+        <v>2022-12-12T10:20:00.000Z</v>
       </c>
       <c r="K36">
-        <v>7671659385000</v>
+        <v>3373652684000</v>
       </c>
       <c r="L36">
-        <v>434036900</v>
+        <v>193261200</v>
       </c>
       <c r="M36">
-        <v>-8506400</v>
+        <v>213700</v>
       </c>
       <c r="N36">
-        <v>-145110936000</v>
+        <v>7408343000</v>
       </c>
       <c r="O36">
-        <v>-1751400</v>
+        <v>17688600</v>
       </c>
       <c r="P36">
-        <v>210106500000</v>
+        <v>318591329000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1670852100000</v>
+        <v>1670840520000</v>
       </c>
       <c r="B37">
-        <v>8766000</v>
+        <v>1481600</v>
       </c>
       <c r="C37">
-        <v>4439500</v>
+        <v>1170500</v>
       </c>
       <c r="D37">
-        <v>41800</v>
+        <v>34700</v>
       </c>
       <c r="E37">
-        <v>146697842000</v>
+        <v>23055817000</v>
       </c>
       <c r="F37">
-        <v>88962765000</v>
+        <v>21406556000</v>
       </c>
       <c r="G37">
-        <v>725536000</v>
+        <v>399334000</v>
       </c>
       <c r="H37">
-        <v>13247300</v>
+        <v>2686800</v>
       </c>
       <c r="I37">
-        <v>236386143000</v>
+        <v>44861707000</v>
       </c>
       <c r="J37" t="str">
-        <v>2022-12-12T13:35:00.000Z</v>
+        <v>2022-12-12T10:22:00.000Z</v>
       </c>
       <c r="K37">
-        <v>7908045528000</v>
+        <v>3418514391000</v>
       </c>
       <c r="L37">
-        <v>447284200</v>
+        <v>195948000</v>
       </c>
       <c r="M37">
-        <v>-4326500</v>
+        <v>-311100</v>
       </c>
       <c r="N37">
-        <v>-57735077000</v>
+        <v>-1649261000</v>
       </c>
       <c r="O37">
-        <v>-6077900</v>
+        <v>17377500</v>
       </c>
       <c r="P37">
-        <v>152371423000</v>
+        <v>316942068000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1670852400000</v>
+        <v>1670840640000</v>
       </c>
       <c r="B38">
-        <v>3756200</v>
+        <v>1881400</v>
       </c>
       <c r="C38">
-        <v>6884100</v>
+        <v>1870700</v>
       </c>
       <c r="D38">
-        <v>5600</v>
+        <v>6100</v>
       </c>
       <c r="E38">
-        <v>66107251000</v>
+        <v>29041055000</v>
       </c>
       <c r="F38">
-        <v>133828775000</v>
+        <v>39183286000</v>
       </c>
       <c r="G38">
-        <v>128565000</v>
+        <v>99212000</v>
       </c>
       <c r="H38">
-        <v>10645900</v>
+        <v>3758200</v>
       </c>
       <c r="I38">
-        <v>200064591000</v>
+        <v>68323553000</v>
       </c>
       <c r="J38" t="str">
-        <v>2022-12-12T13:40:00.000Z</v>
+        <v>2022-12-12T10:24:00.000Z</v>
       </c>
       <c r="K38">
-        <v>8108110119000</v>
+        <v>3486837944000</v>
       </c>
       <c r="L38">
-        <v>457930100</v>
+        <v>199706200</v>
       </c>
       <c r="M38">
-        <v>3127900</v>
+        <v>-10700</v>
       </c>
       <c r="N38">
-        <v>67721524000</v>
+        <v>10142231000</v>
       </c>
       <c r="O38">
-        <v>-2950000</v>
+        <v>17366800</v>
       </c>
       <c r="P38">
-        <v>220092947000</v>
+        <v>327084299000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1670852700000</v>
+        <v>1670840760000</v>
       </c>
       <c r="B39">
-        <v>4128200</v>
+        <v>1396900</v>
       </c>
       <c r="C39">
-        <v>5309100</v>
+        <v>2573300</v>
       </c>
       <c r="D39">
-        <v>36400</v>
+        <v>8400</v>
       </c>
       <c r="E39">
-        <v>73321837000</v>
+        <v>21833048000</v>
       </c>
       <c r="F39">
-        <v>96042009000</v>
+        <v>50086245000</v>
       </c>
       <c r="G39">
-        <v>736565000</v>
+        <v>168230000</v>
       </c>
       <c r="H39">
-        <v>9473700</v>
+        <v>3978600</v>
       </c>
       <c r="I39">
-        <v>170100411000</v>
+        <v>72087523000</v>
       </c>
       <c r="J39" t="str">
-        <v>2022-12-12T13:45:00.000Z</v>
+        <v>2022-12-12T10:26:00.000Z</v>
       </c>
       <c r="K39">
-        <v>8278210530000</v>
+        <v>3558925467000</v>
       </c>
       <c r="L39">
-        <v>467403800</v>
+        <v>203684800</v>
       </c>
       <c r="M39">
-        <v>1180900</v>
+        <v>1176400</v>
       </c>
       <c r="N39">
-        <v>22720172000</v>
+        <v>28253197000</v>
       </c>
       <c r="O39">
-        <v>-1769100</v>
+        <v>18543200</v>
       </c>
       <c r="P39">
-        <v>242813119000</v>
+        <v>355337496000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1670853000000</v>
+        <v>1670840880000</v>
       </c>
       <c r="B40">
-        <v>17065300</v>
+        <v>946400</v>
       </c>
       <c r="C40">
-        <v>2733800</v>
+        <v>3278000</v>
       </c>
       <c r="D40">
-        <v>102300</v>
+        <v>21100</v>
       </c>
       <c r="E40">
-        <v>294989481000</v>
+        <v>17887568000</v>
       </c>
       <c r="F40">
-        <v>48497372000</v>
+        <v>56115671000</v>
       </c>
       <c r="G40">
-        <v>1195865000</v>
+        <v>476195000</v>
       </c>
       <c r="H40">
-        <v>19901400</v>
+        <v>4245500</v>
       </c>
       <c r="I40">
-        <v>344682718000</v>
+        <v>74479434000</v>
       </c>
       <c r="J40" t="str">
-        <v>2022-12-12T13:50:00.000Z</v>
+        <v>2022-12-12T10:28:00.000Z</v>
       </c>
       <c r="K40">
-        <v>8622893248000</v>
+        <v>3633404901000</v>
       </c>
       <c r="L40">
-        <v>487305200</v>
+        <v>207930300</v>
       </c>
       <c r="M40">
-        <v>-14331500</v>
+        <v>2331600</v>
       </c>
       <c r="N40">
-        <v>-246492109000</v>
+        <v>38228103000</v>
       </c>
       <c r="O40">
-        <v>-16100600</v>
+        <v>20874800</v>
       </c>
       <c r="P40">
-        <v>-3678990000</v>
+        <v>393565599000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1670853300000</v>
+        <v>1670841000000</v>
       </c>
       <c r="B41">
-        <v>6350500</v>
+        <v>1430400</v>
       </c>
       <c r="C41">
-        <v>5487900</v>
+        <v>3500100</v>
       </c>
       <c r="D41">
-        <v>23300</v>
+        <v>23000</v>
       </c>
       <c r="E41">
-        <v>113667868000</v>
+        <v>24146919000</v>
       </c>
       <c r="F41">
-        <v>102183788000</v>
+        <v>68096098000</v>
       </c>
       <c r="G41">
-        <v>422271000</v>
+        <v>342636000</v>
       </c>
       <c r="H41">
-        <v>11861700</v>
+        <v>4953500</v>
       </c>
       <c r="I41">
-        <v>216273927000</v>
+        <v>92585653000</v>
       </c>
       <c r="J41" t="str">
-        <v>2022-12-12T13:55:00.000Z</v>
+        <v>2022-12-12T10:30:00.000Z</v>
       </c>
       <c r="K41">
-        <v>8839167175000</v>
+        <v>3725990554000</v>
       </c>
       <c r="L41">
-        <v>499166900</v>
+        <v>212883800</v>
       </c>
       <c r="M41">
-        <v>-862600</v>
+        <v>2069700</v>
       </c>
       <c r="N41">
-        <v>-11484080000</v>
+        <v>43949179000</v>
       </c>
       <c r="O41">
-        <v>-16963200</v>
+        <v>22944500</v>
       </c>
       <c r="P41">
-        <v>-15163070000</v>
+        <v>437514778000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1670853600000</v>
+        <v>1670841120000</v>
       </c>
       <c r="B42">
-        <v>14586400</v>
+        <v>1027700</v>
       </c>
       <c r="C42">
-        <v>3862300</v>
+        <v>3566200</v>
       </c>
       <c r="D42">
-        <v>134400</v>
+        <v>4100</v>
       </c>
       <c r="E42">
-        <v>275952887000</v>
+        <v>21109385000</v>
       </c>
       <c r="F42">
-        <v>72203493000</v>
+        <v>63002139000</v>
       </c>
       <c r="G42">
-        <v>2524874000</v>
+        <v>109500000</v>
       </c>
       <c r="H42">
-        <v>18583100</v>
+        <v>4598000</v>
       </c>
       <c r="I42">
-        <v>350681254000</v>
+        <v>84221024000</v>
       </c>
       <c r="J42" t="str">
-        <v>2022-12-12T14:00:00.000Z</v>
+        <v>2022-12-12T10:32:00.000Z</v>
       </c>
       <c r="K42">
-        <v>9189848429000</v>
+        <v>3810211578000</v>
       </c>
       <c r="L42">
-        <v>517750000</v>
+        <v>217481800</v>
       </c>
       <c r="M42">
-        <v>-10724100</v>
+        <v>2538500</v>
       </c>
       <c r="N42">
-        <v>-203749394000</v>
+        <v>41892754000</v>
       </c>
       <c r="O42">
-        <v>-27687300</v>
+        <v>25483000</v>
       </c>
       <c r="P42">
-        <v>-218912464000</v>
+        <v>479407532000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1670853900000</v>
+        <v>1670841240000</v>
       </c>
       <c r="B43">
-        <v>31213000</v>
+        <v>1394900</v>
       </c>
       <c r="C43">
-        <v>10323400</v>
+        <v>3154400</v>
       </c>
       <c r="D43">
-        <v>415600</v>
+        <v>3900</v>
       </c>
       <c r="E43">
-        <v>510204594000</v>
+        <v>25806530000</v>
       </c>
       <c r="F43">
-        <v>176145370000</v>
+        <v>60582743000</v>
       </c>
       <c r="G43">
-        <v>6245696000</v>
+        <v>56485000</v>
       </c>
       <c r="H43">
-        <v>41952000</v>
+        <v>4553200</v>
       </c>
       <c r="I43">
-        <v>692595660000</v>
+        <v>86445758000</v>
       </c>
       <c r="J43" t="str">
-        <v>2022-12-12T14:05:00.000Z</v>
+        <v>2022-12-12T10:34:00.000Z</v>
       </c>
       <c r="K43">
-        <v>9882444089000</v>
+        <v>3896657336000</v>
       </c>
       <c r="L43">
-        <v>559702000</v>
+        <v>222035000</v>
       </c>
       <c r="M43">
-        <v>-20889600</v>
+        <v>1759500</v>
       </c>
       <c r="N43">
-        <v>-334059224000</v>
+        <v>34776213000</v>
       </c>
       <c r="O43">
-        <v>-48576900</v>
+        <v>27242500</v>
       </c>
       <c r="P43">
-        <v>-552971688000</v>
+        <v>514183745000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1670854200000</v>
+        <v>1670841360000</v>
       </c>
       <c r="B44">
-        <v>9349100</v>
+        <v>1635200</v>
       </c>
       <c r="C44">
-        <v>9312800</v>
+        <v>6307100</v>
       </c>
       <c r="D44">
-        <v>118000</v>
+        <v>20800</v>
       </c>
       <c r="E44">
-        <v>160721206000</v>
+        <v>29463810000</v>
       </c>
       <c r="F44">
-        <v>152786066000</v>
+        <v>110657713000</v>
       </c>
       <c r="G44">
-        <v>1826603000</v>
+        <v>192126000</v>
       </c>
       <c r="H44">
-        <v>18779900</v>
+        <v>7963100</v>
       </c>
       <c r="I44">
-        <v>315333875000</v>
+        <v>140313649000</v>
       </c>
       <c r="J44" t="str">
-        <v>2022-12-12T14:10:00.000Z</v>
+        <v>2022-12-12T10:36:00.000Z</v>
       </c>
       <c r="K44">
-        <v>10197777964000</v>
+        <v>4036970985000</v>
       </c>
       <c r="L44">
-        <v>578481900</v>
+        <v>229998100</v>
       </c>
       <c r="M44">
-        <v>-36300</v>
+        <v>4671900</v>
       </c>
       <c r="N44">
-        <v>-7935140000</v>
+        <v>81193903000</v>
       </c>
       <c r="O44">
-        <v>-48613200</v>
+        <v>31914400</v>
       </c>
       <c r="P44">
-        <v>-560906828000</v>
+        <v>595377648000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1670854500000</v>
+        <v>1670841480000</v>
       </c>
       <c r="B45">
-        <v>26804700</v>
+        <v>1610200</v>
       </c>
       <c r="C45">
-        <v>6444100</v>
+        <v>4070100</v>
       </c>
       <c r="D45">
-        <v>776700</v>
+        <v>17700</v>
       </c>
       <c r="E45">
-        <v>469335629000</v>
+        <v>31645450000</v>
       </c>
       <c r="F45">
-        <v>122076267000</v>
+        <v>72933826000</v>
       </c>
       <c r="G45">
-        <v>12044882000</v>
+        <v>272220000</v>
       </c>
       <c r="H45">
-        <v>34025500</v>
+        <v>5698000</v>
       </c>
       <c r="I45">
-        <v>603456778000</v>
+        <v>104851496000</v>
       </c>
       <c r="J45" t="str">
-        <v>2022-12-12T14:15:00.000Z</v>
+        <v>2022-12-12T10:38:00.000Z</v>
       </c>
       <c r="K45">
-        <v>10801234742000</v>
+        <v>4141822481000</v>
       </c>
       <c r="L45">
-        <v>612507400</v>
+        <v>235696100</v>
       </c>
       <c r="M45">
-        <v>-20360600</v>
+        <v>2459900</v>
       </c>
       <c r="N45">
-        <v>-347259362000</v>
+        <v>41288376000</v>
       </c>
       <c r="O45">
-        <v>-68973800</v>
+        <v>34374300</v>
       </c>
       <c r="P45">
-        <v>-908166190000</v>
+        <v>636666024000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1670854800000</v>
+        <v>1670841600000</v>
       </c>
       <c r="B46">
-        <v>47415500</v>
+        <v>1383100</v>
       </c>
       <c r="C46">
-        <v>14680500</v>
+        <v>4114900</v>
       </c>
       <c r="D46">
-        <v>590300</v>
+        <v>3600</v>
       </c>
       <c r="E46">
-        <v>728396682000</v>
+        <v>25976231000</v>
       </c>
       <c r="F46">
-        <v>232105470000</v>
+        <v>66755916000</v>
       </c>
       <c r="G46">
-        <v>8138355000</v>
+        <v>48456000</v>
       </c>
       <c r="H46">
-        <v>62686300</v>
+        <v>5501600</v>
       </c>
       <c r="I46">
-        <v>968640507000</v>
+        <v>92780603000</v>
       </c>
       <c r="J46" t="str">
-        <v>2022-12-12T14:20:00.000Z</v>
+        <v>2022-12-12T10:40:00.000Z</v>
       </c>
       <c r="K46">
-        <v>11769875249000</v>
+        <v>4234603084000</v>
       </c>
       <c r="L46">
-        <v>675193700</v>
+        <v>241197700</v>
       </c>
       <c r="M46">
-        <v>-32735000</v>
+        <v>2731800</v>
       </c>
       <c r="N46">
-        <v>-496291212000</v>
+        <v>40779685000</v>
       </c>
       <c r="O46">
-        <v>-101708800</v>
+        <v>37106100</v>
       </c>
       <c r="P46">
-        <v>-1404457402000</v>
+        <v>677445709000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1670855100000</v>
+        <v>1670841720000</v>
       </c>
       <c r="B47">
-        <v>20168600</v>
+        <v>1825700</v>
       </c>
       <c r="C47">
-        <v>20630300</v>
+        <v>3314500</v>
       </c>
       <c r="D47">
-        <v>262200</v>
+        <v>9600</v>
       </c>
       <c r="E47">
-        <v>336870279000</v>
+        <v>29853417000</v>
       </c>
       <c r="F47">
-        <v>324771467000</v>
+        <v>52424001000</v>
       </c>
       <c r="G47">
-        <v>3992429000</v>
+        <v>139349000</v>
       </c>
       <c r="H47">
-        <v>41061100</v>
+        <v>5149800</v>
       </c>
       <c r="I47">
-        <v>665634175000</v>
+        <v>82416767000</v>
       </c>
       <c r="J47" t="str">
-        <v>2022-12-12T14:25:00.000Z</v>
+        <v>2022-12-12T10:42:00.000Z</v>
       </c>
       <c r="K47">
-        <v>12435509424000</v>
+        <v>4317019851000</v>
       </c>
       <c r="L47">
-        <v>716254800</v>
+        <v>246347500</v>
       </c>
       <c r="M47">
-        <v>461700</v>
+        <v>1488800</v>
       </c>
       <c r="N47">
-        <v>-12098812000</v>
+        <v>22570584000</v>
       </c>
       <c r="O47">
-        <v>-101247100</v>
+        <v>38594900</v>
       </c>
       <c r="P47">
-        <v>-1416556214000</v>
+        <v>700016293000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1670855400000</v>
+        <v>1670841840000</v>
       </c>
       <c r="B48">
-        <v>22000</v>
+        <v>2734200</v>
       </c>
       <c r="C48">
-        <v>30900</v>
+        <v>2025500</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>39800</v>
       </c>
       <c r="E48">
-        <v>341780000</v>
+        <v>46151998000</v>
       </c>
       <c r="F48">
-        <v>586290000</v>
+        <v>34593122000</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>710352000</v>
       </c>
       <c r="H48">
-        <v>52900</v>
+        <v>4799500</v>
       </c>
       <c r="I48">
-        <v>928070000</v>
+        <v>81455472000</v>
       </c>
       <c r="J48" t="str">
-        <v>2022-12-12T14:30:00.000Z</v>
+        <v>2022-12-12T10:44:00.000Z</v>
       </c>
       <c r="K48">
-        <v>12436437494000</v>
+        <v>4398475323000</v>
       </c>
       <c r="L48">
-        <v>716307700</v>
+        <v>251147000</v>
       </c>
       <c r="M48">
-        <v>8900</v>
+        <v>-708700</v>
       </c>
       <c r="N48">
-        <v>244510000</v>
+        <v>-11558876000</v>
       </c>
       <c r="O48">
-        <v>-101238200</v>
+        <v>37886200</v>
       </c>
       <c r="P48">
-        <v>-1416311704000</v>
+        <v>688457417000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1670855700000</v>
+        <v>1670841960000</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1820400</v>
       </c>
       <c r="C49">
-        <v>300</v>
+        <v>1753900</v>
       </c>
       <c r="D49">
-        <v>100</v>
+        <v>7500</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>28493732000</v>
       </c>
       <c r="F49">
-        <v>3060000</v>
+        <v>36850755000</v>
       </c>
       <c r="G49">
-        <v>1019999.9999999999</v>
+        <v>151908000</v>
       </c>
       <c r="H49">
-        <v>400</v>
+        <v>3581800</v>
       </c>
       <c r="I49">
-        <v>4080000</v>
+        <v>65496395000</v>
       </c>
       <c r="J49" t="str">
-        <v>2022-12-12T14:35:00.000Z</v>
+        <v>2022-12-12T10:46:00.000Z</v>
       </c>
       <c r="K49">
-        <v>12436441574000</v>
+        <v>4463971718000</v>
       </c>
       <c r="L49">
-        <v>716308100</v>
+        <v>254728800</v>
       </c>
       <c r="M49">
-        <v>300</v>
+        <v>-66500</v>
       </c>
       <c r="N49">
-        <v>3060000</v>
+        <v>8357023000</v>
       </c>
       <c r="O49">
-        <v>-101237900</v>
+        <v>37819700</v>
       </c>
       <c r="P49">
-        <v>-1416308644000</v>
+        <v>696814440000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1670856000000</v>
+        <v>1670842080000</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>2319500</v>
       </c>
       <c r="C50">
-        <v>5900</v>
+        <v>1264900</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>26600</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>38800765000</v>
       </c>
       <c r="F50">
-        <v>60179999.99999999</v>
+        <v>23752161000</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>404831000</v>
       </c>
       <c r="H50">
-        <v>5900</v>
+        <v>3611000</v>
       </c>
       <c r="I50">
-        <v>60179999.99999999</v>
+        <v>62957757000</v>
       </c>
       <c r="J50" t="str">
-        <v>2022-12-12T14:40:00.000Z</v>
+        <v>2022-12-12T10:48:00.000Z</v>
       </c>
       <c r="K50">
-        <v>12436501754000</v>
+        <v>4526929475000</v>
       </c>
       <c r="L50">
-        <v>716314000</v>
+        <v>258339800</v>
       </c>
       <c r="M50">
-        <v>5900</v>
+        <v>-1054600</v>
       </c>
       <c r="N50">
-        <v>60179999.99999999</v>
+        <v>-15048604000</v>
       </c>
       <c r="O50">
-        <v>-101232000</v>
+        <v>36765100</v>
       </c>
       <c r="P50">
-        <v>-1416248464000</v>
+        <v>681765836000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1670856300000</v>
+        <v>1670842200000</v>
       </c>
       <c r="B51">
-        <v>15057000</v>
+        <v>1560500</v>
       </c>
       <c r="C51">
-        <v>13277400</v>
+        <v>1282600</v>
       </c>
       <c r="D51">
-        <v>29686300</v>
+        <v>142400</v>
       </c>
       <c r="E51">
-        <v>321039560000</v>
+        <v>24916596000</v>
       </c>
       <c r="F51">
-        <v>221599934000</v>
+        <v>25960614000</v>
       </c>
       <c r="G51">
-        <v>480267666000</v>
+        <v>2991189000</v>
       </c>
       <c r="H51">
-        <v>58020700</v>
+        <v>2985500</v>
       </c>
       <c r="I51">
-        <v>1022907160000</v>
+        <v>53868399000</v>
       </c>
       <c r="J51" t="str">
-        <v>2022-12-12T14:45:00.000Z</v>
+        <v>2022-12-12T10:50:00.000Z</v>
       </c>
       <c r="K51">
-        <v>13459408914000</v>
+        <v>4580797874000</v>
       </c>
       <c r="L51">
-        <v>774334700</v>
+        <v>261325300</v>
       </c>
       <c r="M51">
-        <v>-1779600</v>
+        <v>-277900</v>
       </c>
       <c r="N51">
-        <v>-99439626000</v>
+        <v>1044018000</v>
       </c>
       <c r="O51">
-        <v>-103011600</v>
+        <v>36487200</v>
       </c>
       <c r="P51">
-        <v>-1515688090000</v>
+        <v>682809854000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1670856600000</v>
+        <v>1670842320000</v>
       </c>
       <c r="B52">
-        <v>100</v>
+        <v>2015100</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1948100</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="E52">
-        <v>1019999.9999999999</v>
+        <v>30974174000</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>42650583000</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>118675000</v>
       </c>
       <c r="H52">
-        <v>100</v>
+        <v>3968600</v>
       </c>
       <c r="I52">
-        <v>1019999.9999999999</v>
+        <v>73743432000</v>
       </c>
       <c r="J52" t="str">
-        <v>2022-12-12T14:50:00.000Z</v>
+        <v>2022-12-12T10:52:00.000Z</v>
       </c>
       <c r="K52">
-        <v>13459409934000</v>
+        <v>4654541306000</v>
       </c>
       <c r="L52">
-        <v>774334800</v>
+        <v>265293900</v>
       </c>
       <c r="M52">
-        <v>-100</v>
+        <v>-67000</v>
       </c>
       <c r="N52">
-        <v>-1019999.9999999999</v>
+        <v>11676409000</v>
       </c>
       <c r="O52">
-        <v>-103011700</v>
+        <v>36420200</v>
       </c>
       <c r="P52">
-        <v>-1515689110000</v>
+        <v>694486263000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1670856900000</v>
+        <v>1670842440000</v>
       </c>
       <c r="B53">
+        <v>1133100</v>
+      </c>
+      <c r="C53">
+        <v>2920700</v>
+      </c>
+      <c r="D53">
+        <v>9700</v>
+      </c>
+      <c r="E53">
+        <v>20321185000</v>
+      </c>
+      <c r="F53">
+        <v>57057940000</v>
+      </c>
+      <c r="G53">
+        <v>313420000</v>
+      </c>
+      <c r="H53">
+        <v>4063500</v>
+      </c>
+      <c r="I53">
+        <v>77692545000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2022-12-12T10:54:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>4732233851000</v>
+      </c>
+      <c r="L53">
+        <v>269357400</v>
+      </c>
+      <c r="M53">
+        <v>1787600</v>
+      </c>
+      <c r="N53">
+        <v>36736755000</v>
+      </c>
+      <c r="O53">
+        <v>38207800</v>
+      </c>
+      <c r="P53">
+        <v>731223018000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1670842560000</v>
+      </c>
+      <c r="B54">
+        <v>787200</v>
+      </c>
+      <c r="C54">
+        <v>2641400</v>
+      </c>
+      <c r="D54">
+        <v>14500</v>
+      </c>
+      <c r="E54">
+        <v>15707375000</v>
+      </c>
+      <c r="F54">
+        <v>54888562000</v>
+      </c>
+      <c r="G54">
+        <v>261555000.00000003</v>
+      </c>
+      <c r="H54">
+        <v>3443100</v>
+      </c>
+      <c r="I54">
+        <v>70857492000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2022-12-12T10:56:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>4803091343000</v>
+      </c>
+      <c r="L54">
+        <v>272800500</v>
+      </c>
+      <c r="M54">
+        <v>1854200</v>
+      </c>
+      <c r="N54">
+        <v>39181187000</v>
+      </c>
+      <c r="O54">
+        <v>40062000</v>
+      </c>
+      <c r="P54">
+        <v>770404205000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1670842680000</v>
+      </c>
+      <c r="B55">
+        <v>1618800</v>
+      </c>
+      <c r="C55">
+        <v>2062700</v>
+      </c>
+      <c r="D55">
+        <v>22600</v>
+      </c>
+      <c r="E55">
+        <v>28825572000</v>
+      </c>
+      <c r="F55">
+        <v>36246191000</v>
+      </c>
+      <c r="G55">
+        <v>156706000</v>
+      </c>
+      <c r="H55">
+        <v>3704100</v>
+      </c>
+      <c r="I55">
+        <v>65228469000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2022-12-12T10:58:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>4868319812000</v>
+      </c>
+      <c r="L55">
+        <v>276504600</v>
+      </c>
+      <c r="M55">
+        <v>443900</v>
+      </c>
+      <c r="N55">
+        <v>7420619000</v>
+      </c>
+      <c r="O55">
+        <v>40505900</v>
+      </c>
+      <c r="P55">
+        <v>777824824000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1670842800000</v>
+      </c>
+      <c r="B56">
+        <v>2363800</v>
+      </c>
+      <c r="C56">
+        <v>1537300</v>
+      </c>
+      <c r="D56">
+        <v>11100</v>
+      </c>
+      <c r="E56">
+        <v>42308036000</v>
+      </c>
+      <c r="F56">
+        <v>25794046000</v>
+      </c>
+      <c r="G56">
+        <v>307329000</v>
+      </c>
+      <c r="H56">
+        <v>3912200</v>
+      </c>
+      <c r="I56">
+        <v>68409411000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2022-12-12T11:00:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>4936729223000</v>
+      </c>
+      <c r="L56">
+        <v>280416800</v>
+      </c>
+      <c r="M56">
+        <v>-826500</v>
+      </c>
+      <c r="N56">
+        <v>-16513990000</v>
+      </c>
+      <c r="O56">
+        <v>39679400</v>
+      </c>
+      <c r="P56">
+        <v>761310834000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1670842920000</v>
+      </c>
+      <c r="B57">
+        <v>1943000</v>
+      </c>
+      <c r="C57">
+        <v>1868600</v>
+      </c>
+      <c r="D57">
+        <v>8300</v>
+      </c>
+      <c r="E57">
+        <v>33498384000</v>
+      </c>
+      <c r="F57">
+        <v>37799920000</v>
+      </c>
+      <c r="G57">
+        <v>148435000</v>
+      </c>
+      <c r="H57">
+        <v>3819900</v>
+      </c>
+      <c r="I57">
+        <v>71446739000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2022-12-12T11:02:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>5008175962000</v>
+      </c>
+      <c r="L57">
+        <v>284236700</v>
+      </c>
+      <c r="M57">
+        <v>-74400</v>
+      </c>
+      <c r="N57">
+        <v>4301536000</v>
+      </c>
+      <c r="O57">
+        <v>39605000</v>
+      </c>
+      <c r="P57">
+        <v>765612370000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1670843040000</v>
+      </c>
+      <c r="B58">
+        <v>2183900</v>
+      </c>
+      <c r="C58">
+        <v>1376200</v>
+      </c>
+      <c r="D58">
+        <v>8000</v>
+      </c>
+      <c r="E58">
+        <v>35425912000</v>
+      </c>
+      <c r="F58">
+        <v>30817453000</v>
+      </c>
+      <c r="G58">
+        <v>235285000</v>
+      </c>
+      <c r="H58">
+        <v>3568100</v>
+      </c>
+      <c r="I58">
+        <v>66478650000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2022-12-12T11:04:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>5074654612000</v>
+      </c>
+      <c r="L58">
+        <v>287804800</v>
+      </c>
+      <c r="M58">
+        <v>-807700</v>
+      </c>
+      <c r="N58">
+        <v>-4608459000</v>
+      </c>
+      <c r="O58">
+        <v>38797300</v>
+      </c>
+      <c r="P58">
+        <v>761003911000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1670843160000</v>
+      </c>
+      <c r="B59">
+        <v>1186800</v>
+      </c>
+      <c r="C59">
+        <v>1333600</v>
+      </c>
+      <c r="D59">
+        <v>27900</v>
+      </c>
+      <c r="E59">
+        <v>17614558000</v>
+      </c>
+      <c r="F59">
+        <v>23558817000</v>
+      </c>
+      <c r="G59">
+        <v>586120000</v>
+      </c>
+      <c r="H59">
+        <v>2548300</v>
+      </c>
+      <c r="I59">
+        <v>41759495000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2022-12-12T11:06:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>5116414107000</v>
+      </c>
+      <c r="L59">
+        <v>290353100</v>
+      </c>
+      <c r="M59">
+        <v>146800</v>
+      </c>
+      <c r="N59">
+        <v>5944259000</v>
+      </c>
+      <c r="O59">
+        <v>38944100</v>
+      </c>
+      <c r="P59">
+        <v>766948170000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1670843280000</v>
+      </c>
+      <c r="B60">
+        <v>1549700</v>
+      </c>
+      <c r="C60">
+        <v>1729200</v>
+      </c>
+      <c r="D60">
+        <v>3700</v>
+      </c>
+      <c r="E60">
+        <v>23147686000</v>
+      </c>
+      <c r="F60">
+        <v>34947855000</v>
+      </c>
+      <c r="G60">
+        <v>42520000</v>
+      </c>
+      <c r="H60">
+        <v>3282600</v>
+      </c>
+      <c r="I60">
+        <v>58138061000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2022-12-12T11:08:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>5174552168000</v>
+      </c>
+      <c r="L60">
+        <v>293635700</v>
+      </c>
+      <c r="M60">
+        <v>179500</v>
+      </c>
+      <c r="N60">
+        <v>11800169000</v>
+      </c>
+      <c r="O60">
+        <v>39123600</v>
+      </c>
+      <c r="P60">
+        <v>778748339000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1670843400000</v>
+      </c>
+      <c r="B61">
+        <v>1144300</v>
+      </c>
+      <c r="C61">
+        <v>1436500</v>
+      </c>
+      <c r="D61">
+        <v>14700</v>
+      </c>
+      <c r="E61">
+        <v>17347119000</v>
+      </c>
+      <c r="F61">
+        <v>34364052000</v>
+      </c>
+      <c r="G61">
+        <v>220040000</v>
+      </c>
+      <c r="H61">
+        <v>2595500</v>
+      </c>
+      <c r="I61">
+        <v>51931211000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2022-12-12T11:10:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>5226483379000</v>
+      </c>
+      <c r="L61">
+        <v>296231200</v>
+      </c>
+      <c r="M61">
+        <v>292200</v>
+      </c>
+      <c r="N61">
+        <v>17016933000</v>
+      </c>
+      <c r="O61">
+        <v>39415800</v>
+      </c>
+      <c r="P61">
+        <v>795765272000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1670843520000</v>
+      </c>
+      <c r="B62">
+        <v>995700</v>
+      </c>
+      <c r="C62">
+        <v>1454700</v>
+      </c>
+      <c r="D62">
+        <v>39300</v>
+      </c>
+      <c r="E62">
+        <v>18050262000</v>
+      </c>
+      <c r="F62">
+        <v>28649155000</v>
+      </c>
+      <c r="G62">
+        <v>824725000</v>
+      </c>
+      <c r="H62">
+        <v>2489700</v>
+      </c>
+      <c r="I62">
+        <v>47524142000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2022-12-12T11:12:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>5274007521000</v>
+      </c>
+      <c r="L62">
+        <v>298720900</v>
+      </c>
+      <c r="M62">
+        <v>459000</v>
+      </c>
+      <c r="N62">
+        <v>10598893000</v>
+      </c>
+      <c r="O62">
+        <v>39874800</v>
+      </c>
+      <c r="P62">
+        <v>806364165000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1670843640000</v>
+      </c>
+      <c r="B63">
+        <v>1082800</v>
+      </c>
+      <c r="C63">
+        <v>1756000</v>
+      </c>
+      <c r="D63">
+        <v>3800</v>
+      </c>
+      <c r="E63">
+        <v>18859400000</v>
+      </c>
+      <c r="F63">
+        <v>36176198000</v>
+      </c>
+      <c r="G63">
+        <v>93900000</v>
+      </c>
+      <c r="H63">
+        <v>2842600</v>
+      </c>
+      <c r="I63">
+        <v>55129498000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2022-12-12T11:14:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>5329137019000</v>
+      </c>
+      <c r="L63">
+        <v>301563500</v>
+      </c>
+      <c r="M63">
+        <v>673200</v>
+      </c>
+      <c r="N63">
+        <v>17316798000</v>
+      </c>
+      <c r="O63">
+        <v>40548000</v>
+      </c>
+      <c r="P63">
+        <v>823680963000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1670843760000</v>
+      </c>
+      <c r="B64">
+        <v>1243000</v>
+      </c>
+      <c r="C64">
+        <v>1900200</v>
+      </c>
+      <c r="D64">
+        <v>23400</v>
+      </c>
+      <c r="E64">
+        <v>21202573000</v>
+      </c>
+      <c r="F64">
+        <v>40604224000</v>
+      </c>
+      <c r="G64">
+        <v>326428000</v>
+      </c>
+      <c r="H64">
+        <v>3166600</v>
+      </c>
+      <c r="I64">
+        <v>62133225000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2022-12-12T11:16:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>5391270244000</v>
+      </c>
+      <c r="L64">
+        <v>304730100</v>
+      </c>
+      <c r="M64">
+        <v>657200</v>
+      </c>
+      <c r="N64">
+        <v>19401651000</v>
+      </c>
+      <c r="O64">
+        <v>41205200</v>
+      </c>
+      <c r="P64">
+        <v>843082614000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1670843880000</v>
+      </c>
+      <c r="B65">
+        <v>2621900</v>
+      </c>
+      <c r="C65">
+        <v>1118100</v>
+      </c>
+      <c r="D65">
+        <v>4600</v>
+      </c>
+      <c r="E65">
+        <v>52125238000</v>
+      </c>
+      <c r="F65">
+        <v>22222054000</v>
+      </c>
+      <c r="G65">
+        <v>83504000</v>
+      </c>
+      <c r="H65">
+        <v>3744600</v>
+      </c>
+      <c r="I65">
+        <v>74430796000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2022-12-12T11:18:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>5465701040000</v>
+      </c>
+      <c r="L65">
+        <v>308474700</v>
+      </c>
+      <c r="M65">
+        <v>-1503800</v>
+      </c>
+      <c r="N65">
+        <v>-29903184000</v>
+      </c>
+      <c r="O65">
+        <v>39701400</v>
+      </c>
+      <c r="P65">
+        <v>813179430000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1670844000000</v>
+      </c>
+      <c r="B66">
+        <v>4874600</v>
+      </c>
+      <c r="C66">
+        <v>1188500</v>
+      </c>
+      <c r="D66">
+        <v>43300</v>
+      </c>
+      <c r="E66">
+        <v>87544143000</v>
+      </c>
+      <c r="F66">
+        <v>25287529000</v>
+      </c>
+      <c r="G66">
+        <v>400793000</v>
+      </c>
+      <c r="H66">
+        <v>6106400</v>
+      </c>
+      <c r="I66">
+        <v>113232465000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2022-12-12T11:20:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>5578933505000</v>
+      </c>
+      <c r="L66">
+        <v>314581100</v>
+      </c>
+      <c r="M66">
+        <v>-3686100</v>
+      </c>
+      <c r="N66">
+        <v>-62256614000</v>
+      </c>
+      <c r="O66">
+        <v>36015300</v>
+      </c>
+      <c r="P66">
+        <v>750922816000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1670844120000</v>
+      </c>
+      <c r="B67">
+        <v>2882100</v>
+      </c>
+      <c r="C67">
+        <v>1195100</v>
+      </c>
+      <c r="D67">
+        <v>3900</v>
+      </c>
+      <c r="E67">
+        <v>46684264000</v>
+      </c>
+      <c r="F67">
+        <v>23275628000</v>
+      </c>
+      <c r="G67">
+        <v>87040000</v>
+      </c>
+      <c r="H67">
+        <v>4081100</v>
+      </c>
+      <c r="I67">
+        <v>70046932000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2022-12-12T11:22:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>5648980437000</v>
+      </c>
+      <c r="L67">
+        <v>318662200</v>
+      </c>
+      <c r="M67">
+        <v>-1687000</v>
+      </c>
+      <c r="N67">
+        <v>-23408636000</v>
+      </c>
+      <c r="O67">
+        <v>34328300</v>
+      </c>
+      <c r="P67">
+        <v>727514180000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1670844240000</v>
+      </c>
+      <c r="B68">
+        <v>1917700</v>
+      </c>
+      <c r="C68">
+        <v>1195400</v>
+      </c>
+      <c r="D68">
+        <v>34600</v>
+      </c>
+      <c r="E68">
+        <v>32432828000</v>
+      </c>
+      <c r="F68">
+        <v>24451895000</v>
+      </c>
+      <c r="G68">
+        <v>247113000</v>
+      </c>
+      <c r="H68">
+        <v>3147700</v>
+      </c>
+      <c r="I68">
+        <v>57131836000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2022-12-12T11:24:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>5706112273000</v>
+      </c>
+      <c r="L68">
+        <v>321809900</v>
+      </c>
+      <c r="M68">
+        <v>-722300</v>
+      </c>
+      <c r="N68">
+        <v>-7980933000</v>
+      </c>
+      <c r="O68">
+        <v>33606000</v>
+      </c>
+      <c r="P68">
+        <v>719533247000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1670844360000</v>
+      </c>
+      <c r="B69">
+        <v>2216200</v>
+      </c>
+      <c r="C69">
+        <v>876300</v>
+      </c>
+      <c r="D69">
+        <v>7900</v>
+      </c>
+      <c r="E69">
+        <v>37599870000</v>
+      </c>
+      <c r="F69">
+        <v>15453885000</v>
+      </c>
+      <c r="G69">
+        <v>172629000</v>
+      </c>
+      <c r="H69">
+        <v>3100400</v>
+      </c>
+      <c r="I69">
+        <v>53226384000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2022-12-12T11:26:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>5759338657000</v>
+      </c>
+      <c r="L69">
+        <v>324910300</v>
+      </c>
+      <c r="M69">
+        <v>-1339900</v>
+      </c>
+      <c r="N69">
+        <v>-22145985000</v>
+      </c>
+      <c r="O69">
+        <v>32266100</v>
+      </c>
+      <c r="P69">
+        <v>697387262000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1670844480000</v>
+      </c>
+      <c r="B70">
+        <v>1553700</v>
+      </c>
+      <c r="C70">
+        <v>683400</v>
+      </c>
+      <c r="D70">
+        <v>13700</v>
+      </c>
+      <c r="E70">
+        <v>28842886000</v>
+      </c>
+      <c r="F70">
+        <v>12587323000</v>
+      </c>
+      <c r="G70">
+        <v>302455000</v>
+      </c>
+      <c r="H70">
+        <v>2250800</v>
+      </c>
+      <c r="I70">
+        <v>41732664000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2022-12-12T11:28:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>5801071321000</v>
+      </c>
+      <c r="L70">
+        <v>327161100</v>
+      </c>
+      <c r="M70">
+        <v>-870300</v>
+      </c>
+      <c r="N70">
+        <v>-16255563000</v>
+      </c>
+      <c r="O70">
+        <v>31395800</v>
+      </c>
+      <c r="P70">
+        <v>681131699000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1670850000000</v>
+      </c>
+      <c r="B71">
+        <v>7845600</v>
+      </c>
+      <c r="C71">
+        <v>3248500</v>
+      </c>
+      <c r="D71">
+        <v>457000</v>
+      </c>
+      <c r="E71">
+        <v>126153395000</v>
+      </c>
+      <c r="F71">
+        <v>61549690000</v>
+      </c>
+      <c r="G71">
+        <v>7226886000</v>
+      </c>
+      <c r="H71">
+        <v>11551100</v>
+      </c>
+      <c r="I71">
+        <v>194929971000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2022-12-12T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>5996001292000</v>
+      </c>
+      <c r="L71">
+        <v>338712200</v>
+      </c>
+      <c r="M71">
+        <v>-4597100</v>
+      </c>
+      <c r="N71">
+        <v>-64603705000</v>
+      </c>
+      <c r="O71">
+        <v>26798700</v>
+      </c>
+      <c r="P71">
+        <v>616527994000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1670850120000</v>
+      </c>
+      <c r="B72">
+        <v>2987200</v>
+      </c>
+      <c r="C72">
+        <v>1662000</v>
+      </c>
+      <c r="D72">
+        <v>32000</v>
+      </c>
+      <c r="E72">
+        <v>48510899000</v>
+      </c>
+      <c r="F72">
+        <v>33290932000</v>
+      </c>
+      <c r="G72">
+        <v>309246000</v>
+      </c>
+      <c r="H72">
+        <v>4681200</v>
+      </c>
+      <c r="I72">
+        <v>82111077000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2022-12-12T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>6078112369000</v>
+      </c>
+      <c r="L72">
+        <v>343393400</v>
+      </c>
+      <c r="M72">
+        <v>-1325200</v>
+      </c>
+      <c r="N72">
+        <v>-15219967000</v>
+      </c>
+      <c r="O72">
+        <v>25473500</v>
+      </c>
+      <c r="P72">
+        <v>601308027000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1670850240000</v>
+      </c>
+      <c r="B73">
+        <v>2455100</v>
+      </c>
+      <c r="C73">
+        <v>2383800</v>
+      </c>
+      <c r="D73">
+        <v>8300</v>
+      </c>
+      <c r="E73">
+        <v>40810177000</v>
+      </c>
+      <c r="F73">
+        <v>46177982000</v>
+      </c>
+      <c r="G73">
+        <v>174404000</v>
+      </c>
+      <c r="H73">
+        <v>4847200</v>
+      </c>
+      <c r="I73">
+        <v>87162563000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2022-12-12T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>6165274932000</v>
+      </c>
+      <c r="L73">
+        <v>348240600</v>
+      </c>
+      <c r="M73">
+        <v>-71300</v>
+      </c>
+      <c r="N73">
+        <v>5367805000</v>
+      </c>
+      <c r="O73">
+        <v>25402200</v>
+      </c>
+      <c r="P73">
+        <v>606675832000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1670850360000</v>
+      </c>
+      <c r="B74">
+        <v>2550500</v>
+      </c>
+      <c r="C74">
+        <v>2496400</v>
+      </c>
+      <c r="D74">
+        <v>15100</v>
+      </c>
+      <c r="E74">
+        <v>43532257000</v>
+      </c>
+      <c r="F74">
+        <v>50460691000</v>
+      </c>
+      <c r="G74">
+        <v>146570000</v>
+      </c>
+      <c r="H74">
+        <v>5062000</v>
+      </c>
+      <c r="I74">
+        <v>94139518000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2022-12-12T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>6259414450000</v>
+      </c>
+      <c r="L74">
+        <v>353302600</v>
+      </c>
+      <c r="M74">
+        <v>-54100</v>
+      </c>
+      <c r="N74">
+        <v>6928434000</v>
+      </c>
+      <c r="O74">
+        <v>25348100</v>
+      </c>
+      <c r="P74">
+        <v>613604266000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1670850480000</v>
+      </c>
+      <c r="B75">
+        <v>2423800</v>
+      </c>
+      <c r="C75">
+        <v>2469100</v>
+      </c>
+      <c r="D75">
+        <v>23100</v>
+      </c>
+      <c r="E75">
+        <v>40733076000</v>
+      </c>
+      <c r="F75">
+        <v>52582401000</v>
+      </c>
+      <c r="G75">
+        <v>298419000</v>
+      </c>
+      <c r="H75">
+        <v>4916000</v>
+      </c>
+      <c r="I75">
+        <v>93613896000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2022-12-12T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>6353028346000</v>
+      </c>
+      <c r="L75">
+        <v>358218600</v>
+      </c>
+      <c r="M75">
+        <v>45300</v>
+      </c>
+      <c r="N75">
+        <v>11849325000</v>
+      </c>
+      <c r="O75">
+        <v>25393400</v>
+      </c>
+      <c r="P75">
+        <v>625453591000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1670850600000</v>
+      </c>
+      <c r="B76">
+        <v>3593200</v>
+      </c>
+      <c r="C76">
+        <v>1546700</v>
+      </c>
+      <c r="D76">
+        <v>3600</v>
+      </c>
+      <c r="E76">
+        <v>58253977000</v>
+      </c>
+      <c r="F76">
+        <v>29058965000</v>
+      </c>
+      <c r="G76">
+        <v>48033000</v>
+      </c>
+      <c r="H76">
+        <v>5143500</v>
+      </c>
+      <c r="I76">
+        <v>87360975000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2022-12-12T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>6440389321000</v>
+      </c>
+      <c r="L76">
+        <v>363362100</v>
+      </c>
+      <c r="M76">
+        <v>-2046500</v>
+      </c>
+      <c r="N76">
+        <v>-29195012000</v>
+      </c>
+      <c r="O76">
+        <v>23346900</v>
+      </c>
+      <c r="P76">
+        <v>596258579000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1670850720000</v>
+      </c>
+      <c r="B77">
+        <v>6329000</v>
+      </c>
+      <c r="C77">
+        <v>1293800</v>
+      </c>
+      <c r="D77">
+        <v>36300</v>
+      </c>
+      <c r="E77">
+        <v>107454445000</v>
+      </c>
+      <c r="F77">
+        <v>28957834000</v>
+      </c>
+      <c r="G77">
+        <v>690649000</v>
+      </c>
+      <c r="H77">
+        <v>7659100</v>
+      </c>
+      <c r="I77">
+        <v>137102928000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2022-12-12T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>6577492249000</v>
+      </c>
+      <c r="L77">
+        <v>371021200</v>
+      </c>
+      <c r="M77">
+        <v>-5035200</v>
+      </c>
+      <c r="N77">
+        <v>-78496611000</v>
+      </c>
+      <c r="O77">
+        <v>18311700</v>
+      </c>
+      <c r="P77">
+        <v>517761968000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1670850840000</v>
+      </c>
+      <c r="B78">
+        <v>7602100</v>
+      </c>
+      <c r="C78">
+        <v>1946200</v>
+      </c>
+      <c r="D78">
+        <v>43000</v>
+      </c>
+      <c r="E78">
+        <v>124974641000</v>
+      </c>
+      <c r="F78">
+        <v>39130745000</v>
+      </c>
+      <c r="G78">
+        <v>622267000</v>
+      </c>
+      <c r="H78">
+        <v>9591300</v>
+      </c>
+      <c r="I78">
+        <v>164727653000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2022-12-12T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>6742219902000</v>
+      </c>
+      <c r="L78">
+        <v>380612500</v>
+      </c>
+      <c r="M78">
+        <v>-5655900</v>
+      </c>
+      <c r="N78">
+        <v>-85843896000</v>
+      </c>
+      <c r="O78">
+        <v>12655800</v>
+      </c>
+      <c r="P78">
+        <v>431918072000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1670850960000</v>
+      </c>
+      <c r="B79">
+        <v>6537200</v>
+      </c>
+      <c r="C79">
+        <v>1790700</v>
+      </c>
+      <c r="D79">
+        <v>37200</v>
+      </c>
+      <c r="E79">
+        <v>110664129000</v>
+      </c>
+      <c r="F79">
+        <v>32067718000</v>
+      </c>
+      <c r="G79">
+        <v>392283000</v>
+      </c>
+      <c r="H79">
+        <v>8365100</v>
+      </c>
+      <c r="I79">
+        <v>143124130000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2022-12-12T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>6885344032000</v>
+      </c>
+      <c r="L79">
+        <v>388977600</v>
+      </c>
+      <c r="M79">
+        <v>-4746500</v>
+      </c>
+      <c r="N79">
+        <v>-78596411000</v>
+      </c>
+      <c r="O79">
+        <v>7909300</v>
+      </c>
+      <c r="P79">
+        <v>353321661000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1670851080000</v>
+      </c>
+      <c r="B80">
+        <v>3261700</v>
+      </c>
+      <c r="C80">
+        <v>3278200</v>
+      </c>
+      <c r="D80">
+        <v>36900</v>
+      </c>
+      <c r="E80">
+        <v>52172130000</v>
+      </c>
+      <c r="F80">
+        <v>58434325000</v>
+      </c>
+      <c r="G80">
+        <v>485627000</v>
+      </c>
+      <c r="H80">
+        <v>6576800</v>
+      </c>
+      <c r="I80">
+        <v>111092082000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2022-12-12T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>6996436114000</v>
+      </c>
+      <c r="L80">
+        <v>395554400</v>
+      </c>
+      <c r="M80">
+        <v>16500</v>
+      </c>
+      <c r="N80">
+        <v>6262195000</v>
+      </c>
+      <c r="O80">
+        <v>7925800</v>
+      </c>
+      <c r="P80">
+        <v>359583856000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1670851200000</v>
+      </c>
+      <c r="B81">
+        <v>1836800</v>
+      </c>
+      <c r="C81">
+        <v>2701100</v>
+      </c>
+      <c r="D81">
+        <v>232300</v>
+      </c>
+      <c r="E81">
+        <v>31041083000</v>
+      </c>
+      <c r="F81">
+        <v>44797695000</v>
+      </c>
+      <c r="G81">
+        <v>3670934000</v>
+      </c>
+      <c r="H81">
+        <v>4770200</v>
+      </c>
+      <c r="I81">
+        <v>79509712000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2022-12-12T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>7075945826000</v>
+      </c>
+      <c r="L81">
+        <v>400324600</v>
+      </c>
+      <c r="M81">
+        <v>864300</v>
+      </c>
+      <c r="N81">
+        <v>13756612000</v>
+      </c>
+      <c r="O81">
+        <v>8790100</v>
+      </c>
+      <c r="P81">
+        <v>373340468000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1670851320000</v>
+      </c>
+      <c r="B82">
+        <v>2744600</v>
+      </c>
+      <c r="C82">
+        <v>1707100</v>
+      </c>
+      <c r="D82">
+        <v>17100</v>
+      </c>
+      <c r="E82">
+        <v>45910381000</v>
+      </c>
+      <c r="F82">
+        <v>29688635000</v>
+      </c>
+      <c r="G82">
+        <v>188214000</v>
+      </c>
+      <c r="H82">
+        <v>4468800</v>
+      </c>
+      <c r="I82">
+        <v>75787230000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2022-12-12T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>7151733056000</v>
+      </c>
+      <c r="L82">
+        <v>404793400</v>
+      </c>
+      <c r="M82">
+        <v>-1037500</v>
+      </c>
+      <c r="N82">
+        <v>-16221746000</v>
+      </c>
+      <c r="O82">
+        <v>7752600</v>
+      </c>
+      <c r="P82">
+        <v>357118722000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1670851440000</v>
+      </c>
+      <c r="B83">
+        <v>1988900</v>
+      </c>
+      <c r="C83">
+        <v>1986700</v>
+      </c>
+      <c r="D83">
+        <v>52900</v>
+      </c>
+      <c r="E83">
+        <v>34711370000</v>
+      </c>
+      <c r="F83">
+        <v>38239409000</v>
+      </c>
+      <c r="G83">
+        <v>588635000</v>
+      </c>
+      <c r="H83">
+        <v>4028500</v>
+      </c>
+      <c r="I83">
+        <v>73539414000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2022-12-12T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>7225272470000</v>
+      </c>
+      <c r="L83">
+        <v>408821900</v>
+      </c>
+      <c r="M83">
+        <v>-2200</v>
+      </c>
+      <c r="N83">
+        <v>3528039000</v>
+      </c>
+      <c r="O83">
+        <v>7750400</v>
+      </c>
+      <c r="P83">
+        <v>360646761000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1670851560000</v>
+      </c>
+      <c r="B84">
+        <v>2260300</v>
+      </c>
+      <c r="C84">
+        <v>2130800</v>
+      </c>
+      <c r="D84">
+        <v>7300</v>
+      </c>
+      <c r="E84">
+        <v>35723007000</v>
+      </c>
+      <c r="F84">
+        <v>39301150000</v>
+      </c>
+      <c r="G84">
+        <v>102261000</v>
+      </c>
+      <c r="H84">
+        <v>4398400</v>
+      </c>
+      <c r="I84">
+        <v>75126418000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2022-12-12T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>7300398888000</v>
+      </c>
+      <c r="L84">
+        <v>413220300</v>
+      </c>
+      <c r="M84">
+        <v>-129500</v>
+      </c>
+      <c r="N84">
+        <v>3578143000</v>
+      </c>
+      <c r="O84">
+        <v>7620900</v>
+      </c>
+      <c r="P84">
+        <v>364224904000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1670851680000</v>
+      </c>
+      <c r="B85">
+        <v>2465700</v>
+      </c>
+      <c r="C85">
+        <v>1599800</v>
+      </c>
+      <c r="D85">
+        <v>26800</v>
+      </c>
+      <c r="E85">
+        <v>38913358000</v>
+      </c>
+      <c r="F85">
+        <v>29905890000</v>
+      </c>
+      <c r="G85">
+        <v>988293000</v>
+      </c>
+      <c r="H85">
+        <v>4092300</v>
+      </c>
+      <c r="I85">
+        <v>69807541000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2022-12-12T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>7370206429000</v>
+      </c>
+      <c r="L85">
+        <v>417312600</v>
+      </c>
+      <c r="M85">
+        <v>-865900</v>
+      </c>
+      <c r="N85">
+        <v>-9007468000</v>
+      </c>
+      <c r="O85">
+        <v>6755000</v>
+      </c>
+      <c r="P85">
+        <v>355217436000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1670851800000</v>
+      </c>
+      <c r="B86">
+        <v>3995800</v>
+      </c>
+      <c r="C86">
+        <v>1460500</v>
+      </c>
+      <c r="D86">
+        <v>7800</v>
+      </c>
+      <c r="E86">
+        <v>71745258000</v>
+      </c>
+      <c r="F86">
+        <v>28433519000</v>
+      </c>
+      <c r="G86">
+        <v>140620000</v>
+      </c>
+      <c r="H86">
+        <v>5464100</v>
+      </c>
+      <c r="I86">
+        <v>100319397000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2022-12-12T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>7470525826000</v>
+      </c>
+      <c r="L86">
+        <v>422776700</v>
+      </c>
+      <c r="M86">
+        <v>-2535300</v>
+      </c>
+      <c r="N86">
+        <v>-43311739000</v>
+      </c>
+      <c r="O86">
+        <v>4219700</v>
+      </c>
+      <c r="P86">
+        <v>311905697000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1670851920000</v>
+      </c>
+      <c r="B87">
+        <v>6797800</v>
+      </c>
+      <c r="C87">
+        <v>1583500</v>
+      </c>
+      <c r="D87">
+        <v>25900</v>
+      </c>
+      <c r="E87">
+        <v>119145522000</v>
+      </c>
+      <c r="F87">
+        <v>28863017000</v>
+      </c>
+      <c r="G87">
+        <v>403672000</v>
+      </c>
+      <c r="H87">
+        <v>8407200</v>
+      </c>
+      <c r="I87">
+        <v>148412211000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2022-12-12T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>7618938037000</v>
+      </c>
+      <c r="L87">
+        <v>431183900</v>
+      </c>
+      <c r="M87">
+        <v>-5214300</v>
+      </c>
+      <c r="N87">
+        <v>-90282505000</v>
+      </c>
+      <c r="O87">
+        <v>-994600</v>
+      </c>
+      <c r="P87">
+        <v>221623192000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1670852040000</v>
+      </c>
+      <c r="B88">
+        <v>3793000</v>
+      </c>
+      <c r="C88">
+        <v>1666900</v>
+      </c>
+      <c r="D88">
+        <v>9500</v>
+      </c>
+      <c r="E88">
+        <v>71160534000</v>
+      </c>
+      <c r="F88">
+        <v>32790227000</v>
+      </c>
+      <c r="G88">
+        <v>99108000</v>
+      </c>
+      <c r="H88">
+        <v>5469400</v>
+      </c>
+      <c r="I88">
+        <v>104049869000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2022-12-12T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>7722987906000</v>
+      </c>
+      <c r="L88">
+        <v>436653300</v>
+      </c>
+      <c r="M88">
+        <v>-2126100</v>
+      </c>
+      <c r="N88">
+        <v>-38370307000</v>
+      </c>
+      <c r="O88">
+        <v>-3120700</v>
+      </c>
+      <c r="P88">
+        <v>183252885000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1670852160000</v>
+      </c>
+      <c r="B89">
+        <v>3621900</v>
+      </c>
+      <c r="C89">
+        <v>1777600</v>
+      </c>
+      <c r="D89">
+        <v>5200</v>
+      </c>
+      <c r="E89">
+        <v>59560273000</v>
+      </c>
+      <c r="F89">
+        <v>38141265000</v>
+      </c>
+      <c r="G89">
+        <v>116949000</v>
+      </c>
+      <c r="H89">
+        <v>5404700</v>
+      </c>
+      <c r="I89">
+        <v>97818487000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2022-12-12T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>7820806393000</v>
+      </c>
+      <c r="L89">
+        <v>442058000</v>
+      </c>
+      <c r="M89">
+        <v>-1844300</v>
+      </c>
+      <c r="N89">
+        <v>-21419008000</v>
+      </c>
+      <c r="O89">
+        <v>-4965000</v>
+      </c>
+      <c r="P89">
+        <v>161833877000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1670852280000</v>
+      </c>
+      <c r="B90">
+        <v>3154700</v>
+      </c>
+      <c r="C90">
+        <v>2041800</v>
+      </c>
+      <c r="D90">
+        <v>29700</v>
+      </c>
+      <c r="E90">
+        <v>48083756000</v>
+      </c>
+      <c r="F90">
+        <v>38621302000</v>
+      </c>
+      <c r="G90">
+        <v>534077000</v>
+      </c>
+      <c r="H90">
+        <v>5226200</v>
+      </c>
+      <c r="I90">
+        <v>87239135000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2022-12-12T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>7908045528000</v>
+      </c>
+      <c r="L90">
+        <v>447284200</v>
+      </c>
+      <c r="M90">
+        <v>-1112900</v>
+      </c>
+      <c r="N90">
+        <v>-9462454000</v>
+      </c>
+      <c r="O90">
+        <v>-6077900</v>
+      </c>
+      <c r="P90">
+        <v>152371423000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1670852400000</v>
+      </c>
+      <c r="B91">
+        <v>1861500</v>
+      </c>
+      <c r="C91">
+        <v>2452500</v>
+      </c>
+      <c r="D91">
+        <v>2300</v>
+      </c>
+      <c r="E91">
+        <v>31996120000</v>
+      </c>
+      <c r="F91">
+        <v>47601165000</v>
+      </c>
+      <c r="G91">
+        <v>80800000</v>
+      </c>
+      <c r="H91">
+        <v>4316300</v>
+      </c>
+      <c r="I91">
+        <v>79678085000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2022-12-12T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>7987723613000</v>
+      </c>
+      <c r="L91">
+        <v>451600500</v>
+      </c>
+      <c r="M91">
+        <v>591000</v>
+      </c>
+      <c r="N91">
+        <v>15605045000</v>
+      </c>
+      <c r="O91">
+        <v>-5486900</v>
+      </c>
+      <c r="P91">
+        <v>167976468000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1670852520000</v>
+      </c>
+      <c r="B92">
+        <v>1267300</v>
+      </c>
+      <c r="C92">
+        <v>3060000</v>
+      </c>
+      <c r="D92">
+        <v>2200</v>
+      </c>
+      <c r="E92">
+        <v>22967610000</v>
+      </c>
+      <c r="F92">
+        <v>62155983000</v>
+      </c>
+      <c r="G92">
+        <v>29355000</v>
+      </c>
+      <c r="H92">
+        <v>4329500</v>
+      </c>
+      <c r="I92">
+        <v>85152948000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2022-12-12T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>8072876561000</v>
+      </c>
+      <c r="L92">
+        <v>455930000</v>
+      </c>
+      <c r="M92">
+        <v>1792700</v>
+      </c>
+      <c r="N92">
+        <v>39188373000</v>
+      </c>
+      <c r="O92">
+        <v>-3694200</v>
+      </c>
+      <c r="P92">
+        <v>207164841000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1670852640000</v>
+      </c>
+      <c r="B93">
+        <v>1166300</v>
+      </c>
+      <c r="C93">
+        <v>2789600</v>
+      </c>
+      <c r="D93">
+        <v>5200</v>
+      </c>
+      <c r="E93">
+        <v>20781905000</v>
+      </c>
+      <c r="F93">
+        <v>48183417000</v>
+      </c>
+      <c r="G93">
+        <v>126325000</v>
+      </c>
+      <c r="H93">
+        <v>3961100</v>
+      </c>
+      <c r="I93">
+        <v>69091647000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2022-12-12T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>8141968208000</v>
+      </c>
+      <c r="L93">
+        <v>459891100</v>
+      </c>
+      <c r="M93">
+        <v>1623300</v>
+      </c>
+      <c r="N93">
+        <v>27401512000</v>
+      </c>
+      <c r="O93">
+        <v>-2070900</v>
+      </c>
+      <c r="P93">
+        <v>234566353000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1670852760000</v>
+      </c>
+      <c r="B94">
+        <v>1687900</v>
+      </c>
+      <c r="C94">
+        <v>2102100</v>
+      </c>
+      <c r="D94">
+        <v>13900</v>
+      </c>
+      <c r="E94">
+        <v>30299377000</v>
+      </c>
+      <c r="F94">
+        <v>40349595000</v>
+      </c>
+      <c r="G94">
+        <v>292075000</v>
+      </c>
+      <c r="H94">
+        <v>3803900</v>
+      </c>
+      <c r="I94">
+        <v>70941047000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2022-12-12T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>8212909255000</v>
+      </c>
+      <c r="L94">
+        <v>463695000</v>
+      </c>
+      <c r="M94">
+        <v>414200</v>
+      </c>
+      <c r="N94">
+        <v>10050218000</v>
+      </c>
+      <c r="O94">
+        <v>-1656700</v>
+      </c>
+      <c r="P94">
+        <v>244616571000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1670852880000</v>
+      </c>
+      <c r="B95">
+        <v>1901400</v>
+      </c>
+      <c r="C95">
+        <v>1789000</v>
+      </c>
+      <c r="D95">
+        <v>18400</v>
+      </c>
+      <c r="E95">
+        <v>33384076000</v>
+      </c>
+      <c r="F95">
+        <v>31580624000</v>
+      </c>
+      <c r="G95">
+        <v>336575000</v>
+      </c>
+      <c r="H95">
+        <v>3708800</v>
+      </c>
+      <c r="I95">
+        <v>65301275000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2022-12-12T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>8278210530000</v>
+      </c>
+      <c r="L95">
+        <v>467403800</v>
+      </c>
+      <c r="M95">
+        <v>-112400</v>
+      </c>
+      <c r="N95">
+        <v>-1803452000</v>
+      </c>
+      <c r="O95">
+        <v>-1769100</v>
+      </c>
+      <c r="P95">
+        <v>242813119000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1670853000000</v>
+      </c>
+      <c r="B96">
+        <v>5582000</v>
+      </c>
+      <c r="C96">
+        <v>924800</v>
+      </c>
+      <c r="D96">
+        <v>60600</v>
+      </c>
+      <c r="E96">
+        <v>101032982000</v>
+      </c>
+      <c r="F96">
+        <v>15344983000</v>
+      </c>
+      <c r="G96">
+        <v>418900000</v>
+      </c>
+      <c r="H96">
+        <v>6567400</v>
+      </c>
+      <c r="I96">
+        <v>116796865000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2022-12-12T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>8395007395000</v>
+      </c>
+      <c r="L96">
+        <v>473971200</v>
+      </c>
+      <c r="M96">
+        <v>-4657200</v>
+      </c>
+      <c r="N96">
+        <v>-85687999000</v>
+      </c>
+      <c r="O96">
+        <v>-6426300</v>
+      </c>
+      <c r="P96">
+        <v>157125120000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1670853120000</v>
+      </c>
+      <c r="B97">
+        <v>8448400</v>
+      </c>
+      <c r="C97">
+        <v>960200</v>
+      </c>
+      <c r="D97">
+        <v>33800</v>
+      </c>
+      <c r="E97">
+        <v>141279146000</v>
+      </c>
+      <c r="F97">
+        <v>17527780000</v>
+      </c>
+      <c r="G97">
+        <v>651264000</v>
+      </c>
+      <c r="H97">
+        <v>9442400</v>
+      </c>
+      <c r="I97">
+        <v>159458190000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2022-12-12T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>8554465585000</v>
+      </c>
+      <c r="L97">
+        <v>483413600</v>
+      </c>
+      <c r="M97">
+        <v>-7488200</v>
+      </c>
+      <c r="N97">
+        <v>-123751366000</v>
+      </c>
+      <c r="O97">
+        <v>-13914500</v>
+      </c>
+      <c r="P97">
+        <v>33373754000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1670853240000</v>
+      </c>
+      <c r="B98">
+        <v>4889200</v>
+      </c>
+      <c r="C98">
+        <v>2421600</v>
+      </c>
+      <c r="D98">
+        <v>19100</v>
+      </c>
+      <c r="E98">
+        <v>84862674000</v>
+      </c>
+      <c r="F98">
+        <v>41187050000</v>
+      </c>
+      <c r="G98">
+        <v>209056000</v>
+      </c>
+      <c r="H98">
+        <v>7329900</v>
+      </c>
+      <c r="I98">
+        <v>126258780000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2022-12-12T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>8680724365000</v>
+      </c>
+      <c r="L98">
+        <v>490743500</v>
+      </c>
+      <c r="M98">
+        <v>-2467600</v>
+      </c>
+      <c r="N98">
+        <v>-43675624000</v>
+      </c>
+      <c r="O98">
+        <v>-16382100</v>
+      </c>
+      <c r="P98">
+        <v>-10301870000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1670853360000</v>
+      </c>
+      <c r="B99">
+        <v>2007700</v>
+      </c>
+      <c r="C99">
+        <v>2204700</v>
+      </c>
+      <c r="D99">
+        <v>9100</v>
+      </c>
+      <c r="E99">
+        <v>34045864000</v>
+      </c>
+      <c r="F99">
+        <v>43206814000</v>
+      </c>
+      <c r="G99">
+        <v>300779000</v>
+      </c>
+      <c r="H99">
+        <v>4221500</v>
+      </c>
+      <c r="I99">
+        <v>77553457000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2022-12-12T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>8758277822000</v>
+      </c>
+      <c r="L99">
+        <v>494965000</v>
+      </c>
+      <c r="M99">
+        <v>197000</v>
+      </c>
+      <c r="N99">
+        <v>9160950000</v>
+      </c>
+      <c r="O99">
+        <v>-16185100</v>
+      </c>
+      <c r="P99">
+        <v>-1140920000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1670853480000</v>
+      </c>
+      <c r="B100">
+        <v>2488500</v>
+      </c>
+      <c r="C100">
+        <v>1710400</v>
+      </c>
+      <c r="D100">
+        <v>3000</v>
+      </c>
+      <c r="E100">
+        <v>47436683000</v>
+      </c>
+      <c r="F100">
+        <v>33414533000</v>
+      </c>
+      <c r="G100">
+        <v>38137000</v>
+      </c>
+      <c r="H100">
+        <v>4201900</v>
+      </c>
+      <c r="I100">
+        <v>80889353000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2022-12-12T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>8839167175000</v>
+      </c>
+      <c r="L100">
+        <v>499166900</v>
+      </c>
+      <c r="M100">
+        <v>-778100</v>
+      </c>
+      <c r="N100">
+        <v>-14022150000</v>
+      </c>
+      <c r="O100">
+        <v>-16963200</v>
+      </c>
+      <c r="P100">
+        <v>-15163070000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1670853600000</v>
+      </c>
+      <c r="B101">
+        <v>2312400</v>
+      </c>
+      <c r="C101">
+        <v>1474800</v>
+      </c>
+      <c r="D101">
+        <v>15900</v>
+      </c>
+      <c r="E101">
+        <v>44961290000</v>
+      </c>
+      <c r="F101">
+        <v>30981865000</v>
+      </c>
+      <c r="G101">
+        <v>171111000</v>
+      </c>
+      <c r="H101">
+        <v>3803100</v>
+      </c>
+      <c r="I101">
+        <v>76114266000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2022-12-12T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>8915281441000</v>
+      </c>
+      <c r="L101">
+        <v>502970000</v>
+      </c>
+      <c r="M101">
+        <v>-837600</v>
+      </c>
+      <c r="N101">
+        <v>-13979425000</v>
+      </c>
+      <c r="O101">
+        <v>-17800800</v>
+      </c>
+      <c r="P101">
+        <v>-29142495000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1670853720000</v>
+      </c>
+      <c r="B102">
+        <v>6784800</v>
+      </c>
+      <c r="C102">
+        <v>1543200</v>
+      </c>
+      <c r="D102">
+        <v>77900</v>
+      </c>
+      <c r="E102">
+        <v>129888184000</v>
+      </c>
+      <c r="F102">
+        <v>25210660000</v>
+      </c>
+      <c r="G102">
+        <v>1534467000</v>
+      </c>
+      <c r="H102">
+        <v>8405900</v>
+      </c>
+      <c r="I102">
+        <v>156633311000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2022-12-12T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>9071914752000</v>
+      </c>
+      <c r="L102">
+        <v>511375900</v>
+      </c>
+      <c r="M102">
+        <v>-5241600</v>
+      </c>
+      <c r="N102">
+        <v>-104677524000</v>
+      </c>
+      <c r="O102">
+        <v>-23042400</v>
+      </c>
+      <c r="P102">
+        <v>-133820019000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1670853840000</v>
+      </c>
+      <c r="B103">
+        <v>15656100</v>
+      </c>
+      <c r="C103">
+        <v>1868600</v>
+      </c>
+      <c r="D103">
+        <v>92100</v>
+      </c>
+      <c r="E103">
+        <v>266291347000</v>
+      </c>
+      <c r="F103">
+        <v>32346204000</v>
+      </c>
+      <c r="G103">
+        <v>1605473000</v>
+      </c>
+      <c r="H103">
+        <v>17616800</v>
+      </c>
+      <c r="I103">
+        <v>300243024000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2022-12-12T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>9372157776000</v>
+      </c>
+      <c r="L103">
+        <v>528992700</v>
+      </c>
+      <c r="M103">
+        <v>-13787500</v>
+      </c>
+      <c r="N103">
+        <v>-233945143000</v>
+      </c>
+      <c r="O103">
+        <v>-36829900</v>
+      </c>
+      <c r="P103">
+        <v>-367765162000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1670853960000</v>
+      </c>
+      <c r="B104">
+        <v>14944500</v>
+      </c>
+      <c r="C104">
+        <v>2792700</v>
+      </c>
+      <c r="D104">
+        <v>161400</v>
+      </c>
+      <c r="E104">
+        <v>247874214000</v>
+      </c>
+      <c r="F104">
+        <v>48737370000</v>
+      </c>
+      <c r="G104">
+        <v>1790886000</v>
+      </c>
+      <c r="H104">
+        <v>17898600</v>
+      </c>
+      <c r="I104">
+        <v>298402470000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2022-12-12T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>9670560246000</v>
+      </c>
+      <c r="L104">
+        <v>546891300</v>
+      </c>
+      <c r="M104">
+        <v>-12151800</v>
+      </c>
+      <c r="N104">
+        <v>-199136844000</v>
+      </c>
+      <c r="O104">
+        <v>-48981700</v>
+      </c>
+      <c r="P104">
+        <v>-566902006000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1670854080000</v>
+      </c>
+      <c r="B105">
+        <v>6101600</v>
+      </c>
+      <c r="C105">
+        <v>6506400</v>
+      </c>
+      <c r="D105">
+        <v>202700</v>
+      </c>
+      <c r="E105">
+        <v>97142446000</v>
+      </c>
+      <c r="F105">
+        <v>111072764000</v>
+      </c>
+      <c r="G105">
+        <v>3668633000</v>
+      </c>
+      <c r="H105">
+        <v>12810700</v>
+      </c>
+      <c r="I105">
+        <v>211883843000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2022-12-12T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>9882444089000</v>
+      </c>
+      <c r="L105">
+        <v>559702000</v>
+      </c>
+      <c r="M105">
+        <v>404800</v>
+      </c>
+      <c r="N105">
+        <v>13930318000</v>
+      </c>
+      <c r="O105">
+        <v>-48576900</v>
+      </c>
+      <c r="P105">
+        <v>-552971688000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1670854200000</v>
+      </c>
+      <c r="B106">
+        <v>3205400</v>
+      </c>
+      <c r="C106">
+        <v>5483500</v>
+      </c>
+      <c r="D106">
+        <v>45500</v>
+      </c>
+      <c r="E106">
+        <v>52793699000</v>
+      </c>
+      <c r="F106">
+        <v>84099232000</v>
+      </c>
+      <c r="G106">
+        <v>646809000</v>
+      </c>
+      <c r="H106">
+        <v>8734400</v>
+      </c>
+      <c r="I106">
+        <v>137539740000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2022-12-12T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>10019983829000</v>
+      </c>
+      <c r="L106">
+        <v>568436400</v>
+      </c>
+      <c r="M106">
+        <v>2278100</v>
+      </c>
+      <c r="N106">
+        <v>31305533000</v>
+      </c>
+      <c r="O106">
+        <v>-46298800</v>
+      </c>
+      <c r="P106">
+        <v>-521666155000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1670854320000</v>
+      </c>
+      <c r="B107">
+        <v>3150000</v>
+      </c>
+      <c r="C107">
+        <v>2909200</v>
+      </c>
+      <c r="D107">
+        <v>47700</v>
+      </c>
+      <c r="E107">
+        <v>55450753000</v>
+      </c>
+      <c r="F107">
+        <v>51645681000</v>
+      </c>
+      <c r="G107">
+        <v>649945000</v>
+      </c>
+      <c r="H107">
+        <v>6106900</v>
+      </c>
+      <c r="I107">
+        <v>107746379000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2022-12-12T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>10127730208000</v>
+      </c>
+      <c r="L107">
+        <v>574543300</v>
+      </c>
+      <c r="M107">
+        <v>-240800</v>
+      </c>
+      <c r="N107">
+        <v>-3805072000</v>
+      </c>
+      <c r="O107">
+        <v>-46539600</v>
+      </c>
+      <c r="P107">
+        <v>-525471227000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1670854440000</v>
+      </c>
+      <c r="B108">
+        <v>7073100</v>
+      </c>
+      <c r="C108">
+        <v>1912600</v>
+      </c>
+      <c r="D108">
+        <v>35600</v>
+      </c>
+      <c r="E108">
+        <v>126424729000</v>
+      </c>
+      <c r="F108">
+        <v>32936474000</v>
+      </c>
+      <c r="G108">
+        <v>670853000</v>
+      </c>
+      <c r="H108">
+        <v>9021300</v>
+      </c>
+      <c r="I108">
+        <v>160032056000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2022-12-12T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>10287762264000</v>
+      </c>
+      <c r="L108">
+        <v>583564600</v>
+      </c>
+      <c r="M108">
+        <v>-5160500</v>
+      </c>
+      <c r="N108">
+        <v>-93488255000</v>
+      </c>
+      <c r="O108">
+        <v>-51700100</v>
+      </c>
+      <c r="P108">
+        <v>-618959482000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1670854560000</v>
+      </c>
+      <c r="B109">
+        <v>7142500</v>
+      </c>
+      <c r="C109">
+        <v>2036100</v>
+      </c>
+      <c r="D109">
+        <v>153000</v>
+      </c>
+      <c r="E109">
+        <v>132015030000</v>
+      </c>
+      <c r="F109">
+        <v>41231143000</v>
+      </c>
+      <c r="G109">
+        <v>2070804000</v>
+      </c>
+      <c r="H109">
+        <v>9331600</v>
+      </c>
+      <c r="I109">
+        <v>175316977000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2022-12-12T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>10463079241000</v>
+      </c>
+      <c r="L109">
+        <v>592896200</v>
+      </c>
+      <c r="M109">
+        <v>-5106400</v>
+      </c>
+      <c r="N109">
+        <v>-90783887000</v>
+      </c>
+      <c r="O109">
+        <v>-56806500</v>
+      </c>
+      <c r="P109">
+        <v>-709743369000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1670854680000</v>
+      </c>
+      <c r="B110">
+        <v>15582800</v>
+      </c>
+      <c r="C110">
+        <v>3415500</v>
+      </c>
+      <c r="D110">
+        <v>612900</v>
+      </c>
+      <c r="E110">
+        <v>263372624000</v>
+      </c>
+      <c r="F110">
+        <v>64949803000</v>
+      </c>
+      <c r="G110">
+        <v>9833074000</v>
+      </c>
+      <c r="H110">
+        <v>19611200</v>
+      </c>
+      <c r="I110">
+        <v>338155501000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2022-12-12T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>10801234742000</v>
+      </c>
+      <c r="L110">
+        <v>612507400</v>
+      </c>
+      <c r="M110">
+        <v>-12167300</v>
+      </c>
+      <c r="N110">
+        <v>-198422821000</v>
+      </c>
+      <c r="O110">
+        <v>-68973800</v>
+      </c>
+      <c r="P110">
+        <v>-908166190000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1670854800000</v>
+      </c>
+      <c r="B111">
+        <v>25812700</v>
+      </c>
+      <c r="C111">
+        <v>6178800</v>
+      </c>
+      <c r="D111">
+        <v>279400</v>
+      </c>
+      <c r="E111">
+        <v>390204251000</v>
+      </c>
+      <c r="F111">
+        <v>101252363000</v>
+      </c>
+      <c r="G111">
+        <v>4496009000</v>
+      </c>
+      <c r="H111">
+        <v>32270900</v>
+      </c>
+      <c r="I111">
+        <v>495952623000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2022-12-12T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>11297187365000</v>
+      </c>
+      <c r="L111">
+        <v>644778300</v>
+      </c>
+      <c r="M111">
+        <v>-19633900</v>
+      </c>
+      <c r="N111">
+        <v>-288951888000</v>
+      </c>
+      <c r="O111">
+        <v>-88607700</v>
+      </c>
+      <c r="P111">
+        <v>-1197118078000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1670854920000</v>
+      </c>
+      <c r="B112">
+        <v>15874600</v>
+      </c>
+      <c r="C112">
+        <v>5335200</v>
+      </c>
+      <c r="D112">
+        <v>281100</v>
+      </c>
+      <c r="E112">
+        <v>246062559000</v>
+      </c>
+      <c r="F112">
+        <v>81624242000</v>
+      </c>
+      <c r="G112">
+        <v>3098527000</v>
+      </c>
+      <c r="H112">
+        <v>21490900</v>
+      </c>
+      <c r="I112">
+        <v>330785328000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2022-12-12T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>11627972693000</v>
+      </c>
+      <c r="L112">
+        <v>666269200</v>
+      </c>
+      <c r="M112">
+        <v>-10539400</v>
+      </c>
+      <c r="N112">
+        <v>-164438317000</v>
+      </c>
+      <c r="O112">
+        <v>-99147100</v>
+      </c>
+      <c r="P112">
+        <v>-1361556395000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1670855040000</v>
+      </c>
+      <c r="B113">
+        <v>9979800</v>
+      </c>
+      <c r="C113">
+        <v>6409300</v>
+      </c>
+      <c r="D113">
+        <v>91600</v>
+      </c>
+      <c r="E113">
+        <v>164423831000</v>
+      </c>
+      <c r="F113">
+        <v>97817335000</v>
+      </c>
+      <c r="G113">
+        <v>1500141000</v>
+      </c>
+      <c r="H113">
+        <v>16480700</v>
+      </c>
+      <c r="I113">
+        <v>263741307000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2022-12-12T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>11891714000000</v>
+      </c>
+      <c r="L113">
+        <v>682749900</v>
+      </c>
+      <c r="M113">
+        <v>-3570500</v>
+      </c>
+      <c r="N113">
+        <v>-66606496000</v>
+      </c>
+      <c r="O113">
+        <v>-102717600</v>
+      </c>
+      <c r="P113">
+        <v>-1428162891000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1670855160000</v>
+      </c>
+      <c r="B114">
+        <v>9201200</v>
+      </c>
+      <c r="C114">
+        <v>7267500</v>
+      </c>
+      <c r="D114">
+        <v>60100</v>
+      </c>
+      <c r="E114">
+        <v>152634679000</v>
+      </c>
+      <c r="F114">
+        <v>117496079000</v>
+      </c>
+      <c r="G114">
+        <v>1066085000</v>
+      </c>
+      <c r="H114">
+        <v>16528800</v>
+      </c>
+      <c r="I114">
+        <v>271196843000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2022-12-12T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>12162910843000</v>
+      </c>
+      <c r="L114">
+        <v>699278700</v>
+      </c>
+      <c r="M114">
+        <v>-1933700</v>
+      </c>
+      <c r="N114">
+        <v>-35138600000</v>
+      </c>
+      <c r="O114">
+        <v>-104651300</v>
+      </c>
+      <c r="P114">
+        <v>-1463301491000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1670855280000</v>
+      </c>
+      <c r="B115">
+        <v>6715800</v>
+      </c>
+      <c r="C115">
+        <v>10120000</v>
+      </c>
+      <c r="D115">
+        <v>140300</v>
+      </c>
+      <c r="E115">
+        <v>111941641000</v>
+      </c>
+      <c r="F115">
+        <v>158686918000</v>
+      </c>
+      <c r="G115">
+        <v>1970022000</v>
+      </c>
+      <c r="H115">
+        <v>16976100</v>
+      </c>
+      <c r="I115">
+        <v>272598581000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2022-12-12T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>12435509424000</v>
+      </c>
+      <c r="L115">
+        <v>716254800</v>
+      </c>
+      <c r="M115">
+        <v>3404200</v>
+      </c>
+      <c r="N115">
+        <v>46745277000</v>
+      </c>
+      <c r="O115">
+        <v>-101247100</v>
+      </c>
+      <c r="P115">
+        <v>-1416556214000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1670855400000</v>
+      </c>
+      <c r="B116">
+        <v>21700</v>
+      </c>
+      <c r="C116">
+        <v>30900</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>338720000</v>
+      </c>
+      <c r="F116">
+        <v>586290000</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>52600</v>
+      </c>
+      <c r="I116">
+        <v>925010000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2022-12-12T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>12436434434000</v>
+      </c>
+      <c r="L116">
+        <v>716307400</v>
+      </c>
+      <c r="M116">
+        <v>9200</v>
+      </c>
+      <c r="N116">
+        <v>247570000</v>
+      </c>
+      <c r="O116">
+        <v>-101237900</v>
+      </c>
+      <c r="P116">
+        <v>-1416308644000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1670855520000</v>
+      </c>
+      <c r="B117">
+        <v>200</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>2039999.9999999998</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>200</v>
+      </c>
+      <c r="I117">
+        <v>2039999.9999999998</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2022-12-12T14:32:00.000Z</v>
+      </c>
+      <c r="K117">
+        <v>12436436474000</v>
+      </c>
+      <c r="L117">
+        <v>716307600</v>
+      </c>
+      <c r="M117">
+        <v>-200</v>
+      </c>
+      <c r="N117">
+        <v>-2039999.9999999998</v>
+      </c>
+      <c r="O117">
+        <v>-101238100</v>
+      </c>
+      <c r="P117">
+        <v>-1416310684000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1670855640000</v>
+      </c>
+      <c r="B118">
+        <v>100</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>100</v>
+      </c>
+      <c r="E118">
+        <v>1019999.9999999999</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>1019999.9999999999</v>
+      </c>
+      <c r="H118">
+        <v>200</v>
+      </c>
+      <c r="I118">
+        <v>2039999.9999999998</v>
+      </c>
+      <c r="J118" t="str">
+        <v>2022-12-12T14:34:00.000Z</v>
+      </c>
+      <c r="K118">
+        <v>12436438514000</v>
+      </c>
+      <c r="L118">
+        <v>716307800</v>
+      </c>
+      <c r="M118">
+        <v>-100</v>
+      </c>
+      <c r="N118">
+        <v>-1019999.9999999999</v>
+      </c>
+      <c r="O118">
+        <v>-101238200</v>
+      </c>
+      <c r="P118">
+        <v>-1416311704000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1670855880000</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>300</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>3060000</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>300</v>
+      </c>
+      <c r="I119">
+        <v>3060000</v>
+      </c>
+      <c r="J119" t="str">
+        <v>2022-12-12T14:38:00.000Z</v>
+      </c>
+      <c r="K119">
+        <v>12436441574000</v>
+      </c>
+      <c r="L119">
+        <v>716308100</v>
+      </c>
+      <c r="M119">
+        <v>300</v>
+      </c>
+      <c r="N119">
+        <v>3060000</v>
+      </c>
+      <c r="O119">
+        <v>-101237900</v>
+      </c>
+      <c r="P119">
+        <v>-1416308644000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1670856000000</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>5900</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>60179999.99999999</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>5900</v>
+      </c>
+      <c r="I120">
+        <v>60179999.99999999</v>
+      </c>
+      <c r="J120" t="str">
+        <v>2022-12-12T14:40:00.000Z</v>
+      </c>
+      <c r="K120">
+        <v>12436501754000</v>
+      </c>
+      <c r="L120">
+        <v>716314000</v>
+      </c>
+      <c r="M120">
+        <v>5900</v>
+      </c>
+      <c r="N120">
+        <v>60179999.99999999</v>
+      </c>
+      <c r="O120">
+        <v>-101232000</v>
+      </c>
+      <c r="P120">
+        <v>-1416248464000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>1670856240000</v>
+      </c>
+      <c r="B121">
+        <v>15057000</v>
+      </c>
+      <c r="C121">
+        <v>13277400</v>
+      </c>
+      <c r="D121">
+        <v>29686300</v>
+      </c>
+      <c r="E121">
+        <v>321039560000</v>
+      </c>
+      <c r="F121">
+        <v>221599934000</v>
+      </c>
+      <c r="G121">
+        <v>480267666000</v>
+      </c>
+      <c r="H121">
+        <v>58020700</v>
+      </c>
+      <c r="I121">
+        <v>1022907160000</v>
+      </c>
+      <c r="J121" t="str">
+        <v>2022-12-12T14:44:00.000Z</v>
+      </c>
+      <c r="K121">
+        <v>13459408914000</v>
+      </c>
+      <c r="L121">
+        <v>774334700</v>
+      </c>
+      <c r="M121">
+        <v>-1779600</v>
+      </c>
+      <c r="N121">
+        <v>-99439626000</v>
+      </c>
+      <c r="O121">
+        <v>-103011600</v>
+      </c>
+      <c r="P121">
+        <v>-1515688090000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>1670856840000</v>
+      </c>
+      <c r="B122">
+        <v>100</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>1019999.9999999999</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>100</v>
+      </c>
+      <c r="I122">
+        <v>1019999.9999999999</v>
+      </c>
+      <c r="J122" t="str">
+        <v>2022-12-12T14:54:00.000Z</v>
+      </c>
+      <c r="K122">
+        <v>13459409934000</v>
+      </c>
+      <c r="L122">
+        <v>774334800</v>
+      </c>
+      <c r="M122">
+        <v>-100</v>
+      </c>
+      <c r="N122">
+        <v>-1019999.9999999999</v>
+      </c>
+      <c r="O122">
+        <v>-103011700</v>
+      </c>
+      <c r="P122">
+        <v>-1515689110000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>1670857080000</v>
+      </c>
+      <c r="B123">
         <v>800</v>
       </c>
-      <c r="C53">
+      <c r="C123">
         <v>0</v>
       </c>
-      <c r="D53">
+      <c r="D123">
         <v>0</v>
       </c>
-      <c r="E53">
+      <c r="E123">
         <v>8080000</v>
       </c>
-      <c r="F53">
+      <c r="F123">
         <v>0</v>
       </c>
-      <c r="G53">
+      <c r="G123">
         <v>0</v>
       </c>
-      <c r="H53">
+      <c r="H123">
         <v>800</v>
       </c>
-      <c r="I53">
+      <c r="I123">
         <v>8080000</v>
       </c>
-      <c r="J53" t="str">
-        <v>2022-12-12T14:55:00.000Z</v>
-      </c>
-      <c r="K53">
+      <c r="J123" t="str">
+        <v>2022-12-12T14:58:00.000Z</v>
+      </c>
+      <c r="K123">
         <v>13459418014000</v>
       </c>
-      <c r="L53">
+      <c r="L123">
         <v>774335600</v>
       </c>
-      <c r="M53">
+      <c r="M123">
         <v>-800</v>
       </c>
-      <c r="N53">
+      <c r="N123">
         <v>-8080000</v>
       </c>
-      <c r="O53">
+      <c r="O123">
         <v>-103012500</v>
       </c>
-      <c r="P53">
+      <c r="P123">
         <v>-1515697190000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P53"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P123"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20221212/VNINDEX_HOSE_5p_20221212.xlsx
+++ b/name/vnindex/20221212/VNINDEX_HOSE_5p_20221212.xlsx
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>3000000</v>
+        <v>3000</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -478,13 +478,13 @@
         <v>300</v>
       </c>
       <c r="I2">
-        <v>3000000</v>
+        <v>3000</v>
       </c>
       <c r="J2" t="str">
         <v>2022-12-12T09:12:00.000Z</v>
       </c>
       <c r="K2">
-        <v>3000000</v>
+        <v>3000</v>
       </c>
       <c r="L2">
         <v>300</v>
@@ -493,13 +493,13 @@
         <v>-300</v>
       </c>
       <c r="N2">
-        <v>-3000000</v>
+        <v>-3000</v>
       </c>
       <c r="O2">
         <v>-300</v>
       </c>
       <c r="P2">
-        <v>-3000000</v>
+        <v>-3000</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         <v>9237600</v>
       </c>
       <c r="E3">
-        <v>44463714000</v>
+        <v>40035746400</v>
       </c>
       <c r="F3">
-        <v>40379367000</v>
+        <v>34913538300</v>
       </c>
       <c r="G3">
-        <v>144190323000</v>
+        <v>123016518000</v>
       </c>
       <c r="H3">
         <v>14649700</v>
       </c>
       <c r="I3">
-        <v>229033404000</v>
+        <v>197965802700</v>
       </c>
       <c r="J3" t="str">
         <v>2022-12-12T09:14:00.000Z</v>
       </c>
       <c r="K3">
-        <v>229036404000</v>
+        <v>197965805700</v>
       </c>
       <c r="L3">
         <v>14650000</v>
@@ -543,13 +543,13 @@
         <v>-417300</v>
       </c>
       <c r="N3">
-        <v>-4084347000</v>
+        <v>-5122208100</v>
       </c>
       <c r="O3">
         <v>-417600</v>
       </c>
       <c r="P3">
-        <v>-4087347000</v>
+        <v>-5122211100</v>
       </c>
     </row>
     <row r="4">
@@ -566,10 +566,10 @@
         <v>60200</v>
       </c>
       <c r="E4">
-        <v>52181193000</v>
+        <v>47104574700</v>
       </c>
       <c r="F4">
-        <v>61707245000</v>
+        <v>51362200400</v>
       </c>
       <c r="G4">
         <v>878395000</v>
@@ -578,13 +578,13 @@
         <v>7014000</v>
       </c>
       <c r="I4">
-        <v>114766833000</v>
+        <v>99345170100</v>
       </c>
       <c r="J4" t="str">
         <v>2022-12-12T09:16:00.000Z</v>
       </c>
       <c r="K4">
-        <v>343803237000</v>
+        <v>297310975800</v>
       </c>
       <c r="L4">
         <v>21664000</v>
@@ -593,13 +593,13 @@
         <v>729200</v>
       </c>
       <c r="N4">
-        <v>9526052000</v>
+        <v>4257625700</v>
       </c>
       <c r="O4">
         <v>311600</v>
       </c>
       <c r="P4">
-        <v>5438705000</v>
+        <v>-864585400</v>
       </c>
     </row>
     <row r="5">
@@ -616,25 +616,25 @@
         <v>26700</v>
       </c>
       <c r="E5">
-        <v>75499156000</v>
+        <v>63805361500</v>
       </c>
       <c r="F5">
-        <v>69229261000</v>
+        <v>64826368300</v>
       </c>
       <c r="G5">
-        <v>295415000</v>
+        <v>287622800</v>
       </c>
       <c r="H5">
         <v>8660900</v>
       </c>
       <c r="I5">
-        <v>145023832000</v>
+        <v>128919352600</v>
       </c>
       <c r="J5" t="str">
         <v>2022-12-12T09:18:00.000Z</v>
       </c>
       <c r="K5">
-        <v>488827069000</v>
+        <v>426230328400</v>
       </c>
       <c r="L5">
         <v>30324900</v>
@@ -643,13 +643,13 @@
         <v>452400</v>
       </c>
       <c r="N5">
-        <v>-6269895000</v>
+        <v>1021006800</v>
       </c>
       <c r="O5">
         <v>764000</v>
       </c>
       <c r="P5">
-        <v>-831190000</v>
+        <v>156421400</v>
       </c>
     </row>
     <row r="6">
@@ -666,25 +666,25 @@
         <v>55900</v>
       </c>
       <c r="E6">
-        <v>78676702000</v>
+        <v>70605381400</v>
       </c>
       <c r="F6">
-        <v>40808308000</v>
+        <v>36617503000</v>
       </c>
       <c r="G6">
-        <v>888397000</v>
+        <v>882403000</v>
       </c>
       <c r="H6">
         <v>7667900</v>
       </c>
       <c r="I6">
-        <v>120373407000</v>
+        <v>108105287400</v>
       </c>
       <c r="J6" t="str">
         <v>2022-12-12T09:20:00.000Z</v>
       </c>
       <c r="K6">
-        <v>609200476000</v>
+        <v>534335615800</v>
       </c>
       <c r="L6">
         <v>37992800</v>
@@ -693,13 +693,13 @@
         <v>-2474600</v>
       </c>
       <c r="N6">
-        <v>-37868394000</v>
+        <v>-33987878400</v>
       </c>
       <c r="O6">
         <v>-1710600</v>
       </c>
       <c r="P6">
-        <v>-38699584000</v>
+        <v>-33831457000</v>
       </c>
     </row>
     <row r="7">
@@ -716,25 +716,25 @@
         <v>9400</v>
       </c>
       <c r="E7">
-        <v>50310048000</v>
+        <v>45850012500</v>
       </c>
       <c r="F7">
-        <v>33035327000</v>
+        <v>30381283700</v>
       </c>
       <c r="G7">
-        <v>173949000</v>
+        <v>141581400</v>
       </c>
       <c r="H7">
         <v>4904100</v>
       </c>
       <c r="I7">
-        <v>83519324000</v>
+        <v>76372877600</v>
       </c>
       <c r="J7" t="str">
         <v>2022-12-12T09:22:00.000Z</v>
       </c>
       <c r="K7">
-        <v>692719800000</v>
+        <v>610708493400</v>
       </c>
       <c r="L7">
         <v>42896900</v>
@@ -743,13 +743,13 @@
         <v>-1527100</v>
       </c>
       <c r="N7">
-        <v>-17274721000</v>
+        <v>-15468728800</v>
       </c>
       <c r="O7">
         <v>-3237700</v>
       </c>
       <c r="P7">
-        <v>-55974305000</v>
+        <v>-49300185800</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>11400</v>
       </c>
       <c r="E8">
-        <v>31889273000</v>
+        <v>29101163900</v>
       </c>
       <c r="F8">
-        <v>47057267000</v>
+        <v>40086544700</v>
       </c>
       <c r="G8">
         <v>190313000</v>
@@ -778,13 +778,13 @@
         <v>4402300</v>
       </c>
       <c r="I8">
-        <v>79136853000</v>
+        <v>69378021600</v>
       </c>
       <c r="J8" t="str">
         <v>2022-12-12T09:24:00.000Z</v>
       </c>
       <c r="K8">
-        <v>771856653000</v>
+        <v>680086515000</v>
       </c>
       <c r="L8">
         <v>47299200</v>
@@ -793,13 +793,13 @@
         <v>474900</v>
       </c>
       <c r="N8">
-        <v>15167994000</v>
+        <v>10985380800</v>
       </c>
       <c r="O8">
         <v>-2762800</v>
       </c>
       <c r="P8">
-        <v>-40806311000</v>
+        <v>-38314805000</v>
       </c>
     </row>
     <row r="9">
@@ -816,25 +816,25 @@
         <v>8900</v>
       </c>
       <c r="E9">
-        <v>35154484000</v>
+        <v>31610531500</v>
       </c>
       <c r="F9">
-        <v>35228268000</v>
+        <v>32315283900</v>
       </c>
       <c r="G9">
-        <v>307120000</v>
+        <v>305521600</v>
       </c>
       <c r="H9">
         <v>3947300</v>
       </c>
       <c r="I9">
-        <v>70689872000</v>
+        <v>64231337000</v>
       </c>
       <c r="J9" t="str">
         <v>2022-12-12T09:26:00.000Z</v>
       </c>
       <c r="K9">
-        <v>842546525000</v>
+        <v>744317852000</v>
       </c>
       <c r="L9">
         <v>51246500</v>
@@ -843,13 +843,13 @@
         <v>22200</v>
       </c>
       <c r="N9">
-        <v>73784000</v>
+        <v>704752400</v>
       </c>
       <c r="O9">
         <v>-2740600</v>
       </c>
       <c r="P9">
-        <v>-40732527000</v>
+        <v>-37610052600</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>33700</v>
       </c>
       <c r="E10">
-        <v>26280573000</v>
+        <v>24912642300</v>
       </c>
       <c r="F10">
-        <v>45520858000</v>
+        <v>41514068800</v>
       </c>
       <c r="G10">
         <v>419278000</v>
@@ -878,13 +878,13 @@
         <v>4391900</v>
       </c>
       <c r="I10">
-        <v>72220709000</v>
+        <v>66845989100</v>
       </c>
       <c r="J10" t="str">
         <v>2022-12-12T09:28:00.000Z</v>
       </c>
       <c r="K10">
-        <v>914767234000</v>
+        <v>811163841100</v>
       </c>
       <c r="L10">
         <v>55638400</v>
@@ -893,13 +893,13 @@
         <v>1095400</v>
       </c>
       <c r="N10">
-        <v>19240285000</v>
+        <v>16601426500</v>
       </c>
       <c r="O10">
         <v>-1645200</v>
       </c>
       <c r="P10">
-        <v>-21492242000</v>
+        <v>-21008626100</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>18200</v>
       </c>
       <c r="E11">
-        <v>40220989000</v>
+        <v>36487825900</v>
       </c>
       <c r="F11">
-        <v>62232230000</v>
+        <v>51302670500</v>
       </c>
       <c r="G11">
         <v>478532000</v>
@@ -928,13 +928,13 @@
         <v>6064800</v>
       </c>
       <c r="I11">
-        <v>102931751000</v>
+        <v>88269028400</v>
       </c>
       <c r="J11" t="str">
         <v>2022-12-12T09:30:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1017698985000</v>
+        <v>899432869500</v>
       </c>
       <c r="L11">
         <v>61703200</v>
@@ -943,13 +943,13 @@
         <v>981600</v>
       </c>
       <c r="N11">
-        <v>22011241000</v>
+        <v>14814844600</v>
       </c>
       <c r="O11">
         <v>-663600</v>
       </c>
       <c r="P11">
-        <v>518999000</v>
+        <v>-6193781500</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>76000</v>
       </c>
       <c r="E12">
-        <v>32864321000</v>
+        <v>29713175300</v>
       </c>
       <c r="F12">
-        <v>63640507000</v>
+        <v>57691362100</v>
       </c>
       <c r="G12">
         <v>520897000</v>
@@ -978,13 +978,13 @@
         <v>5495900</v>
       </c>
       <c r="I12">
-        <v>97025725000</v>
+        <v>87925434400</v>
       </c>
       <c r="J12" t="str">
         <v>2022-12-12T09:32:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1114724710000</v>
+        <v>987358303900</v>
       </c>
       <c r="L12">
         <v>67199100</v>
@@ -993,13 +993,13 @@
         <v>1323300</v>
       </c>
       <c r="N12">
-        <v>30776186000</v>
+        <v>27978186800</v>
       </c>
       <c r="O12">
         <v>659700</v>
       </c>
       <c r="P12">
-        <v>31295185000</v>
+        <v>21784405300</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>17200</v>
       </c>
       <c r="E13">
-        <v>45335690000</v>
+        <v>41766063200</v>
       </c>
       <c r="F13">
-        <v>60770937000</v>
+        <v>54261453000</v>
       </c>
       <c r="G13">
         <v>164217000</v>
@@ -1028,13 +1028,13 @@
         <v>5977500</v>
       </c>
       <c r="I13">
-        <v>106270844000</v>
+        <v>96191733200</v>
       </c>
       <c r="J13" t="str">
         <v>2022-12-12T09:34:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1220995554000</v>
+        <v>1083550037100</v>
       </c>
       <c r="L13">
         <v>73176600</v>
@@ -1043,13 +1043,13 @@
         <v>639700</v>
       </c>
       <c r="N13">
-        <v>15435247000</v>
+        <v>12495389800</v>
       </c>
       <c r="O13">
         <v>1299400</v>
       </c>
       <c r="P13">
-        <v>46730432000</v>
+        <v>34279795100</v>
       </c>
     </row>
     <row r="14">
@@ -1066,25 +1066,25 @@
         <v>30600</v>
       </c>
       <c r="E14">
-        <v>54021912000</v>
+        <v>45711031200</v>
       </c>
       <c r="F14">
-        <v>56291410000</v>
+        <v>50787019900</v>
       </c>
       <c r="G14">
-        <v>1065662000</v>
+        <v>1036691000</v>
       </c>
       <c r="H14">
         <v>6185500</v>
       </c>
       <c r="I14">
-        <v>111378984000</v>
+        <v>97534742100</v>
       </c>
       <c r="J14" t="str">
         <v>2022-12-12T09:36:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1332374538000</v>
+        <v>1181084779200</v>
       </c>
       <c r="L14">
         <v>79362100</v>
@@ -1093,13 +1093,13 @@
         <v>517300</v>
       </c>
       <c r="N14">
-        <v>2269498000</v>
+        <v>5075988700</v>
       </c>
       <c r="O14">
         <v>1816700</v>
       </c>
       <c r="P14">
-        <v>48999930000</v>
+        <v>39355783800</v>
       </c>
     </row>
     <row r="15">
@@ -1116,25 +1116,25 @@
         <v>47100</v>
       </c>
       <c r="E15">
-        <v>48474585000</v>
+        <v>43276688100</v>
       </c>
       <c r="F15">
-        <v>63594842000</v>
+        <v>62265472700</v>
       </c>
       <c r="G15">
-        <v>1460680000</v>
+        <v>1022818300</v>
       </c>
       <c r="H15">
         <v>6300200</v>
       </c>
       <c r="I15">
-        <v>113530107000</v>
+        <v>106564979100</v>
       </c>
       <c r="J15" t="str">
         <v>2022-12-12T09:38:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1445904645000</v>
+        <v>1287649758300</v>
       </c>
       <c r="L15">
         <v>85662300</v>
@@ -1143,13 +1143,13 @@
         <v>1257900</v>
       </c>
       <c r="N15">
-        <v>15120257000</v>
+        <v>18988784600</v>
       </c>
       <c r="O15">
         <v>3074600</v>
       </c>
       <c r="P15">
-        <v>64120187000</v>
+        <v>58344568400</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>22800</v>
       </c>
       <c r="E16">
-        <v>50538495000</v>
+        <v>48315919800</v>
       </c>
       <c r="F16">
-        <v>51772782000</v>
+        <v>47622236700</v>
       </c>
       <c r="G16">
         <v>360950000</v>
@@ -1178,13 +1178,13 @@
         <v>6071200</v>
       </c>
       <c r="I16">
-        <v>102672227000</v>
+        <v>96299106500</v>
       </c>
       <c r="J16" t="str">
         <v>2022-12-12T09:40:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1548576872000</v>
+        <v>1383948864800</v>
       </c>
       <c r="L16">
         <v>91733500</v>
@@ -1193,13 +1193,13 @@
         <v>1085400</v>
       </c>
       <c r="N16">
-        <v>1234287000</v>
+        <v>-693683100</v>
       </c>
       <c r="O16">
         <v>4160000</v>
       </c>
       <c r="P16">
-        <v>65354474000</v>
+        <v>57650885300</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>46100</v>
       </c>
       <c r="E17">
-        <v>45766558000</v>
+        <v>42693634000</v>
       </c>
       <c r="F17">
-        <v>58642448000</v>
+        <v>53153742200</v>
       </c>
       <c r="G17">
         <v>890571000</v>
@@ -1228,13 +1228,13 @@
         <v>5785900</v>
       </c>
       <c r="I17">
-        <v>105299577000</v>
+        <v>96737947200</v>
       </c>
       <c r="J17" t="str">
         <v>2022-12-12T09:42:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1653876449000</v>
+        <v>1480686812000</v>
       </c>
       <c r="L17">
         <v>97519400</v>
@@ -1243,13 +1243,13 @@
         <v>561000</v>
       </c>
       <c r="N17">
-        <v>12875890000</v>
+        <v>10460108200</v>
       </c>
       <c r="O17">
         <v>4721000</v>
       </c>
       <c r="P17">
-        <v>78230364000</v>
+        <v>68110993500</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>20600</v>
       </c>
       <c r="E18">
-        <v>39462266000</v>
+        <v>38541188000</v>
       </c>
       <c r="F18">
-        <v>67709025000</v>
+        <v>60247693800</v>
       </c>
       <c r="G18">
         <v>342279000</v>
@@ -1278,13 +1278,13 @@
         <v>5631800</v>
       </c>
       <c r="I18">
-        <v>107513570000</v>
+        <v>99131160800</v>
       </c>
       <c r="J18" t="str">
         <v>2022-12-12T09:44:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1761390019000</v>
+        <v>1579817972800</v>
       </c>
       <c r="L18">
         <v>103151200</v>
@@ -1293,13 +1293,13 @@
         <v>1062000</v>
       </c>
       <c r="N18">
-        <v>28246759000</v>
+        <v>21706505800</v>
       </c>
       <c r="O18">
         <v>5783000</v>
       </c>
       <c r="P18">
-        <v>106477123000</v>
+        <v>89817499300</v>
       </c>
     </row>
     <row r="19">
@@ -1316,25 +1316,25 @@
         <v>50800</v>
       </c>
       <c r="E19">
-        <v>54539068000</v>
+        <v>50168642800</v>
       </c>
       <c r="F19">
-        <v>57955063000</v>
+        <v>52173350500</v>
       </c>
       <c r="G19">
-        <v>1175386000</v>
+        <v>883678000</v>
       </c>
       <c r="H19">
         <v>5676600</v>
       </c>
       <c r="I19">
-        <v>113669517000</v>
+        <v>103225671300</v>
       </c>
       <c r="J19" t="str">
         <v>2022-12-12T09:46:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1875059536000</v>
+        <v>1683043644100</v>
       </c>
       <c r="L19">
         <v>108827800</v>
@@ -1343,13 +1343,13 @@
         <v>64800</v>
       </c>
       <c r="N19">
-        <v>3415995000</v>
+        <v>2004707700</v>
       </c>
       <c r="O19">
         <v>5847800</v>
       </c>
       <c r="P19">
-        <v>109893118000</v>
+        <v>91822207000</v>
       </c>
     </row>
     <row r="20">
@@ -1366,25 +1366,25 @@
         <v>24900</v>
       </c>
       <c r="E20">
-        <v>41889510000</v>
+        <v>39653947800</v>
       </c>
       <c r="F20">
-        <v>44909896000</v>
+        <v>41890018900</v>
       </c>
       <c r="G20">
-        <v>1013122000</v>
+        <v>954980200</v>
       </c>
       <c r="H20">
         <v>4830100</v>
       </c>
       <c r="I20">
-        <v>87812528000</v>
+        <v>82498946900</v>
       </c>
       <c r="J20" t="str">
         <v>2022-12-12T09:48:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1962872064000</v>
+        <v>1765542591000</v>
       </c>
       <c r="L20">
         <v>113657900</v>
@@ -1393,13 +1393,13 @@
         <v>314000</v>
       </c>
       <c r="N20">
-        <v>3020386000</v>
+        <v>2236071100</v>
       </c>
       <c r="O20">
         <v>6161800</v>
       </c>
       <c r="P20">
-        <v>112913504000</v>
+        <v>94058278100</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>29000</v>
       </c>
       <c r="E21">
-        <v>47205656000</v>
+        <v>35382391100</v>
       </c>
       <c r="F21">
-        <v>41468187000</v>
+        <v>34783178700</v>
       </c>
       <c r="G21">
         <v>395187000</v>
@@ -1428,13 +1428,13 @@
         <v>4420800</v>
       </c>
       <c r="I21">
-        <v>89069030000</v>
+        <v>70560756800</v>
       </c>
       <c r="J21" t="str">
         <v>2022-12-12T09:50:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2051941094000</v>
+        <v>1836103347800</v>
       </c>
       <c r="L21">
         <v>118078700</v>
@@ -1443,13 +1443,13 @@
         <v>16400</v>
       </c>
       <c r="N21">
-        <v>-5737469000</v>
+        <v>-599212400</v>
       </c>
       <c r="O21">
         <v>6178200</v>
       </c>
       <c r="P21">
-        <v>107176035000</v>
+        <v>93459065700</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>34000</v>
       </c>
       <c r="E22">
-        <v>57283675000</v>
+        <v>50579785600</v>
       </c>
       <c r="F22">
-        <v>51855022000</v>
+        <v>46806375700</v>
       </c>
       <c r="G22">
         <v>343647000</v>
@@ -1478,13 +1478,13 @@
         <v>6146400</v>
       </c>
       <c r="I22">
-        <v>109482344000</v>
+        <v>97729808300</v>
       </c>
       <c r="J22" t="str">
         <v>2022-12-12T09:52:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2161423438000</v>
+        <v>1933833156100</v>
       </c>
       <c r="L22">
         <v>124225100</v>
@@ -1493,13 +1493,13 @@
         <v>-594400</v>
       </c>
       <c r="N22">
-        <v>-5428653000</v>
+        <v>-3773409900</v>
       </c>
       <c r="O22">
         <v>5583800</v>
       </c>
       <c r="P22">
-        <v>101747382000</v>
+        <v>89685655800</v>
       </c>
     </row>
     <row r="23">
@@ -1516,25 +1516,25 @@
         <v>21600</v>
       </c>
       <c r="E23">
-        <v>42552703000</v>
+        <v>40773384100</v>
       </c>
       <c r="F23">
-        <v>33814526000</v>
+        <v>29122023200</v>
       </c>
       <c r="G23">
-        <v>408084000</v>
+        <v>181311000</v>
       </c>
       <c r="H23">
         <v>4108100</v>
       </c>
       <c r="I23">
-        <v>76775313000</v>
+        <v>70076718300</v>
       </c>
       <c r="J23" t="str">
         <v>2022-12-12T09:54:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2238198751000</v>
+        <v>2003909874400</v>
       </c>
       <c r="L23">
         <v>128333200</v>
@@ -1543,13 +1543,13 @@
         <v>-411900</v>
       </c>
       <c r="N23">
-        <v>-8738177000</v>
+        <v>-11651360900</v>
       </c>
       <c r="O23">
         <v>5171900</v>
       </c>
       <c r="P23">
-        <v>93009205000</v>
+        <v>78034294900</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>12500</v>
       </c>
       <c r="E24">
-        <v>45218820000</v>
+        <v>43606134300</v>
       </c>
       <c r="F24">
-        <v>38549646000</v>
+        <v>34930968300</v>
       </c>
       <c r="G24">
         <v>441705000</v>
@@ -1578,13 +1578,13 @@
         <v>4982600</v>
       </c>
       <c r="I24">
-        <v>84210171000</v>
+        <v>78978807600</v>
       </c>
       <c r="J24" t="str">
         <v>2022-12-12T09:56:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2322408922000</v>
+        <v>2082888682000</v>
       </c>
       <c r="L24">
         <v>133315800</v>
@@ -1593,13 +1593,13 @@
         <v>-590100</v>
       </c>
       <c r="N24">
-        <v>-6669174000</v>
+        <v>-8675166000</v>
       </c>
       <c r="O24">
         <v>4581800</v>
       </c>
       <c r="P24">
-        <v>86340031000</v>
+        <v>69359128900</v>
       </c>
     </row>
     <row r="25">
@@ -1616,25 +1616,25 @@
         <v>41100</v>
       </c>
       <c r="E25">
-        <v>37627606000</v>
+        <v>36494839900</v>
       </c>
       <c r="F25">
-        <v>59560809000</v>
+        <v>53426849100</v>
       </c>
       <c r="G25">
-        <v>387079000</v>
+        <v>235131100</v>
       </c>
       <c r="H25">
         <v>4899900</v>
       </c>
       <c r="I25">
-        <v>97575494000</v>
+        <v>90156820100</v>
       </c>
       <c r="J25" t="str">
         <v>2022-12-12T09:58:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2419984416000</v>
+        <v>2173045502100</v>
       </c>
       <c r="L25">
         <v>138215700</v>
@@ -1643,13 +1643,13 @@
         <v>476400</v>
       </c>
       <c r="N25">
-        <v>21933203000</v>
+        <v>16932009200</v>
       </c>
       <c r="O25">
         <v>5058200</v>
       </c>
       <c r="P25">
-        <v>108273234000</v>
+        <v>86291138100</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>7100</v>
       </c>
       <c r="E26">
-        <v>32135535000</v>
+        <v>29633939100</v>
       </c>
       <c r="F26">
-        <v>46190399000</v>
+        <v>45082607900</v>
       </c>
       <c r="G26">
         <v>218610000</v>
@@ -1678,13 +1678,13 @@
         <v>4573100</v>
       </c>
       <c r="I26">
-        <v>78544544000</v>
+        <v>74935157000</v>
       </c>
       <c r="J26" t="str">
         <v>2022-12-12T10:00:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2498528960000</v>
+        <v>2247980659100</v>
       </c>
       <c r="L26">
         <v>142788800</v>
@@ -1693,13 +1693,13 @@
         <v>1290200</v>
       </c>
       <c r="N26">
-        <v>14054864000</v>
+        <v>15448668800</v>
       </c>
       <c r="O26">
         <v>6348400</v>
       </c>
       <c r="P26">
-        <v>122328098000</v>
+        <v>101739806900</v>
       </c>
     </row>
     <row r="27">
@@ -1716,25 +1716,25 @@
         <v>15100</v>
       </c>
       <c r="E27">
-        <v>26654088000</v>
+        <v>24004540200</v>
       </c>
       <c r="F27">
-        <v>51988532000</v>
+        <v>37132203200</v>
       </c>
       <c r="G27">
-        <v>385740000</v>
+        <v>358966800</v>
       </c>
       <c r="H27">
         <v>4869700</v>
       </c>
       <c r="I27">
-        <v>79028360000</v>
+        <v>61495710200</v>
       </c>
       <c r="J27" t="str">
         <v>2022-12-12T10:02:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2577557320000</v>
+        <v>2309476369300</v>
       </c>
       <c r="L27">
         <v>147658500</v>
@@ -1743,13 +1743,13 @@
         <v>2035400</v>
       </c>
       <c r="N27">
-        <v>25334444000</v>
+        <v>13127663000</v>
       </c>
       <c r="O27">
         <v>8383800</v>
       </c>
       <c r="P27">
-        <v>147662542000</v>
+        <v>114867469900</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>5000</v>
       </c>
       <c r="E28">
-        <v>38165375000</v>
+        <v>34612931000</v>
       </c>
       <c r="F28">
-        <v>45466683000</v>
+        <v>42107945100</v>
       </c>
       <c r="G28">
         <v>178949000</v>
@@ -1778,13 +1778,13 @@
         <v>4988700</v>
       </c>
       <c r="I28">
-        <v>83811007000</v>
+        <v>76899825100</v>
       </c>
       <c r="J28" t="str">
         <v>2022-12-12T10:04:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2661368327000</v>
+        <v>2386376194400</v>
       </c>
       <c r="L28">
         <v>152647200</v>
@@ -1793,13 +1793,13 @@
         <v>882100</v>
       </c>
       <c r="N28">
-        <v>7301308000</v>
+        <v>7495014100</v>
       </c>
       <c r="O28">
         <v>9265900</v>
       </c>
       <c r="P28">
-        <v>154963850000</v>
+        <v>122362484000</v>
       </c>
     </row>
     <row r="29">
@@ -1816,25 +1816,25 @@
         <v>30900</v>
       </c>
       <c r="E29">
-        <v>27999224000</v>
+        <v>26431093700</v>
       </c>
       <c r="F29">
-        <v>67902925000</v>
+        <v>62255578000</v>
       </c>
       <c r="G29">
-        <v>754557000</v>
+        <v>669941700</v>
       </c>
       <c r="H29">
         <v>5281200</v>
       </c>
       <c r="I29">
-        <v>96656706000</v>
+        <v>89356613400</v>
       </c>
       <c r="J29" t="str">
         <v>2022-12-12T10:06:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2758025033000</v>
+        <v>2475732807800</v>
       </c>
       <c r="L29">
         <v>157928400</v>
@@ -1843,13 +1843,13 @@
         <v>1685300</v>
       </c>
       <c r="N29">
-        <v>39903701000</v>
+        <v>35824484300</v>
       </c>
       <c r="O29">
         <v>10951200</v>
       </c>
       <c r="P29">
-        <v>194867551000</v>
+        <v>158186968300</v>
       </c>
     </row>
     <row r="30">
@@ -1866,25 +1866,25 @@
         <v>66900</v>
       </c>
       <c r="E30">
-        <v>34774592000</v>
+        <v>31959110300</v>
       </c>
       <c r="F30">
-        <v>95896483000</v>
+        <v>84007683700</v>
       </c>
       <c r="G30">
-        <v>2066175000</v>
+        <v>1639801800</v>
       </c>
       <c r="H30">
         <v>7794100</v>
       </c>
       <c r="I30">
-        <v>132737250000</v>
+        <v>117606595800</v>
       </c>
       <c r="J30" t="str">
         <v>2022-12-12T10:08:00.000Z</v>
       </c>
       <c r="K30">
-        <v>2890762283000</v>
+        <v>2593339403600</v>
       </c>
       <c r="L30">
         <v>165722500</v>
@@ -1893,13 +1893,13 @@
         <v>3388400</v>
       </c>
       <c r="N30">
-        <v>61121891000</v>
+        <v>52048573400</v>
       </c>
       <c r="O30">
         <v>14339600</v>
       </c>
       <c r="P30">
-        <v>255989442000</v>
+        <v>210235541700</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>57900</v>
       </c>
       <c r="E31">
-        <v>32503110000</v>
+        <v>31345968300</v>
       </c>
       <c r="F31">
-        <v>97583961000</v>
+        <v>93749898900</v>
       </c>
       <c r="G31">
         <v>954829000</v>
@@ -1928,13 +1928,13 @@
         <v>7664500</v>
       </c>
       <c r="I31">
-        <v>131041900000</v>
+        <v>126050696200</v>
       </c>
       <c r="J31" t="str">
         <v>2022-12-12T10:10:00.000Z</v>
       </c>
       <c r="K31">
-        <v>3021804183000</v>
+        <v>2719390099800</v>
       </c>
       <c r="L31">
         <v>173387000</v>
@@ -1943,13 +1943,13 @@
         <v>3789400</v>
       </c>
       <c r="N31">
-        <v>65080851000</v>
+        <v>62403930600</v>
       </c>
       <c r="O31">
         <v>18129000</v>
       </c>
       <c r="P31">
-        <v>321070293000</v>
+        <v>272639472300</v>
       </c>
     </row>
     <row r="32">
@@ -1966,25 +1966,25 @@
         <v>22000</v>
       </c>
       <c r="E32">
-        <v>53952115000</v>
+        <v>51435134500</v>
       </c>
       <c r="F32">
-        <v>56549942000</v>
+        <v>53344450700</v>
       </c>
       <c r="G32">
-        <v>373935000</v>
+        <v>86722500</v>
       </c>
       <c r="H32">
         <v>6147700</v>
       </c>
       <c r="I32">
-        <v>110875992000</v>
+        <v>104866307700</v>
       </c>
       <c r="J32" t="str">
         <v>2022-12-12T10:12:00.000Z</v>
       </c>
       <c r="K32">
-        <v>3132680175000</v>
+        <v>2824256407500</v>
       </c>
       <c r="L32">
         <v>179534700</v>
@@ -1993,13 +1993,13 @@
         <v>297700</v>
       </c>
       <c r="N32">
-        <v>2597827000</v>
+        <v>1909316200</v>
       </c>
       <c r="O32">
         <v>18426700</v>
       </c>
       <c r="P32">
-        <v>323668120000</v>
+        <v>274548788500</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>1200</v>
       </c>
       <c r="E33">
-        <v>38344902000</v>
+        <v>35533915800</v>
       </c>
       <c r="F33">
-        <v>29288095000</v>
+        <v>25474812100</v>
       </c>
       <c r="G33">
         <v>24235000</v>
@@ -2028,13 +2028,13 @@
         <v>4116800</v>
       </c>
       <c r="I33">
-        <v>67657232000</v>
+        <v>61032962900</v>
       </c>
       <c r="J33" t="str">
         <v>2022-12-12T10:14:00.000Z</v>
       </c>
       <c r="K33">
-        <v>3200337407000</v>
+        <v>2885289370400</v>
       </c>
       <c r="L33">
         <v>183651500</v>
@@ -2043,13 +2043,13 @@
         <v>-843400</v>
       </c>
       <c r="N33">
-        <v>-9056807000</v>
+        <v>-10059103700</v>
       </c>
       <c r="O33">
         <v>17583300</v>
       </c>
       <c r="P33">
-        <v>314611313000</v>
+        <v>264489684800</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>11600</v>
       </c>
       <c r="E34">
-        <v>27927500000</v>
+        <v>26975153300</v>
       </c>
       <c r="F34">
-        <v>22970124000</v>
+        <v>22616977500</v>
       </c>
       <c r="G34">
         <v>164517000</v>
@@ -2078,13 +2078,13 @@
         <v>2934200</v>
       </c>
       <c r="I34">
-        <v>51062141000</v>
+        <v>49756647800</v>
       </c>
       <c r="J34" t="str">
         <v>2022-12-12T10:16:00.000Z</v>
       </c>
       <c r="K34">
-        <v>3251399548000</v>
+        <v>2935046018200</v>
       </c>
       <c r="L34">
         <v>186585700</v>
@@ -2093,13 +2093,13 @@
         <v>-103200</v>
       </c>
       <c r="N34">
-        <v>-4957376000</v>
+        <v>-4358175800</v>
       </c>
       <c r="O34">
         <v>17480100</v>
       </c>
       <c r="P34">
-        <v>309653937000</v>
+        <v>260131509000</v>
       </c>
     </row>
     <row r="35">
@@ -2116,25 +2116,25 @@
         <v>7800</v>
       </c>
       <c r="E35">
-        <v>34969746000</v>
+        <v>32025493200</v>
       </c>
       <c r="F35">
-        <v>36498795000</v>
+        <v>36156637500</v>
       </c>
       <c r="G35">
-        <v>240027000</v>
+        <v>237030000</v>
       </c>
       <c r="H35">
         <v>3816000</v>
       </c>
       <c r="I35">
-        <v>71708568000</v>
+        <v>68419160700</v>
       </c>
       <c r="J35" t="str">
         <v>2022-12-12T10:18:00.000Z</v>
       </c>
       <c r="K35">
-        <v>3323108116000</v>
+        <v>3003465178900</v>
       </c>
       <c r="L35">
         <v>190401700</v>
@@ -2143,13 +2143,13 @@
         <v>-5200</v>
       </c>
       <c r="N35">
-        <v>1529049000</v>
+        <v>4131144300</v>
       </c>
       <c r="O35">
         <v>17474900</v>
       </c>
       <c r="P35">
-        <v>311182986000</v>
+        <v>264262653300</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>1800</v>
       </c>
       <c r="E36">
-        <v>21562385000</v>
+        <v>20571676700</v>
       </c>
       <c r="F36">
-        <v>28970728000</v>
+        <v>26775725200</v>
       </c>
       <c r="G36">
         <v>11455000</v>
@@ -2178,13 +2178,13 @@
         <v>2859500</v>
       </c>
       <c r="I36">
-        <v>50544568000</v>
+        <v>47358856900</v>
       </c>
       <c r="J36" t="str">
         <v>2022-12-12T10:20:00.000Z</v>
       </c>
       <c r="K36">
-        <v>3373652684000</v>
+        <v>3050824035800</v>
       </c>
       <c r="L36">
         <v>193261200</v>
@@ -2193,13 +2193,13 @@
         <v>213700</v>
       </c>
       <c r="N36">
-        <v>7408343000</v>
+        <v>6204048500</v>
       </c>
       <c r="O36">
         <v>17688600</v>
       </c>
       <c r="P36">
-        <v>318591329000</v>
+        <v>270466701800</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>34700</v>
       </c>
       <c r="E37">
-        <v>23055817000</v>
+        <v>20893481500</v>
       </c>
       <c r="F37">
-        <v>21406556000</v>
+        <v>20706257000</v>
       </c>
       <c r="G37">
         <v>399334000</v>
@@ -2228,13 +2228,13 @@
         <v>2686800</v>
       </c>
       <c r="I37">
-        <v>44861707000</v>
+        <v>41999072500</v>
       </c>
       <c r="J37" t="str">
         <v>2022-12-12T10:22:00.000Z</v>
       </c>
       <c r="K37">
-        <v>3418514391000</v>
+        <v>3092823108300</v>
       </c>
       <c r="L37">
         <v>195948000</v>
@@ -2243,13 +2243,13 @@
         <v>-311100</v>
       </c>
       <c r="N37">
-        <v>-1649261000</v>
+        <v>-187224500</v>
       </c>
       <c r="O37">
         <v>17377500</v>
       </c>
       <c r="P37">
-        <v>316942068000</v>
+        <v>270279477300</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>6100</v>
       </c>
       <c r="E38">
-        <v>29041055000</v>
+        <v>27989607500</v>
       </c>
       <c r="F38">
-        <v>39183286000</v>
+        <v>37124946400</v>
       </c>
       <c r="G38">
         <v>99212000</v>
@@ -2278,13 +2278,13 @@
         <v>3758200</v>
       </c>
       <c r="I38">
-        <v>68323553000</v>
+        <v>65213765900</v>
       </c>
       <c r="J38" t="str">
         <v>2022-12-12T10:24:00.000Z</v>
       </c>
       <c r="K38">
-        <v>3486837944000</v>
+        <v>3158036874200</v>
       </c>
       <c r="L38">
         <v>199706200</v>
@@ -2293,13 +2293,13 @@
         <v>-10700</v>
       </c>
       <c r="N38">
-        <v>10142231000</v>
+        <v>9135338900</v>
       </c>
       <c r="O38">
         <v>17366800</v>
       </c>
       <c r="P38">
-        <v>327084299000</v>
+        <v>279414816200</v>
       </c>
     </row>
     <row r="39">
@@ -2316,25 +2316,25 @@
         <v>8400</v>
       </c>
       <c r="E39">
-        <v>21833048000</v>
+        <v>20618663600</v>
       </c>
       <c r="F39">
-        <v>50086245000</v>
+        <v>42638899800</v>
       </c>
       <c r="G39">
-        <v>168230000</v>
+        <v>72326000</v>
       </c>
       <c r="H39">
         <v>3978600</v>
       </c>
       <c r="I39">
-        <v>72087523000</v>
+        <v>63329889400</v>
       </c>
       <c r="J39" t="str">
         <v>2022-12-12T10:26:00.000Z</v>
       </c>
       <c r="K39">
-        <v>3558925467000</v>
+        <v>3221366763600</v>
       </c>
       <c r="L39">
         <v>203684800</v>
@@ -2343,13 +2343,13 @@
         <v>1176400</v>
       </c>
       <c r="N39">
-        <v>28253197000</v>
+        <v>22020236200</v>
       </c>
       <c r="O39">
         <v>18543200</v>
       </c>
       <c r="P39">
-        <v>355337496000</v>
+        <v>301435052400</v>
       </c>
     </row>
     <row r="40">
@@ -2366,25 +2366,25 @@
         <v>21100</v>
       </c>
       <c r="E40">
-        <v>17887568000</v>
+        <v>16619337500</v>
       </c>
       <c r="F40">
-        <v>56115671000</v>
+        <v>54059129600</v>
       </c>
       <c r="G40">
-        <v>476195000</v>
+        <v>442229000</v>
       </c>
       <c r="H40">
         <v>4245500</v>
       </c>
       <c r="I40">
-        <v>74479434000</v>
+        <v>71120696100</v>
       </c>
       <c r="J40" t="str">
         <v>2022-12-12T10:28:00.000Z</v>
       </c>
       <c r="K40">
-        <v>3633404901000</v>
+        <v>3292487459700</v>
       </c>
       <c r="L40">
         <v>207930300</v>
@@ -2393,13 +2393,13 @@
         <v>2331600</v>
       </c>
       <c r="N40">
-        <v>38228103000</v>
+        <v>37439792100</v>
       </c>
       <c r="O40">
         <v>20874800</v>
       </c>
       <c r="P40">
-        <v>393565599000</v>
+        <v>338874844500</v>
       </c>
     </row>
     <row r="41">
@@ -2416,25 +2416,25 @@
         <v>23000</v>
       </c>
       <c r="E41">
-        <v>24146919000</v>
+        <v>23131535400</v>
       </c>
       <c r="F41">
-        <v>68096098000</v>
+        <v>66834560800</v>
       </c>
       <c r="G41">
-        <v>342636000</v>
+        <v>340638000</v>
       </c>
       <c r="H41">
         <v>4953500</v>
       </c>
       <c r="I41">
-        <v>92585653000</v>
+        <v>90306734200</v>
       </c>
       <c r="J41" t="str">
         <v>2022-12-12T10:30:00.000Z</v>
       </c>
       <c r="K41">
-        <v>3725990554000</v>
+        <v>3382794193900</v>
       </c>
       <c r="L41">
         <v>212883800</v>
@@ -2443,13 +2443,13 @@
         <v>2069700</v>
       </c>
       <c r="N41">
-        <v>43949179000</v>
+        <v>43703025400</v>
       </c>
       <c r="O41">
         <v>22944500</v>
       </c>
       <c r="P41">
-        <v>437514778000</v>
+        <v>382577869900</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>4100</v>
       </c>
       <c r="E42">
-        <v>21109385000</v>
+        <v>20958136400</v>
       </c>
       <c r="F42">
-        <v>63002139000</v>
+        <v>61865277000</v>
       </c>
       <c r="G42">
         <v>109500000</v>
@@ -2478,13 +2478,13 @@
         <v>4598000</v>
       </c>
       <c r="I42">
-        <v>84221024000</v>
+        <v>82932913400</v>
       </c>
       <c r="J42" t="str">
         <v>2022-12-12T10:32:00.000Z</v>
       </c>
       <c r="K42">
-        <v>3810211578000</v>
+        <v>3465727107300</v>
       </c>
       <c r="L42">
         <v>217481800</v>
@@ -2493,13 +2493,13 @@
         <v>2538500</v>
       </c>
       <c r="N42">
-        <v>41892754000</v>
+        <v>40907140600</v>
       </c>
       <c r="O42">
         <v>25483000</v>
       </c>
       <c r="P42">
-        <v>479407532000</v>
+        <v>423485010500</v>
       </c>
     </row>
     <row r="43">
@@ -2516,25 +2516,25 @@
         <v>3900</v>
       </c>
       <c r="E43">
-        <v>25806530000</v>
+        <v>25394542400</v>
       </c>
       <c r="F43">
-        <v>60582743000</v>
+        <v>56567961800</v>
       </c>
       <c r="G43">
-        <v>56485000</v>
+        <v>50990500</v>
       </c>
       <c r="H43">
         <v>4553200</v>
       </c>
       <c r="I43">
-        <v>86445758000</v>
+        <v>82013494700</v>
       </c>
       <c r="J43" t="str">
         <v>2022-12-12T10:34:00.000Z</v>
       </c>
       <c r="K43">
-        <v>3896657336000</v>
+        <v>3547740602000</v>
       </c>
       <c r="L43">
         <v>222035000</v>
@@ -2543,13 +2543,13 @@
         <v>1759500</v>
       </c>
       <c r="N43">
-        <v>34776213000</v>
+        <v>31173419400</v>
       </c>
       <c r="O43">
         <v>27242500</v>
       </c>
       <c r="P43">
-        <v>514183745000</v>
+        <v>454658429900</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>20800</v>
       </c>
       <c r="E44">
-        <v>29463810000</v>
+        <v>27968207100</v>
       </c>
       <c r="F44">
-        <v>110657713000</v>
+        <v>104654921800</v>
       </c>
       <c r="G44">
         <v>192126000</v>
@@ -2578,13 +2578,13 @@
         <v>7963100</v>
       </c>
       <c r="I44">
-        <v>140313649000</v>
+        <v>132815254900</v>
       </c>
       <c r="J44" t="str">
         <v>2022-12-12T10:36:00.000Z</v>
       </c>
       <c r="K44">
-        <v>4036970985000</v>
+        <v>3680555856900</v>
       </c>
       <c r="L44">
         <v>229998100</v>
@@ -2593,13 +2593,13 @@
         <v>4671900</v>
       </c>
       <c r="N44">
-        <v>81193903000</v>
+        <v>76686714700</v>
       </c>
       <c r="O44">
         <v>31914400</v>
       </c>
       <c r="P44">
-        <v>595377648000</v>
+        <v>531345144600</v>
       </c>
     </row>
     <row r="45">
@@ -2616,25 +2616,25 @@
         <v>17700</v>
       </c>
       <c r="E45">
-        <v>31645450000</v>
+        <v>27405494200</v>
       </c>
       <c r="F45">
-        <v>72933826000</v>
+        <v>66961404400</v>
       </c>
       <c r="G45">
-        <v>272220000</v>
+        <v>263029200</v>
       </c>
       <c r="H45">
         <v>5698000</v>
       </c>
       <c r="I45">
-        <v>104851496000</v>
+        <v>94629927800</v>
       </c>
       <c r="J45" t="str">
         <v>2022-12-12T10:38:00.000Z</v>
       </c>
       <c r="K45">
-        <v>4141822481000</v>
+        <v>3775185784700</v>
       </c>
       <c r="L45">
         <v>235696100</v>
@@ -2643,13 +2643,13 @@
         <v>2459900</v>
       </c>
       <c r="N45">
-        <v>41288376000</v>
+        <v>39555910200</v>
       </c>
       <c r="O45">
         <v>34374300</v>
       </c>
       <c r="P45">
-        <v>636666024000</v>
+        <v>570901054800</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>3600</v>
       </c>
       <c r="E46">
-        <v>25976231000</v>
+        <v>20740771700</v>
       </c>
       <c r="F46">
-        <v>66755916000</v>
+        <v>60597081000</v>
       </c>
       <c r="G46">
         <v>48456000</v>
@@ -2678,13 +2678,13 @@
         <v>5501600</v>
       </c>
       <c r="I46">
-        <v>92780603000</v>
+        <v>81386308700</v>
       </c>
       <c r="J46" t="str">
         <v>2022-12-12T10:40:00.000Z</v>
       </c>
       <c r="K46">
-        <v>4234603084000</v>
+        <v>3856572093400</v>
       </c>
       <c r="L46">
         <v>241197700</v>
@@ -2693,13 +2693,13 @@
         <v>2731800</v>
       </c>
       <c r="N46">
-        <v>40779685000</v>
+        <v>39856309300</v>
       </c>
       <c r="O46">
         <v>37106100</v>
       </c>
       <c r="P46">
-        <v>677445709000</v>
+        <v>610757364100</v>
       </c>
     </row>
     <row r="47">
@@ -2716,25 +2716,25 @@
         <v>9600</v>
       </c>
       <c r="E47">
-        <v>29853417000</v>
+        <v>27181291800</v>
       </c>
       <c r="F47">
-        <v>52424001000</v>
+        <v>39043395000</v>
       </c>
       <c r="G47">
-        <v>139349000</v>
+        <v>94993400</v>
       </c>
       <c r="H47">
         <v>5149800</v>
       </c>
       <c r="I47">
-        <v>82416767000</v>
+        <v>66319680200</v>
       </c>
       <c r="J47" t="str">
         <v>2022-12-12T10:42:00.000Z</v>
       </c>
       <c r="K47">
-        <v>4317019851000</v>
+        <v>3922891773600</v>
       </c>
       <c r="L47">
         <v>246347500</v>
@@ -2743,13 +2743,13 @@
         <v>1488800</v>
       </c>
       <c r="N47">
-        <v>22570584000</v>
+        <v>11862103200</v>
       </c>
       <c r="O47">
         <v>38594900</v>
       </c>
       <c r="P47">
-        <v>700016293000</v>
+        <v>622619467300</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>39800</v>
       </c>
       <c r="E48">
-        <v>46151998000</v>
+        <v>44086665400</v>
       </c>
       <c r="F48">
-        <v>34593122000</v>
+        <v>34107208400</v>
       </c>
       <c r="G48">
         <v>710352000</v>
@@ -2778,13 +2778,13 @@
         <v>4799500</v>
       </c>
       <c r="I48">
-        <v>81455472000</v>
+        <v>78904225800</v>
       </c>
       <c r="J48" t="str">
         <v>2022-12-12T10:44:00.000Z</v>
       </c>
       <c r="K48">
-        <v>4398475323000</v>
+        <v>4001795999400</v>
       </c>
       <c r="L48">
         <v>251147000</v>
@@ -2793,13 +2793,13 @@
         <v>-708700</v>
       </c>
       <c r="N48">
-        <v>-11558876000</v>
+        <v>-9979457000</v>
       </c>
       <c r="O48">
         <v>37886200</v>
       </c>
       <c r="P48">
-        <v>688457417000</v>
+        <v>612640010300</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>7500</v>
       </c>
       <c r="E49">
-        <v>28493732000</v>
+        <v>25049180000</v>
       </c>
       <c r="F49">
-        <v>36850755000</v>
+        <v>32138372100</v>
       </c>
       <c r="G49">
         <v>151908000</v>
@@ -2828,13 +2828,13 @@
         <v>3581800</v>
       </c>
       <c r="I49">
-        <v>65496395000</v>
+        <v>57339460100</v>
       </c>
       <c r="J49" t="str">
         <v>2022-12-12T10:46:00.000Z</v>
       </c>
       <c r="K49">
-        <v>4463971718000</v>
+        <v>4059135459500</v>
       </c>
       <c r="L49">
         <v>254728800</v>
@@ -2843,13 +2843,13 @@
         <v>-66500</v>
       </c>
       <c r="N49">
-        <v>8357023000</v>
+        <v>7089192100</v>
       </c>
       <c r="O49">
         <v>37819700</v>
       </c>
       <c r="P49">
-        <v>696814440000</v>
+        <v>619729202400</v>
       </c>
     </row>
     <row r="50">
@@ -2866,25 +2866,25 @@
         <v>26600</v>
       </c>
       <c r="E50">
-        <v>38800765000</v>
+        <v>37085581900</v>
       </c>
       <c r="F50">
-        <v>23752161000</v>
+        <v>21266549100</v>
       </c>
       <c r="G50">
-        <v>404831000</v>
+        <v>355280600</v>
       </c>
       <c r="H50">
         <v>3611000</v>
       </c>
       <c r="I50">
-        <v>62957757000</v>
+        <v>58707411600</v>
       </c>
       <c r="J50" t="str">
         <v>2022-12-12T10:48:00.000Z</v>
       </c>
       <c r="K50">
-        <v>4526929475000</v>
+        <v>4117842871100</v>
       </c>
       <c r="L50">
         <v>258339800</v>
@@ -2893,13 +2893,13 @@
         <v>-1054600</v>
       </c>
       <c r="N50">
-        <v>-15048604000</v>
+        <v>-15819032800</v>
       </c>
       <c r="O50">
         <v>36765100</v>
       </c>
       <c r="P50">
-        <v>681765836000</v>
+        <v>603910169600</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>142400</v>
       </c>
       <c r="E51">
-        <v>24916596000</v>
+        <v>23862051600</v>
       </c>
       <c r="F51">
-        <v>25960614000</v>
+        <v>23411365800</v>
       </c>
       <c r="G51">
         <v>2991189000</v>
@@ -2928,13 +2928,13 @@
         <v>2985500</v>
       </c>
       <c r="I51">
-        <v>53868399000</v>
+        <v>50264606400</v>
       </c>
       <c r="J51" t="str">
         <v>2022-12-12T10:50:00.000Z</v>
       </c>
       <c r="K51">
-        <v>4580797874000</v>
+        <v>4168107477500</v>
       </c>
       <c r="L51">
         <v>261325300</v>
@@ -2943,13 +2943,13 @@
         <v>-277900</v>
       </c>
       <c r="N51">
-        <v>1044018000</v>
+        <v>-450685800</v>
       </c>
       <c r="O51">
         <v>36487200</v>
       </c>
       <c r="P51">
-        <v>682809854000</v>
+        <v>603459483800</v>
       </c>
     </row>
     <row r="52">
@@ -2966,25 +2966,25 @@
         <v>5400</v>
       </c>
       <c r="E52">
-        <v>30974174000</v>
+        <v>21517939700</v>
       </c>
       <c r="F52">
-        <v>42650583000</v>
+        <v>38459977800</v>
       </c>
       <c r="G52">
-        <v>118675000</v>
+        <v>116776900</v>
       </c>
       <c r="H52">
         <v>3968600</v>
       </c>
       <c r="I52">
-        <v>73743432000</v>
+        <v>60094694400</v>
       </c>
       <c r="J52" t="str">
         <v>2022-12-12T10:52:00.000Z</v>
       </c>
       <c r="K52">
-        <v>4654541306000</v>
+        <v>4228202171900</v>
       </c>
       <c r="L52">
         <v>265293900</v>
@@ -2993,13 +2993,13 @@
         <v>-67000</v>
       </c>
       <c r="N52">
-        <v>11676409000</v>
+        <v>16942038100</v>
       </c>
       <c r="O52">
         <v>36420200</v>
       </c>
       <c r="P52">
-        <v>694486263000</v>
+        <v>620401521900</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>9700</v>
       </c>
       <c r="E53">
-        <v>20321185000</v>
+        <v>18281626600</v>
       </c>
       <c r="F53">
-        <v>57057940000</v>
+        <v>51465138400</v>
       </c>
       <c r="G53">
         <v>313420000</v>
@@ -3028,13 +3028,13 @@
         <v>4063500</v>
       </c>
       <c r="I53">
-        <v>77692545000</v>
+        <v>70060185000</v>
       </c>
       <c r="J53" t="str">
         <v>2022-12-12T10:54:00.000Z</v>
       </c>
       <c r="K53">
-        <v>4732233851000</v>
+        <v>4298262356900</v>
       </c>
       <c r="L53">
         <v>269357400</v>
@@ -3043,13 +3043,13 @@
         <v>1787600</v>
       </c>
       <c r="N53">
-        <v>36736755000</v>
+        <v>33183511800</v>
       </c>
       <c r="O53">
         <v>38207800</v>
       </c>
       <c r="P53">
-        <v>731223018000</v>
+        <v>653585033700</v>
       </c>
     </row>
     <row r="54">
@@ -3066,25 +3066,25 @@
         <v>14500</v>
       </c>
       <c r="E54">
-        <v>15707375000</v>
+        <v>12140445500</v>
       </c>
       <c r="F54">
-        <v>54888562000</v>
+        <v>48827429200</v>
       </c>
       <c r="G54">
-        <v>261555000.00000003</v>
+        <v>256160400.00000003</v>
       </c>
       <c r="H54">
         <v>3443100</v>
       </c>
       <c r="I54">
-        <v>70857492000</v>
+        <v>61224035100</v>
       </c>
       <c r="J54" t="str">
         <v>2022-12-12T10:56:00.000Z</v>
       </c>
       <c r="K54">
-        <v>4803091343000</v>
+        <v>4359486392000</v>
       </c>
       <c r="L54">
         <v>272800500</v>
@@ -3093,13 +3093,13 @@
         <v>1854200</v>
       </c>
       <c r="N54">
-        <v>39181187000</v>
+        <v>36686983700</v>
       </c>
       <c r="O54">
         <v>40062000</v>
       </c>
       <c r="P54">
-        <v>770404205000</v>
+        <v>690272017400</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>22600</v>
       </c>
       <c r="E55">
-        <v>28825572000</v>
+        <v>27762236400</v>
       </c>
       <c r="F55">
-        <v>36246191000</v>
+        <v>30835607000</v>
       </c>
       <c r="G55">
         <v>156706000</v>
@@ -3128,13 +3128,13 @@
         <v>3704100</v>
       </c>
       <c r="I55">
-        <v>65228469000</v>
+        <v>58754549400</v>
       </c>
       <c r="J55" t="str">
         <v>2022-12-12T10:58:00.000Z</v>
       </c>
       <c r="K55">
-        <v>4868319812000</v>
+        <v>4418240941400</v>
       </c>
       <c r="L55">
         <v>276504600</v>
@@ -3143,13 +3143,13 @@
         <v>443900</v>
       </c>
       <c r="N55">
-        <v>7420619000</v>
+        <v>3073370600</v>
       </c>
       <c r="O55">
         <v>40505900</v>
       </c>
       <c r="P55">
-        <v>777824824000</v>
+        <v>693345388000</v>
       </c>
     </row>
     <row r="56">
@@ -3166,25 +3166,25 @@
         <v>11100</v>
       </c>
       <c r="E56">
-        <v>42308036000</v>
+        <v>39186860300</v>
       </c>
       <c r="F56">
-        <v>25794046000</v>
+        <v>23191850800</v>
       </c>
       <c r="G56">
-        <v>307329000</v>
+        <v>300635700</v>
       </c>
       <c r="H56">
         <v>3912200</v>
       </c>
       <c r="I56">
-        <v>68409411000</v>
+        <v>62679346800</v>
       </c>
       <c r="J56" t="str">
         <v>2022-12-12T11:00:00.000Z</v>
       </c>
       <c r="K56">
-        <v>4936729223000</v>
+        <v>4480920288200</v>
       </c>
       <c r="L56">
         <v>280416800</v>
@@ -3193,13 +3193,13 @@
         <v>-826500</v>
       </c>
       <c r="N56">
-        <v>-16513990000</v>
+        <v>-15995009500</v>
       </c>
       <c r="O56">
         <v>39679400</v>
       </c>
       <c r="P56">
-        <v>761310834000</v>
+        <v>677350378500</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>8300</v>
       </c>
       <c r="E57">
-        <v>33498384000</v>
+        <v>29993991900</v>
       </c>
       <c r="F57">
-        <v>37799920000</v>
+        <v>32001424300</v>
       </c>
       <c r="G57">
         <v>148435000</v>
@@ -3228,13 +3228,13 @@
         <v>3819900</v>
       </c>
       <c r="I57">
-        <v>71446739000</v>
+        <v>62143851200</v>
       </c>
       <c r="J57" t="str">
         <v>2022-12-12T11:02:00.000Z</v>
       </c>
       <c r="K57">
-        <v>5008175962000</v>
+        <v>4543064139400</v>
       </c>
       <c r="L57">
         <v>284236700</v>
@@ -3243,13 +3243,13 @@
         <v>-74400</v>
       </c>
       <c r="N57">
-        <v>4301536000</v>
+        <v>2007432400</v>
       </c>
       <c r="O57">
         <v>39605000</v>
       </c>
       <c r="P57">
-        <v>765612370000</v>
+        <v>679357810900</v>
       </c>
     </row>
     <row r="58">
@@ -3266,25 +3266,25 @@
         <v>8000</v>
       </c>
       <c r="E58">
-        <v>35425912000</v>
+        <v>33187053100</v>
       </c>
       <c r="F58">
-        <v>30817453000</v>
+        <v>26954220100</v>
       </c>
       <c r="G58">
-        <v>235285000</v>
+        <v>198122200</v>
       </c>
       <c r="H58">
         <v>3568100</v>
       </c>
       <c r="I58">
-        <v>66478650000</v>
+        <v>60339395400</v>
       </c>
       <c r="J58" t="str">
         <v>2022-12-12T11:04:00.000Z</v>
       </c>
       <c r="K58">
-        <v>5074654612000</v>
+        <v>4603403534800</v>
       </c>
       <c r="L58">
         <v>287804800</v>
@@ -3293,13 +3293,13 @@
         <v>-807700</v>
       </c>
       <c r="N58">
-        <v>-4608459000</v>
+        <v>-6232833000</v>
       </c>
       <c r="O58">
         <v>38797300</v>
       </c>
       <c r="P58">
-        <v>761003911000</v>
+        <v>673124977900</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>27900</v>
       </c>
       <c r="E59">
-        <v>17614558000</v>
+        <v>15935338900</v>
       </c>
       <c r="F59">
-        <v>23558817000</v>
+        <v>21129548700</v>
       </c>
       <c r="G59">
         <v>586120000</v>
@@ -3328,13 +3328,13 @@
         <v>2548300</v>
       </c>
       <c r="I59">
-        <v>41759495000</v>
+        <v>37651007600</v>
       </c>
       <c r="J59" t="str">
         <v>2022-12-12T11:06:00.000Z</v>
       </c>
       <c r="K59">
-        <v>5116414107000</v>
+        <v>4641054542400</v>
       </c>
       <c r="L59">
         <v>290353100</v>
@@ -3343,13 +3343,13 @@
         <v>146800</v>
       </c>
       <c r="N59">
-        <v>5944259000</v>
+        <v>5194209800</v>
       </c>
       <c r="O59">
         <v>38944100</v>
       </c>
       <c r="P59">
-        <v>766948170000</v>
+        <v>678319187700</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>3700</v>
       </c>
       <c r="E60">
-        <v>23147686000</v>
+        <v>22447886500</v>
       </c>
       <c r="F60">
-        <v>34947855000</v>
+        <v>32777927100</v>
       </c>
       <c r="G60">
         <v>42520000</v>
@@ -3378,13 +3378,13 @@
         <v>3282600</v>
       </c>
       <c r="I60">
-        <v>58138061000</v>
+        <v>55268333600</v>
       </c>
       <c r="J60" t="str">
         <v>2022-12-12T11:08:00.000Z</v>
       </c>
       <c r="K60">
-        <v>5174552168000</v>
+        <v>4696322876000</v>
       </c>
       <c r="L60">
         <v>293635700</v>
@@ -3393,13 +3393,13 @@
         <v>179500</v>
       </c>
       <c r="N60">
-        <v>11800169000</v>
+        <v>10330040600</v>
       </c>
       <c r="O60">
         <v>39123600</v>
       </c>
       <c r="P60">
-        <v>778748339000</v>
+        <v>688649228300</v>
       </c>
     </row>
     <row r="61">
@@ -3416,25 +3416,25 @@
         <v>14700</v>
       </c>
       <c r="E61">
-        <v>17347119000</v>
+        <v>17251314900</v>
       </c>
       <c r="F61">
-        <v>34364052000</v>
+        <v>29485135800</v>
       </c>
       <c r="G61">
-        <v>220040000</v>
+        <v>212647400</v>
       </c>
       <c r="H61">
         <v>2595500</v>
       </c>
       <c r="I61">
-        <v>51931211000</v>
+        <v>46949098100</v>
       </c>
       <c r="J61" t="str">
         <v>2022-12-12T11:10:00.000Z</v>
       </c>
       <c r="K61">
-        <v>5226483379000</v>
+        <v>4743271974100</v>
       </c>
       <c r="L61">
         <v>296231200</v>
@@ -3443,13 +3443,13 @@
         <v>292200</v>
       </c>
       <c r="N61">
-        <v>17016933000</v>
+        <v>12233820900</v>
       </c>
       <c r="O61">
         <v>39415800</v>
       </c>
       <c r="P61">
-        <v>795765272000</v>
+        <v>700883049200</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>39300</v>
       </c>
       <c r="E62">
-        <v>18050262000</v>
+        <v>16803010500</v>
       </c>
       <c r="F62">
-        <v>28649155000</v>
+        <v>26000006800</v>
       </c>
       <c r="G62">
         <v>824725000</v>
@@ -3478,13 +3478,13 @@
         <v>2489700</v>
       </c>
       <c r="I62">
-        <v>47524142000</v>
+        <v>43627742300</v>
       </c>
       <c r="J62" t="str">
         <v>2022-12-12T11:12:00.000Z</v>
       </c>
       <c r="K62">
-        <v>5274007521000</v>
+        <v>4786899716400</v>
       </c>
       <c r="L62">
         <v>298720900</v>
@@ -3493,13 +3493,13 @@
         <v>459000</v>
       </c>
       <c r="N62">
-        <v>10598893000</v>
+        <v>9196996300</v>
       </c>
       <c r="O62">
         <v>39874800</v>
       </c>
       <c r="P62">
-        <v>806364165000</v>
+        <v>710080045500</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>3800</v>
       </c>
       <c r="E63">
-        <v>18859400000</v>
+        <v>18140120000</v>
       </c>
       <c r="F63">
-        <v>36176198000</v>
+        <v>34318557500</v>
       </c>
       <c r="G63">
         <v>93900000</v>
@@ -3528,13 +3528,13 @@
         <v>2842600</v>
       </c>
       <c r="I63">
-        <v>55129498000</v>
+        <v>52552577500</v>
       </c>
       <c r="J63" t="str">
         <v>2022-12-12T11:14:00.000Z</v>
       </c>
       <c r="K63">
-        <v>5329137019000</v>
+        <v>4839452293900</v>
       </c>
       <c r="L63">
         <v>301563500</v>
@@ -3543,13 +3543,13 @@
         <v>673200</v>
       </c>
       <c r="N63">
-        <v>17316798000</v>
+        <v>16178437500</v>
       </c>
       <c r="O63">
         <v>40548000</v>
       </c>
       <c r="P63">
-        <v>823680963000</v>
+        <v>726258483000</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>23400</v>
       </c>
       <c r="E64">
-        <v>21202573000</v>
+        <v>20593482700</v>
       </c>
       <c r="F64">
-        <v>40604224000</v>
+        <v>34977955900</v>
       </c>
       <c r="G64">
         <v>326428000</v>
@@ -3578,13 +3578,13 @@
         <v>3166600</v>
       </c>
       <c r="I64">
-        <v>62133225000</v>
+        <v>55897866600</v>
       </c>
       <c r="J64" t="str">
         <v>2022-12-12T11:16:00.000Z</v>
       </c>
       <c r="K64">
-        <v>5391270244000</v>
+        <v>4895350160500</v>
       </c>
       <c r="L64">
         <v>304730100</v>
@@ -3593,13 +3593,13 @@
         <v>657200</v>
       </c>
       <c r="N64">
-        <v>19401651000</v>
+        <v>14384473200</v>
       </c>
       <c r="O64">
         <v>41205200</v>
       </c>
       <c r="P64">
-        <v>843082614000</v>
+        <v>740642956200</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>4600</v>
       </c>
       <c r="E65">
-        <v>52125238000</v>
+        <v>44294476600</v>
       </c>
       <c r="F65">
-        <v>22222054000</v>
+        <v>13643041600</v>
       </c>
       <c r="G65">
         <v>83504000</v>
@@ -3628,13 +3628,13 @@
         <v>3744600</v>
       </c>
       <c r="I65">
-        <v>74430796000</v>
+        <v>58021022200</v>
       </c>
       <c r="J65" t="str">
         <v>2022-12-12T11:18:00.000Z</v>
       </c>
       <c r="K65">
-        <v>5465701040000</v>
+        <v>4953371182700</v>
       </c>
       <c r="L65">
         <v>308474700</v>
@@ -3643,13 +3643,13 @@
         <v>-1503800</v>
       </c>
       <c r="N65">
-        <v>-29903184000</v>
+        <v>-30651435000</v>
       </c>
       <c r="O65">
         <v>39701400</v>
       </c>
       <c r="P65">
-        <v>813179430000</v>
+        <v>709991521200</v>
       </c>
     </row>
     <row r="66">
@@ -3666,25 +3666,25 @@
         <v>43300</v>
       </c>
       <c r="E66">
-        <v>87544143000</v>
+        <v>77941555200</v>
       </c>
       <c r="F66">
-        <v>25287529000</v>
+        <v>9101231500</v>
       </c>
       <c r="G66">
-        <v>400793000</v>
+        <v>365628200</v>
       </c>
       <c r="H66">
         <v>6106400</v>
       </c>
       <c r="I66">
-        <v>113232465000</v>
+        <v>87408414900</v>
       </c>
       <c r="J66" t="str">
         <v>2022-12-12T11:20:00.000Z</v>
       </c>
       <c r="K66">
-        <v>5578933505000</v>
+        <v>5040779597600</v>
       </c>
       <c r="L66">
         <v>314581100</v>
@@ -3693,13 +3693,13 @@
         <v>-3686100</v>
       </c>
       <c r="N66">
-        <v>-62256614000</v>
+        <v>-68840323700</v>
       </c>
       <c r="O66">
         <v>36015300</v>
       </c>
       <c r="P66">
-        <v>750922816000</v>
+        <v>641151197500</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>3900</v>
       </c>
       <c r="E67">
-        <v>46684264000</v>
+        <v>44429820700</v>
       </c>
       <c r="F67">
-        <v>23275628000</v>
+        <v>10673942300</v>
       </c>
       <c r="G67">
         <v>87040000</v>
@@ -3728,13 +3728,13 @@
         <v>4081100</v>
       </c>
       <c r="I67">
-        <v>70046932000</v>
+        <v>55190803000</v>
       </c>
       <c r="J67" t="str">
         <v>2022-12-12T11:22:00.000Z</v>
       </c>
       <c r="K67">
-        <v>5648980437000</v>
+        <v>5095970400600</v>
       </c>
       <c r="L67">
         <v>318662200</v>
@@ -3743,13 +3743,13 @@
         <v>-1687000</v>
       </c>
       <c r="N67">
-        <v>-23408636000</v>
+        <v>-33755878400</v>
       </c>
       <c r="O67">
         <v>34328300</v>
       </c>
       <c r="P67">
-        <v>727514180000</v>
+        <v>607395319100</v>
       </c>
     </row>
     <row r="68">
@@ -3766,25 +3766,25 @@
         <v>34600</v>
       </c>
       <c r="E68">
-        <v>32432828000</v>
+        <v>26406959900</v>
       </c>
       <c r="F68">
-        <v>24451895000</v>
+        <v>18937914500</v>
       </c>
       <c r="G68">
-        <v>247113000</v>
+        <v>219540600</v>
       </c>
       <c r="H68">
         <v>3147700</v>
       </c>
       <c r="I68">
-        <v>57131836000</v>
+        <v>45564415000</v>
       </c>
       <c r="J68" t="str">
         <v>2022-12-12T11:24:00.000Z</v>
       </c>
       <c r="K68">
-        <v>5706112273000</v>
+        <v>5141534815600</v>
       </c>
       <c r="L68">
         <v>321809900</v>
@@ -3793,13 +3793,13 @@
         <v>-722300</v>
       </c>
       <c r="N68">
-        <v>-7980933000</v>
+        <v>-7469045400</v>
       </c>
       <c r="O68">
         <v>33606000</v>
       </c>
       <c r="P68">
-        <v>719533247000</v>
+        <v>599926273700</v>
       </c>
     </row>
     <row r="69">
@@ -3816,25 +3816,25 @@
         <v>7900</v>
       </c>
       <c r="E69">
-        <v>37599870000</v>
+        <v>36438532500</v>
       </c>
       <c r="F69">
-        <v>15453885000</v>
+        <v>13511329500</v>
       </c>
       <c r="G69">
-        <v>172629000</v>
+        <v>84717000</v>
       </c>
       <c r="H69">
         <v>3100400</v>
       </c>
       <c r="I69">
-        <v>53226384000</v>
+        <v>50034579000</v>
       </c>
       <c r="J69" t="str">
         <v>2022-12-12T11:26:00.000Z</v>
       </c>
       <c r="K69">
-        <v>5759338657000</v>
+        <v>5191569394600</v>
       </c>
       <c r="L69">
         <v>324910300</v>
@@ -3843,13 +3843,13 @@
         <v>-1339900</v>
       </c>
       <c r="N69">
-        <v>-22145985000</v>
+        <v>-22927203000</v>
       </c>
       <c r="O69">
         <v>32266100</v>
       </c>
       <c r="P69">
-        <v>697387262000</v>
+        <v>576999070700</v>
       </c>
     </row>
     <row r="70">
@@ -3866,25 +3866,25 @@
         <v>13700</v>
       </c>
       <c r="E70">
-        <v>28842886000</v>
+        <v>27124506100</v>
       </c>
       <c r="F70">
-        <v>12587323000</v>
+        <v>11564646700</v>
       </c>
       <c r="G70">
-        <v>302455000</v>
+        <v>246511000</v>
       </c>
       <c r="H70">
         <v>2250800</v>
       </c>
       <c r="I70">
-        <v>41732664000</v>
+        <v>38935663800</v>
       </c>
       <c r="J70" t="str">
         <v>2022-12-12T11:28:00.000Z</v>
       </c>
       <c r="K70">
-        <v>5801071321000</v>
+        <v>5230505058400</v>
       </c>
       <c r="L70">
         <v>327161100</v>
@@ -3893,13 +3893,13 @@
         <v>-870300</v>
       </c>
       <c r="N70">
-        <v>-16255563000</v>
+        <v>-15559859400</v>
       </c>
       <c r="O70">
         <v>31395800</v>
       </c>
       <c r="P70">
-        <v>681131699000</v>
+        <v>561439211300</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>457000</v>
       </c>
       <c r="E71">
-        <v>126153395000</v>
+        <v>115254205100</v>
       </c>
       <c r="F71">
-        <v>61549690000</v>
+        <v>55186060000</v>
       </c>
       <c r="G71">
-        <v>7226886000</v>
+        <v>7193919000</v>
       </c>
       <c r="H71">
         <v>11551100</v>
       </c>
       <c r="I71">
-        <v>194929971000</v>
+        <v>177634184100</v>
       </c>
       <c r="J71" t="str">
         <v>2022-12-12T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>5996001292000</v>
+        <v>5408139242500</v>
       </c>
       <c r="L71">
         <v>338712200</v>
@@ -3943,13 +3943,13 @@
         <v>-4597100</v>
       </c>
       <c r="N71">
-        <v>-64603705000</v>
+        <v>-60068145100</v>
       </c>
       <c r="O71">
         <v>26798700</v>
       </c>
       <c r="P71">
-        <v>616527994000</v>
+        <v>501371066200</v>
       </c>
     </row>
     <row r="72">
@@ -3966,25 +3966,25 @@
         <v>32000</v>
       </c>
       <c r="E72">
-        <v>48510899000</v>
+        <v>43739974700</v>
       </c>
       <c r="F72">
-        <v>33290932000</v>
+        <v>30230695300</v>
       </c>
       <c r="G72">
-        <v>309246000</v>
+        <v>279276000</v>
       </c>
       <c r="H72">
         <v>4681200</v>
       </c>
       <c r="I72">
-        <v>82111077000</v>
+        <v>74249946000</v>
       </c>
       <c r="J72" t="str">
         <v>2022-12-12T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>6078112369000</v>
+        <v>5482389188500</v>
       </c>
       <c r="L72">
         <v>343393400</v>
@@ -3993,13 +3993,13 @@
         <v>-1325200</v>
       </c>
       <c r="N72">
-        <v>-15219967000</v>
+        <v>-13509279400</v>
       </c>
       <c r="O72">
         <v>25473500</v>
       </c>
       <c r="P72">
-        <v>601308027000</v>
+        <v>487861786800</v>
       </c>
     </row>
     <row r="73">
@@ -4016,25 +4016,25 @@
         <v>8300</v>
       </c>
       <c r="E73">
-        <v>40810177000</v>
+        <v>39015473500</v>
       </c>
       <c r="F73">
-        <v>46177982000</v>
+        <v>40625540000</v>
       </c>
       <c r="G73">
-        <v>174404000</v>
+        <v>89489000</v>
       </c>
       <c r="H73">
         <v>4847200</v>
       </c>
       <c r="I73">
-        <v>87162563000</v>
+        <v>79730502500</v>
       </c>
       <c r="J73" t="str">
         <v>2022-12-12T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>6165274932000</v>
+        <v>5562119691000</v>
       </c>
       <c r="L73">
         <v>348240600</v>
@@ -4043,13 +4043,13 @@
         <v>-71300</v>
       </c>
       <c r="N73">
-        <v>5367805000</v>
+        <v>1610066500</v>
       </c>
       <c r="O73">
         <v>25402200</v>
       </c>
       <c r="P73">
-        <v>606675832000</v>
+        <v>489471853300</v>
       </c>
     </row>
     <row r="74">
@@ -4066,25 +4066,25 @@
         <v>15100</v>
       </c>
       <c r="E74">
-        <v>43532257000</v>
+        <v>41995495300</v>
       </c>
       <c r="F74">
-        <v>50460691000</v>
+        <v>42283676200</v>
       </c>
       <c r="G74">
-        <v>146570000</v>
+        <v>135081500</v>
       </c>
       <c r="H74">
         <v>5062000</v>
       </c>
       <c r="I74">
-        <v>94139518000</v>
+        <v>84414253000</v>
       </c>
       <c r="J74" t="str">
         <v>2022-12-12T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>6259414450000</v>
+        <v>5646533944000</v>
       </c>
       <c r="L74">
         <v>353302600</v>
@@ -4093,13 +4093,13 @@
         <v>-54100</v>
       </c>
       <c r="N74">
-        <v>6928434000</v>
+        <v>288180900</v>
       </c>
       <c r="O74">
         <v>25348100</v>
       </c>
       <c r="P74">
-        <v>613604266000</v>
+        <v>489760034200</v>
       </c>
     </row>
     <row r="75">
@@ -4116,10 +4116,10 @@
         <v>23100</v>
       </c>
       <c r="E75">
-        <v>40733076000</v>
+        <v>38236175400</v>
       </c>
       <c r="F75">
-        <v>52582401000</v>
+        <v>48045542400</v>
       </c>
       <c r="G75">
         <v>298419000</v>
@@ -4128,13 +4128,13 @@
         <v>4916000</v>
       </c>
       <c r="I75">
-        <v>93613896000</v>
+        <v>86580136800</v>
       </c>
       <c r="J75" t="str">
         <v>2022-12-12T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>6353028346000</v>
+        <v>5733114080800</v>
       </c>
       <c r="L75">
         <v>358218600</v>
@@ -4143,13 +4143,13 @@
         <v>45300</v>
       </c>
       <c r="N75">
-        <v>11849325000</v>
+        <v>9809367000</v>
       </c>
       <c r="O75">
         <v>25393400</v>
       </c>
       <c r="P75">
-        <v>625453591000</v>
+        <v>499569401200</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>3600</v>
       </c>
       <c r="E76">
-        <v>58253977000</v>
+        <v>54399735100</v>
       </c>
       <c r="F76">
-        <v>29058965000</v>
+        <v>26668158200</v>
       </c>
       <c r="G76">
         <v>48033000</v>
@@ -4178,13 +4178,13 @@
         <v>5143500</v>
       </c>
       <c r="I76">
-        <v>87360975000</v>
+        <v>81115926300</v>
       </c>
       <c r="J76" t="str">
         <v>2022-12-12T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>6440389321000</v>
+        <v>5814230007100</v>
       </c>
       <c r="L76">
         <v>363362100</v>
@@ -4193,13 +4193,13 @@
         <v>-2046500</v>
       </c>
       <c r="N76">
-        <v>-29195012000</v>
+        <v>-27731576900</v>
       </c>
       <c r="O76">
         <v>23346900</v>
       </c>
       <c r="P76">
-        <v>596258579000</v>
+        <v>471837824300</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>36300</v>
       </c>
       <c r="E77">
-        <v>107454445000</v>
+        <v>100335171400</v>
       </c>
       <c r="F77">
-        <v>28957834000</v>
+        <v>25754740300</v>
       </c>
       <c r="G77">
         <v>690649000</v>
@@ -4228,13 +4228,13 @@
         <v>7659100</v>
       </c>
       <c r="I77">
-        <v>137102928000</v>
+        <v>126780560700</v>
       </c>
       <c r="J77" t="str">
         <v>2022-12-12T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>6577492249000</v>
+        <v>5941010567800</v>
       </c>
       <c r="L77">
         <v>371021200</v>
@@ -4243,13 +4243,13 @@
         <v>-5035200</v>
       </c>
       <c r="N77">
-        <v>-78496611000</v>
+        <v>-74580431100</v>
       </c>
       <c r="O77">
         <v>18311700</v>
       </c>
       <c r="P77">
-        <v>517761968000</v>
+        <v>397257393200</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>43000</v>
       </c>
       <c r="E78">
-        <v>124974641000</v>
+        <v>114132094400</v>
       </c>
       <c r="F78">
-        <v>39130745000</v>
+        <v>35088091700</v>
       </c>
       <c r="G78">
         <v>622267000</v>
@@ -4278,13 +4278,13 @@
         <v>9591300</v>
       </c>
       <c r="I78">
-        <v>164727653000</v>
+        <v>149842453100</v>
       </c>
       <c r="J78" t="str">
         <v>2022-12-12T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>6742219902000</v>
+        <v>6090853020900</v>
       </c>
       <c r="L78">
         <v>380612500</v>
@@ -4293,13 +4293,13 @@
         <v>-5655900</v>
       </c>
       <c r="N78">
-        <v>-85843896000</v>
+        <v>-79044002700</v>
       </c>
       <c r="O78">
         <v>12655800</v>
       </c>
       <c r="P78">
-        <v>431918072000</v>
+        <v>318213390500</v>
       </c>
     </row>
     <row r="79">
@@ -4316,25 +4316,25 @@
         <v>37200</v>
       </c>
       <c r="E79">
-        <v>110664129000</v>
+        <v>99621083100</v>
       </c>
       <c r="F79">
-        <v>32067718000</v>
+        <v>27184606000</v>
       </c>
       <c r="G79">
-        <v>392283000</v>
+        <v>311863500</v>
       </c>
       <c r="H79">
         <v>8365100</v>
       </c>
       <c r="I79">
-        <v>143124130000</v>
+        <v>127117552600</v>
       </c>
       <c r="J79" t="str">
         <v>2022-12-12T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>6885344032000</v>
+        <v>6217970573500</v>
       </c>
       <c r="L79">
         <v>388977600</v>
@@ -4343,13 +4343,13 @@
         <v>-4746500</v>
       </c>
       <c r="N79">
-        <v>-78596411000</v>
+        <v>-72436477100</v>
       </c>
       <c r="O79">
         <v>7909300</v>
       </c>
       <c r="P79">
-        <v>353321661000</v>
+        <v>245776913400</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>36900</v>
       </c>
       <c r="E80">
-        <v>52172130000</v>
+        <v>51225577500</v>
       </c>
       <c r="F80">
-        <v>58434325000</v>
+        <v>52065999700</v>
       </c>
       <c r="G80">
         <v>485627000</v>
@@ -4378,13 +4378,13 @@
         <v>6576800</v>
       </c>
       <c r="I80">
-        <v>111092082000</v>
+        <v>103777204200</v>
       </c>
       <c r="J80" t="str">
         <v>2022-12-12T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>6996436114000</v>
+        <v>6321747777700</v>
       </c>
       <c r="L80">
         <v>395554400</v>
@@ -4393,13 +4393,13 @@
         <v>16500</v>
       </c>
       <c r="N80">
-        <v>6262195000</v>
+        <v>840422200</v>
       </c>
       <c r="O80">
         <v>7925800</v>
       </c>
       <c r="P80">
-        <v>359583856000</v>
+        <v>246617335600</v>
       </c>
     </row>
     <row r="81">
@@ -4416,25 +4416,25 @@
         <v>232300</v>
       </c>
       <c r="E81">
-        <v>31041083000</v>
+        <v>29553472100</v>
       </c>
       <c r="F81">
-        <v>44797695000</v>
+        <v>41911683900</v>
       </c>
       <c r="G81">
-        <v>3670934000</v>
+        <v>3617987000</v>
       </c>
       <c r="H81">
         <v>4770200</v>
       </c>
       <c r="I81">
-        <v>79509712000</v>
+        <v>75083143000</v>
       </c>
       <c r="J81" t="str">
         <v>2022-12-12T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>7075945826000</v>
+        <v>6396830920700</v>
       </c>
       <c r="L81">
         <v>400324600</v>
@@ -4443,13 +4443,13 @@
         <v>864300</v>
       </c>
       <c r="N81">
-        <v>13756612000</v>
+        <v>12358211800</v>
       </c>
       <c r="O81">
         <v>8790100</v>
       </c>
       <c r="P81">
-        <v>373340468000</v>
+        <v>258975547400</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>17100</v>
       </c>
       <c r="E82">
-        <v>45910381000</v>
+        <v>43794199300</v>
       </c>
       <c r="F82">
-        <v>29688635000</v>
+        <v>26593333400</v>
       </c>
       <c r="G82">
         <v>188214000</v>
@@ -4478,13 +4478,13 @@
         <v>4468800</v>
       </c>
       <c r="I82">
-        <v>75787230000</v>
+        <v>70575746700</v>
       </c>
       <c r="J82" t="str">
         <v>2022-12-12T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>7151733056000</v>
+        <v>6467406667400</v>
       </c>
       <c r="L82">
         <v>404793400</v>
@@ -4493,13 +4493,13 @@
         <v>-1037500</v>
       </c>
       <c r="N82">
-        <v>-16221746000</v>
+        <v>-17200865900</v>
       </c>
       <c r="O82">
         <v>7752600</v>
       </c>
       <c r="P82">
-        <v>357118722000</v>
+        <v>241774681500</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>52900</v>
       </c>
       <c r="E83">
-        <v>34711370000</v>
+        <v>33357125600</v>
       </c>
       <c r="F83">
-        <v>38239409000</v>
+        <v>33147106400</v>
       </c>
       <c r="G83">
         <v>588635000</v>
@@ -4528,13 +4528,13 @@
         <v>4028500</v>
       </c>
       <c r="I83">
-        <v>73539414000</v>
+        <v>67092867000</v>
       </c>
       <c r="J83" t="str">
         <v>2022-12-12T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>7225272470000</v>
+        <v>6534499534400</v>
       </c>
       <c r="L83">
         <v>408821900</v>
@@ -4543,13 +4543,13 @@
         <v>-2200</v>
       </c>
       <c r="N83">
-        <v>3528039000</v>
+        <v>-210019200</v>
       </c>
       <c r="O83">
         <v>7750400</v>
       </c>
       <c r="P83">
-        <v>360646761000</v>
+        <v>241564662300</v>
       </c>
     </row>
     <row r="84">
@@ -4566,10 +4566,10 @@
         <v>7300</v>
       </c>
       <c r="E84">
-        <v>35723007000</v>
+        <v>34434696600</v>
       </c>
       <c r="F84">
-        <v>39301150000</v>
+        <v>32482275700</v>
       </c>
       <c r="G84">
         <v>102261000</v>
@@ -4578,13 +4578,13 @@
         <v>4398400</v>
       </c>
       <c r="I84">
-        <v>75126418000</v>
+        <v>67019233300</v>
       </c>
       <c r="J84" t="str">
         <v>2022-12-12T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>7300398888000</v>
+        <v>6601518767700</v>
       </c>
       <c r="L84">
         <v>413220300</v>
@@ -4593,13 +4593,13 @@
         <v>-129500</v>
       </c>
       <c r="N84">
-        <v>3578143000</v>
+        <v>-1952420900</v>
       </c>
       <c r="O84">
         <v>7620900</v>
       </c>
       <c r="P84">
-        <v>364224904000</v>
+        <v>239612241400</v>
       </c>
     </row>
     <row r="85">
@@ -4616,25 +4616,25 @@
         <v>26800</v>
       </c>
       <c r="E85">
-        <v>38913358000</v>
+        <v>38488083700</v>
       </c>
       <c r="F85">
-        <v>29905890000</v>
+        <v>26240658900</v>
       </c>
       <c r="G85">
-        <v>988293000</v>
+        <v>332949000</v>
       </c>
       <c r="H85">
         <v>4092300</v>
       </c>
       <c r="I85">
-        <v>69807541000</v>
+        <v>65061691600</v>
       </c>
       <c r="J85" t="str">
         <v>2022-12-12T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>7370206429000</v>
+        <v>6666580459300</v>
       </c>
       <c r="L85">
         <v>417312600</v>
@@ -4643,13 +4643,13 @@
         <v>-865900</v>
       </c>
       <c r="N85">
-        <v>-9007468000</v>
+        <v>-12247424800</v>
       </c>
       <c r="O85">
         <v>6755000</v>
       </c>
       <c r="P85">
-        <v>355217436000</v>
+        <v>227364816600</v>
       </c>
     </row>
     <row r="86">
@@ -4666,25 +4666,25 @@
         <v>7800</v>
       </c>
       <c r="E86">
-        <v>71745258000</v>
+        <v>71334968700</v>
       </c>
       <c r="F86">
-        <v>28433519000</v>
+        <v>25128727100</v>
       </c>
       <c r="G86">
-        <v>140620000</v>
+        <v>136324300</v>
       </c>
       <c r="H86">
         <v>5464100</v>
       </c>
       <c r="I86">
-        <v>100319397000</v>
+        <v>96600020100</v>
       </c>
       <c r="J86" t="str">
         <v>2022-12-12T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>7470525826000</v>
+        <v>6763180479400</v>
       </c>
       <c r="L86">
         <v>422776700</v>
@@ -4693,13 +4693,13 @@
         <v>-2535300</v>
       </c>
       <c r="N86">
-        <v>-43311739000</v>
+        <v>-46206241600</v>
       </c>
       <c r="O86">
         <v>4219700</v>
       </c>
       <c r="P86">
-        <v>311905697000</v>
+        <v>181158575000</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>25900</v>
       </c>
       <c r="E87">
-        <v>119145522000</v>
+        <v>116755314600</v>
       </c>
       <c r="F87">
-        <v>28863017000</v>
+        <v>26440841600</v>
       </c>
       <c r="G87">
         <v>403672000</v>
@@ -4728,13 +4728,13 @@
         <v>8407200</v>
       </c>
       <c r="I87">
-        <v>148412211000</v>
+        <v>143599828200</v>
       </c>
       <c r="J87" t="str">
         <v>2022-12-12T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>7618938037000</v>
+        <v>6906780307600</v>
       </c>
       <c r="L87">
         <v>431183900</v>
@@ -4743,13 +4743,13 @@
         <v>-5214300</v>
       </c>
       <c r="N87">
-        <v>-90282505000</v>
+        <v>-90314473000</v>
       </c>
       <c r="O87">
         <v>-994600</v>
       </c>
       <c r="P87">
-        <v>221623192000</v>
+        <v>90844102000</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>9500</v>
       </c>
       <c r="E88">
-        <v>71160534000</v>
+        <v>61923480300</v>
       </c>
       <c r="F88">
-        <v>32790227000</v>
+        <v>31682336000</v>
       </c>
       <c r="G88">
         <v>99108000</v>
@@ -4778,13 +4778,13 @@
         <v>5469400</v>
       </c>
       <c r="I88">
-        <v>104049869000</v>
+        <v>93704924300</v>
       </c>
       <c r="J88" t="str">
         <v>2022-12-12T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>7722987906000</v>
+        <v>7000485231900</v>
       </c>
       <c r="L88">
         <v>436653300</v>
@@ -4793,13 +4793,13 @@
         <v>-2126100</v>
       </c>
       <c r="N88">
-        <v>-38370307000</v>
+        <v>-30241144300</v>
       </c>
       <c r="O88">
         <v>-3120700</v>
       </c>
       <c r="P88">
-        <v>183252885000</v>
+        <v>60602957700</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>5200</v>
       </c>
       <c r="E89">
-        <v>59560273000</v>
+        <v>52950889000</v>
       </c>
       <c r="F89">
-        <v>38141265000</v>
+        <v>34837572000</v>
       </c>
       <c r="G89">
         <v>116949000</v>
@@ -4828,13 +4828,13 @@
         <v>5404700</v>
       </c>
       <c r="I89">
-        <v>97818487000</v>
+        <v>87905410000</v>
       </c>
       <c r="J89" t="str">
         <v>2022-12-12T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>7820806393000</v>
+        <v>7088390641900</v>
       </c>
       <c r="L89">
         <v>442058000</v>
@@ -4843,13 +4843,13 @@
         <v>-1844300</v>
       </c>
       <c r="N89">
-        <v>-21419008000</v>
+        <v>-18113317000</v>
       </c>
       <c r="O89">
         <v>-4965000</v>
       </c>
       <c r="P89">
-        <v>161833877000</v>
+        <v>42489640700</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>29700</v>
       </c>
       <c r="E90">
-        <v>48083756000</v>
+        <v>38606542700</v>
       </c>
       <c r="F90">
-        <v>38621302000</v>
+        <v>35659466800</v>
       </c>
       <c r="G90">
         <v>534077000</v>
@@ -4878,13 +4878,13 @@
         <v>5226200</v>
       </c>
       <c r="I90">
-        <v>87239135000</v>
+        <v>74800086500</v>
       </c>
       <c r="J90" t="str">
         <v>2022-12-12T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>7908045528000</v>
+        <v>7163190728400</v>
       </c>
       <c r="L90">
         <v>447284200</v>
@@ -4893,13 +4893,13 @@
         <v>-1112900</v>
       </c>
       <c r="N90">
-        <v>-9462454000</v>
+        <v>-2947075900</v>
       </c>
       <c r="O90">
         <v>-6077900</v>
       </c>
       <c r="P90">
-        <v>152371423000</v>
+        <v>39542564800</v>
       </c>
     </row>
     <row r="91">
@@ -4916,25 +4916,25 @@
         <v>2300</v>
       </c>
       <c r="E91">
-        <v>31996120000</v>
+        <v>26900920300</v>
       </c>
       <c r="F91">
-        <v>47601165000</v>
+        <v>42151320300</v>
       </c>
       <c r="G91">
-        <v>80800000</v>
+        <v>72208600</v>
       </c>
       <c r="H91">
         <v>4316300</v>
       </c>
       <c r="I91">
-        <v>79678085000</v>
+        <v>69124449200</v>
       </c>
       <c r="J91" t="str">
         <v>2022-12-12T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>7987723613000</v>
+        <v>7232315177600</v>
       </c>
       <c r="L91">
         <v>451600500</v>
@@ -4943,13 +4943,13 @@
         <v>591000</v>
       </c>
       <c r="N91">
-        <v>15605045000</v>
+        <v>15250400000</v>
       </c>
       <c r="O91">
         <v>-5486900</v>
       </c>
       <c r="P91">
-        <v>167976468000</v>
+        <v>54792964800</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>2200</v>
       </c>
       <c r="E92">
-        <v>22967610000</v>
+        <v>20816463300</v>
       </c>
       <c r="F92">
-        <v>62155983000</v>
+        <v>56390254500</v>
       </c>
       <c r="G92">
         <v>29355000</v>
@@ -4978,13 +4978,13 @@
         <v>4329500</v>
       </c>
       <c r="I92">
-        <v>85152948000</v>
+        <v>77236072800</v>
       </c>
       <c r="J92" t="str">
         <v>2022-12-12T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>8072876561000</v>
+        <v>7309551250400</v>
       </c>
       <c r="L92">
         <v>455930000</v>
@@ -4993,13 +4993,13 @@
         <v>1792700</v>
       </c>
       <c r="N92">
-        <v>39188373000</v>
+        <v>35573791200</v>
       </c>
       <c r="O92">
         <v>-3694200</v>
       </c>
       <c r="P92">
-        <v>207164841000</v>
+        <v>90366756000</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>5200</v>
       </c>
       <c r="E93">
-        <v>20781905000</v>
+        <v>19250138300</v>
       </c>
       <c r="F93">
-        <v>48183417000</v>
+        <v>42289317000</v>
       </c>
       <c r="G93">
         <v>126325000</v>
@@ -5028,13 +5028,13 @@
         <v>3961100</v>
       </c>
       <c r="I93">
-        <v>69091647000</v>
+        <v>61665780300</v>
       </c>
       <c r="J93" t="str">
         <v>2022-12-12T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>8141968208000</v>
+        <v>7371217030700</v>
       </c>
       <c r="L93">
         <v>459891100</v>
@@ -5043,13 +5043,13 @@
         <v>1623300</v>
       </c>
       <c r="N93">
-        <v>27401512000</v>
+        <v>23039178700</v>
       </c>
       <c r="O93">
         <v>-2070900</v>
       </c>
       <c r="P93">
-        <v>234566353000</v>
+        <v>113405934700</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>13900</v>
       </c>
       <c r="E94">
-        <v>30299377000</v>
+        <v>27113466100</v>
       </c>
       <c r="F94">
-        <v>40349595000</v>
+        <v>30468985500</v>
       </c>
       <c r="G94">
         <v>292075000</v>
@@ -5078,13 +5078,13 @@
         <v>3803900</v>
       </c>
       <c r="I94">
-        <v>70941047000</v>
+        <v>57874526600</v>
       </c>
       <c r="J94" t="str">
         <v>2022-12-12T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>8212909255000</v>
+        <v>7429091557300</v>
       </c>
       <c r="L94">
         <v>463695000</v>
@@ -5093,13 +5093,13 @@
         <v>414200</v>
       </c>
       <c r="N94">
-        <v>10050218000</v>
+        <v>3355519400</v>
       </c>
       <c r="O94">
         <v>-1656700</v>
       </c>
       <c r="P94">
-        <v>244616571000</v>
+        <v>116761454100</v>
       </c>
     </row>
     <row r="95">
@@ -5116,25 +5116,25 @@
         <v>18400</v>
       </c>
       <c r="E95">
-        <v>33384076000</v>
+        <v>31578083800</v>
       </c>
       <c r="F95">
-        <v>31580624000</v>
+        <v>28887519800</v>
       </c>
       <c r="G95">
-        <v>336575000</v>
+        <v>315895700</v>
       </c>
       <c r="H95">
         <v>3708800</v>
       </c>
       <c r="I95">
-        <v>65301275000</v>
+        <v>60781499300</v>
       </c>
       <c r="J95" t="str">
         <v>2022-12-12T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>8278210530000</v>
+        <v>7489873056600</v>
       </c>
       <c r="L95">
         <v>467403800</v>
@@ -5143,13 +5143,13 @@
         <v>-112400</v>
       </c>
       <c r="N95">
-        <v>-1803452000</v>
+        <v>-2690564000</v>
       </c>
       <c r="O95">
         <v>-1769100</v>
       </c>
       <c r="P95">
-        <v>242813119000</v>
+        <v>114070890100</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>60600</v>
       </c>
       <c r="E96">
-        <v>101032982000</v>
+        <v>95582138300</v>
       </c>
       <c r="F96">
-        <v>15344983000</v>
+        <v>14523305500</v>
       </c>
       <c r="G96">
         <v>418900000</v>
@@ -5178,13 +5178,13 @@
         <v>6567400</v>
       </c>
       <c r="I96">
-        <v>116796865000</v>
+        <v>110524343800</v>
       </c>
       <c r="J96" t="str">
         <v>2022-12-12T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>8395007395000</v>
+        <v>7600397400400</v>
       </c>
       <c r="L96">
         <v>473971200</v>
@@ -5193,13 +5193,13 @@
         <v>-4657200</v>
       </c>
       <c r="N96">
-        <v>-85687999000</v>
+        <v>-81058832800</v>
       </c>
       <c r="O96">
         <v>-6426300</v>
       </c>
       <c r="P96">
-        <v>157125120000</v>
+        <v>33012057300</v>
       </c>
     </row>
     <row r="97">
@@ -5216,10 +5216,10 @@
         <v>33800</v>
       </c>
       <c r="E97">
-        <v>141279146000</v>
+        <v>122301542600</v>
       </c>
       <c r="F97">
-        <v>17527780000</v>
+        <v>16313595400</v>
       </c>
       <c r="G97">
         <v>651264000</v>
@@ -5228,13 +5228,13 @@
         <v>9442400</v>
       </c>
       <c r="I97">
-        <v>159458190000</v>
+        <v>139266402000</v>
       </c>
       <c r="J97" t="str">
         <v>2022-12-12T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>8554465585000</v>
+        <v>7739663802400</v>
       </c>
       <c r="L97">
         <v>483413600</v>
@@ -5243,13 +5243,13 @@
         <v>-7488200</v>
       </c>
       <c r="N97">
-        <v>-123751366000</v>
+        <v>-105987947200</v>
       </c>
       <c r="O97">
         <v>-13914500</v>
       </c>
       <c r="P97">
-        <v>33373754000</v>
+        <v>-72975889900</v>
       </c>
     </row>
     <row r="98">
@@ -5266,25 +5266,25 @@
         <v>19100</v>
       </c>
       <c r="E98">
-        <v>84862674000</v>
+        <v>75392953200</v>
       </c>
       <c r="F98">
-        <v>41187050000</v>
+        <v>36876165200</v>
       </c>
       <c r="G98">
-        <v>209056000</v>
+        <v>169096000</v>
       </c>
       <c r="H98">
         <v>7329900</v>
       </c>
       <c r="I98">
-        <v>126258780000</v>
+        <v>112438214400</v>
       </c>
       <c r="J98" t="str">
         <v>2022-12-12T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>8680724365000</v>
+        <v>7852102016800</v>
       </c>
       <c r="L98">
         <v>490743500</v>
@@ -5293,13 +5293,13 @@
         <v>-2467600</v>
       </c>
       <c r="N98">
-        <v>-43675624000</v>
+        <v>-38516788000</v>
       </c>
       <c r="O98">
         <v>-16382100</v>
       </c>
       <c r="P98">
-        <v>-10301870000</v>
+        <v>-111492677900</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>9100</v>
       </c>
       <c r="E99">
-        <v>34045864000</v>
+        <v>31460651800</v>
       </c>
       <c r="F99">
-        <v>43206814000</v>
+        <v>34998830200</v>
       </c>
       <c r="G99">
         <v>300779000</v>
@@ -5328,13 +5328,13 @@
         <v>4221500</v>
       </c>
       <c r="I99">
-        <v>77553457000</v>
+        <v>66760261000</v>
       </c>
       <c r="J99" t="str">
         <v>2022-12-12T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>8758277822000</v>
+        <v>7918862277800</v>
       </c>
       <c r="L99">
         <v>494965000</v>
@@ -5343,13 +5343,13 @@
         <v>197000</v>
       </c>
       <c r="N99">
-        <v>9160950000</v>
+        <v>3538178400</v>
       </c>
       <c r="O99">
         <v>-16185100</v>
       </c>
       <c r="P99">
-        <v>-1140920000</v>
+        <v>-107954499500</v>
       </c>
     </row>
     <row r="100">
@@ -5366,25 +5366,25 @@
         <v>3000</v>
       </c>
       <c r="E100">
-        <v>47436683000</v>
+        <v>35072559500</v>
       </c>
       <c r="F100">
-        <v>33414533000</v>
+        <v>30691758500</v>
       </c>
       <c r="G100">
-        <v>38137000</v>
+        <v>25549600</v>
       </c>
       <c r="H100">
         <v>4201900</v>
       </c>
       <c r="I100">
-        <v>80889353000</v>
+        <v>65789867600</v>
       </c>
       <c r="J100" t="str">
         <v>2022-12-12T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>8839167175000</v>
+        <v>7984652145400</v>
       </c>
       <c r="L100">
         <v>499166900</v>
@@ -5393,13 +5393,13 @@
         <v>-778100</v>
       </c>
       <c r="N100">
-        <v>-14022150000</v>
+        <v>-4380801000</v>
       </c>
       <c r="O100">
         <v>-16963200</v>
       </c>
       <c r="P100">
-        <v>-15163070000</v>
+        <v>-112335300500</v>
       </c>
     </row>
     <row r="101">
@@ -5416,10 +5416,10 @@
         <v>15900</v>
       </c>
       <c r="E101">
-        <v>44961290000</v>
+        <v>40524531200</v>
       </c>
       <c r="F101">
-        <v>30981865000</v>
+        <v>26905545400</v>
       </c>
       <c r="G101">
         <v>171111000</v>
@@ -5428,13 +5428,13 @@
         <v>3803100</v>
       </c>
       <c r="I101">
-        <v>76114266000</v>
+        <v>67601187600</v>
       </c>
       <c r="J101" t="str">
         <v>2022-12-12T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>8915281441000</v>
+        <v>8052253333000</v>
       </c>
       <c r="L101">
         <v>502970000</v>
@@ -5443,13 +5443,13 @@
         <v>-837600</v>
       </c>
       <c r="N101">
-        <v>-13979425000</v>
+        <v>-13618985800</v>
       </c>
       <c r="O101">
         <v>-17800800</v>
       </c>
       <c r="P101">
-        <v>-29142495000</v>
+        <v>-125954286300</v>
       </c>
     </row>
     <row r="102">
@@ -5466,25 +5466,25 @@
         <v>77900</v>
       </c>
       <c r="E102">
-        <v>129888184000</v>
+        <v>107724469900</v>
       </c>
       <c r="F102">
-        <v>25210660000</v>
+        <v>23669802400</v>
       </c>
       <c r="G102">
-        <v>1534467000</v>
+        <v>1523078400</v>
       </c>
       <c r="H102">
         <v>8405900</v>
       </c>
       <c r="I102">
-        <v>156633311000</v>
+        <v>132917350700</v>
       </c>
       <c r="J102" t="str">
         <v>2022-12-12T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>9071914752000</v>
+        <v>8185170683700</v>
       </c>
       <c r="L102">
         <v>511375900</v>
@@ -5493,13 +5493,13 @@
         <v>-5241600</v>
       </c>
       <c r="N102">
-        <v>-104677524000</v>
+        <v>-84054667500</v>
       </c>
       <c r="O102">
         <v>-23042400</v>
       </c>
       <c r="P102">
-        <v>-133820019000</v>
+        <v>-210008953800</v>
       </c>
     </row>
     <row r="103">
@@ -5516,25 +5516,25 @@
         <v>92100</v>
       </c>
       <c r="E103">
-        <v>266291347000</v>
+        <v>213184107400</v>
       </c>
       <c r="F103">
-        <v>32346204000</v>
+        <v>28522731300</v>
       </c>
       <c r="G103">
-        <v>1605473000</v>
+        <v>1495183400</v>
       </c>
       <c r="H103">
         <v>17616800</v>
       </c>
       <c r="I103">
-        <v>300243024000</v>
+        <v>243202022100</v>
       </c>
       <c r="J103" t="str">
         <v>2022-12-12T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>9372157776000</v>
+        <v>8428372705800</v>
       </c>
       <c r="L103">
         <v>528992700</v>
@@ -5543,13 +5543,13 @@
         <v>-13787500</v>
       </c>
       <c r="N103">
-        <v>-233945143000</v>
+        <v>-184661376100</v>
       </c>
       <c r="O103">
         <v>-36829900</v>
       </c>
       <c r="P103">
-        <v>-367765162000</v>
+        <v>-394670329900</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>161400</v>
       </c>
       <c r="E104">
-        <v>247874214000</v>
+        <v>227808399900</v>
       </c>
       <c r="F104">
-        <v>48737370000</v>
+        <v>44297214600</v>
       </c>
       <c r="G104">
         <v>1790886000</v>
@@ -5578,13 +5578,13 @@
         <v>17898600</v>
       </c>
       <c r="I104">
-        <v>298402470000</v>
+        <v>273896500500</v>
       </c>
       <c r="J104" t="str">
         <v>2022-12-12T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>9670560246000</v>
+        <v>8702269206300</v>
       </c>
       <c r="L104">
         <v>546891300</v>
@@ -5593,13 +5593,13 @@
         <v>-12151800</v>
       </c>
       <c r="N104">
-        <v>-199136844000</v>
+        <v>-183511185300</v>
       </c>
       <c r="O104">
         <v>-48981700</v>
       </c>
       <c r="P104">
-        <v>-566902006000</v>
+        <v>-578181515200</v>
       </c>
     </row>
     <row r="105">
@@ -5616,25 +5616,25 @@
         <v>202700</v>
       </c>
       <c r="E105">
-        <v>97142446000</v>
+        <v>81929773900</v>
       </c>
       <c r="F105">
-        <v>111072764000</v>
+        <v>90853303700</v>
       </c>
       <c r="G105">
-        <v>3668633000</v>
+        <v>3554846900</v>
       </c>
       <c r="H105">
         <v>12810700</v>
       </c>
       <c r="I105">
-        <v>211883843000</v>
+        <v>176337924500</v>
       </c>
       <c r="J105" t="str">
         <v>2022-12-12T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>9882444089000</v>
+        <v>8878607130800</v>
       </c>
       <c r="L105">
         <v>559702000</v>
@@ -5643,13 +5643,13 @@
         <v>404800</v>
       </c>
       <c r="N105">
-        <v>13930318000</v>
+        <v>8923529800</v>
       </c>
       <c r="O105">
         <v>-48576900</v>
       </c>
       <c r="P105">
-        <v>-552971688000</v>
+        <v>-569257985400</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>45500</v>
       </c>
       <c r="E106">
-        <v>52793699000</v>
+        <v>45412088000</v>
       </c>
       <c r="F106">
-        <v>84099232000</v>
+        <v>63263788300</v>
       </c>
       <c r="G106">
         <v>646809000</v>
@@ -5678,13 +5678,13 @@
         <v>8734400</v>
       </c>
       <c r="I106">
-        <v>137539740000</v>
+        <v>109322685300</v>
       </c>
       <c r="J106" t="str">
         <v>2022-12-12T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>10019983829000</v>
+        <v>8987929816100</v>
       </c>
       <c r="L106">
         <v>568436400</v>
@@ -5693,13 +5693,13 @@
         <v>2278100</v>
       </c>
       <c r="N106">
-        <v>31305533000</v>
+        <v>17851700300</v>
       </c>
       <c r="O106">
         <v>-46298800</v>
       </c>
       <c r="P106">
-        <v>-521666155000</v>
+        <v>-551406285100</v>
       </c>
     </row>
     <row r="107">
@@ -5716,25 +5716,25 @@
         <v>47700</v>
       </c>
       <c r="E107">
-        <v>55450753000</v>
+        <v>41855561800</v>
       </c>
       <c r="F107">
-        <v>51645681000</v>
+        <v>38127113100</v>
       </c>
       <c r="G107">
-        <v>649945000</v>
+        <v>573521500</v>
       </c>
       <c r="H107">
         <v>6106900</v>
       </c>
       <c r="I107">
-        <v>107746379000</v>
+        <v>80556196400</v>
       </c>
       <c r="J107" t="str">
         <v>2022-12-12T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>10127730208000</v>
+        <v>9068486012500</v>
       </c>
       <c r="L107">
         <v>574543300</v>
@@ -5743,13 +5743,13 @@
         <v>-240800</v>
       </c>
       <c r="N107">
-        <v>-3805072000</v>
+        <v>-3728448700</v>
       </c>
       <c r="O107">
         <v>-46539600</v>
       </c>
       <c r="P107">
-        <v>-525471227000</v>
+        <v>-555134733800</v>
       </c>
     </row>
     <row r="108">
@@ -5766,10 +5766,10 @@
         <v>35600</v>
       </c>
       <c r="E108">
-        <v>126424729000</v>
+        <v>110169400600</v>
       </c>
       <c r="F108">
-        <v>32936474000</v>
+        <v>30365447600</v>
       </c>
       <c r="G108">
         <v>670853000</v>
@@ -5778,13 +5778,13 @@
         <v>9021300</v>
       </c>
       <c r="I108">
-        <v>160032056000</v>
+        <v>141205701200</v>
       </c>
       <c r="J108" t="str">
         <v>2022-12-12T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>10287762264000</v>
+        <v>9209691713700</v>
       </c>
       <c r="L108">
         <v>583564600</v>
@@ -5793,13 +5793,13 @@
         <v>-5160500</v>
       </c>
       <c r="N108">
-        <v>-93488255000</v>
+        <v>-79803953000</v>
       </c>
       <c r="O108">
         <v>-51700100</v>
       </c>
       <c r="P108">
-        <v>-618959482000</v>
+        <v>-634938686800</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>153000</v>
       </c>
       <c r="E109">
-        <v>132015030000</v>
+        <v>105431540100</v>
       </c>
       <c r="F109">
-        <v>41231143000</v>
+        <v>35527452400</v>
       </c>
       <c r="G109">
-        <v>2070804000</v>
+        <v>2063811000</v>
       </c>
       <c r="H109">
         <v>9331600</v>
       </c>
       <c r="I109">
-        <v>175316977000</v>
+        <v>143022803500</v>
       </c>
       <c r="J109" t="str">
         <v>2022-12-12T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>10463079241000</v>
+        <v>9352714517200</v>
       </c>
       <c r="L109">
         <v>592896200</v>
@@ -5843,13 +5843,13 @@
         <v>-5106400</v>
       </c>
       <c r="N109">
-        <v>-90783887000</v>
+        <v>-69904087700</v>
       </c>
       <c r="O109">
         <v>-56806500</v>
       </c>
       <c r="P109">
-        <v>-709743369000</v>
+        <v>-704842774500</v>
       </c>
     </row>
     <row r="110">
@@ -5866,25 +5866,25 @@
         <v>612900</v>
       </c>
       <c r="E110">
-        <v>263372624000</v>
+        <v>244628087300</v>
       </c>
       <c r="F110">
-        <v>64949803000</v>
+        <v>59810247700</v>
       </c>
       <c r="G110">
-        <v>9833074000</v>
+        <v>9826780300</v>
       </c>
       <c r="H110">
         <v>19611200</v>
       </c>
       <c r="I110">
-        <v>338155501000</v>
+        <v>314265115300</v>
       </c>
       <c r="J110" t="str">
         <v>2022-12-12T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>10801234742000</v>
+        <v>9666979632500</v>
       </c>
       <c r="L110">
         <v>612507400</v>
@@ -5893,13 +5893,13 @@
         <v>-12167300</v>
       </c>
       <c r="N110">
-        <v>-198422821000</v>
+        <v>-184817839600</v>
       </c>
       <c r="O110">
         <v>-68973800</v>
       </c>
       <c r="P110">
-        <v>-908166190000</v>
+        <v>-889660614100</v>
       </c>
     </row>
     <row r="111">
@@ -5916,25 +5916,25 @@
         <v>279400</v>
       </c>
       <c r="E111">
-        <v>390204251000</v>
+        <v>348861235400</v>
       </c>
       <c r="F111">
-        <v>101252363000</v>
+        <v>92412311900</v>
       </c>
       <c r="G111">
-        <v>4496009000</v>
+        <v>4289715500</v>
       </c>
       <c r="H111">
         <v>32270900</v>
       </c>
       <c r="I111">
-        <v>495952623000</v>
+        <v>445563262800</v>
       </c>
       <c r="J111" t="str">
         <v>2022-12-12T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>11297187365000</v>
+        <v>10112542895300</v>
       </c>
       <c r="L111">
         <v>644778300</v>
@@ -5943,13 +5943,13 @@
         <v>-19633900</v>
       </c>
       <c r="N111">
-        <v>-288951888000</v>
+        <v>-256448923500</v>
       </c>
       <c r="O111">
         <v>-88607700</v>
       </c>
       <c r="P111">
-        <v>-1197118078000</v>
+        <v>-1146109537600</v>
       </c>
     </row>
     <row r="112">
@@ -5966,25 +5966,25 @@
         <v>281100</v>
       </c>
       <c r="E112">
-        <v>246062559000</v>
+        <v>216404746500</v>
       </c>
       <c r="F112">
-        <v>81624242000</v>
+        <v>74377296200</v>
       </c>
       <c r="G112">
-        <v>3098527000</v>
+        <v>2822603200</v>
       </c>
       <c r="H112">
         <v>21490900</v>
       </c>
       <c r="I112">
-        <v>330785328000</v>
+        <v>293604645900</v>
       </c>
       <c r="J112" t="str">
         <v>2022-12-12T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>11627972693000</v>
+        <v>10406147541200</v>
       </c>
       <c r="L112">
         <v>666269200</v>
@@ -5993,13 +5993,13 @@
         <v>-10539400</v>
       </c>
       <c r="N112">
-        <v>-164438317000</v>
+        <v>-142027450300</v>
       </c>
       <c r="O112">
         <v>-99147100</v>
       </c>
       <c r="P112">
-        <v>-1361556395000</v>
+        <v>-1288136987900</v>
       </c>
     </row>
     <row r="113">
@@ -6016,25 +6016,25 @@
         <v>91600</v>
       </c>
       <c r="E113">
-        <v>164423831000</v>
+        <v>152816549900</v>
       </c>
       <c r="F113">
-        <v>97817335000</v>
+        <v>92113045000</v>
       </c>
       <c r="G113">
-        <v>1500141000</v>
+        <v>1455685500</v>
       </c>
       <c r="H113">
         <v>16480700</v>
       </c>
       <c r="I113">
-        <v>263741307000</v>
+        <v>246385280400</v>
       </c>
       <c r="J113" t="str">
         <v>2022-12-12T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>11891714000000</v>
+        <v>10652532821600</v>
       </c>
       <c r="L113">
         <v>682749900</v>
@@ -6043,13 +6043,13 @@
         <v>-3570500</v>
       </c>
       <c r="N113">
-        <v>-66606496000</v>
+        <v>-60703504900</v>
       </c>
       <c r="O113">
         <v>-102717600</v>
       </c>
       <c r="P113">
-        <v>-1428162891000</v>
+        <v>-1348840492800</v>
       </c>
     </row>
     <row r="114">
@@ -6066,25 +6066,25 @@
         <v>60100</v>
       </c>
       <c r="E114">
-        <v>152634679000</v>
+        <v>144546275500</v>
       </c>
       <c r="F114">
-        <v>117496079000</v>
+        <v>110443838300</v>
       </c>
       <c r="G114">
-        <v>1066085000</v>
+        <v>988562600</v>
       </c>
       <c r="H114">
         <v>16528800</v>
       </c>
       <c r="I114">
-        <v>271196843000</v>
+        <v>255978676400</v>
       </c>
       <c r="J114" t="str">
         <v>2022-12-12T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>12162910843000</v>
+        <v>10908511498000</v>
       </c>
       <c r="L114">
         <v>699278700</v>
@@ -6093,13 +6093,13 @@
         <v>-1933700</v>
       </c>
       <c r="N114">
-        <v>-35138600000</v>
+        <v>-34102437200</v>
       </c>
       <c r="O114">
         <v>-104651300</v>
       </c>
       <c r="P114">
-        <v>-1463301491000</v>
+        <v>-1382942930000</v>
       </c>
     </row>
     <row r="115">
@@ -6116,10 +6116,10 @@
         <v>140300</v>
       </c>
       <c r="E115">
-        <v>111941641000</v>
+        <v>106694593300</v>
       </c>
       <c r="F115">
-        <v>158686918000</v>
+        <v>144792026800</v>
       </c>
       <c r="G115">
         <v>1970022000</v>
@@ -6128,13 +6128,13 @@
         <v>16976100</v>
       </c>
       <c r="I115">
-        <v>272598581000</v>
+        <v>253456642100</v>
       </c>
       <c r="J115" t="str">
         <v>2022-12-12T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>12435509424000</v>
+        <v>11161968140100</v>
       </c>
       <c r="L115">
         <v>716254800</v>
@@ -6143,13 +6143,13 @@
         <v>3404200</v>
       </c>
       <c r="N115">
-        <v>46745277000</v>
+        <v>38097433500</v>
       </c>
       <c r="O115">
         <v>-101247100</v>
       </c>
       <c r="P115">
-        <v>-1416556214000</v>
+        <v>-1344845496500</v>
       </c>
     </row>
     <row r="116">
@@ -6169,7 +6169,7 @@
         <v>338720000</v>
       </c>
       <c r="F116">
-        <v>586290000</v>
+        <v>579297000</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -6178,13 +6178,13 @@
         <v>52600</v>
       </c>
       <c r="I116">
-        <v>925010000</v>
+        <v>918017000</v>
       </c>
       <c r="J116" t="str">
         <v>2022-12-12T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>12436434434000</v>
+        <v>11162886157100</v>
       </c>
       <c r="L116">
         <v>716307400</v>
@@ -6193,13 +6193,13 @@
         <v>9200</v>
       </c>
       <c r="N116">
-        <v>247570000</v>
+        <v>240577000</v>
       </c>
       <c r="O116">
         <v>-101237900</v>
       </c>
       <c r="P116">
-        <v>-1416308644000</v>
+        <v>-1344604919500</v>
       </c>
     </row>
     <row r="117">
@@ -6234,7 +6234,7 @@
         <v>2022-12-12T14:32:00.000Z</v>
       </c>
       <c r="K117">
-        <v>12436436474000</v>
+        <v>11162888197100</v>
       </c>
       <c r="L117">
         <v>716307600</v>
@@ -6249,7 +6249,7 @@
         <v>-101238100</v>
       </c>
       <c r="P117">
-        <v>-1416310684000</v>
+        <v>-1344606959500</v>
       </c>
     </row>
     <row r="118">
@@ -6284,7 +6284,7 @@
         <v>2022-12-12T14:34:00.000Z</v>
       </c>
       <c r="K118">
-        <v>12436438514000</v>
+        <v>11162890237100</v>
       </c>
       <c r="L118">
         <v>716307800</v>
@@ -6299,7 +6299,7 @@
         <v>-101238200</v>
       </c>
       <c r="P118">
-        <v>-1416311704000</v>
+        <v>-1344607979500</v>
       </c>
     </row>
     <row r="119">
@@ -6334,7 +6334,7 @@
         <v>2022-12-12T14:38:00.000Z</v>
       </c>
       <c r="K119">
-        <v>12436441574000</v>
+        <v>11162893297100</v>
       </c>
       <c r="L119">
         <v>716308100</v>
@@ -6349,7 +6349,7 @@
         <v>-101237900</v>
       </c>
       <c r="P119">
-        <v>-1416308644000</v>
+        <v>-1344604919500</v>
       </c>
     </row>
     <row r="120">
@@ -6384,7 +6384,7 @@
         <v>2022-12-12T14:40:00.000Z</v>
       </c>
       <c r="K120">
-        <v>12436501754000</v>
+        <v>11162953477100</v>
       </c>
       <c r="L120">
         <v>716314000</v>
@@ -6399,7 +6399,7 @@
         <v>-101232000</v>
       </c>
       <c r="P120">
-        <v>-1416248464000</v>
+        <v>-1344544739500</v>
       </c>
     </row>
     <row r="121">
@@ -6416,25 +6416,25 @@
         <v>29686300</v>
       </c>
       <c r="E121">
-        <v>321039560000</v>
+        <v>296561063000</v>
       </c>
       <c r="F121">
-        <v>221599934000</v>
+        <v>168586200800</v>
       </c>
       <c r="G121">
-        <v>480267666000</v>
+        <v>439128746100</v>
       </c>
       <c r="H121">
         <v>58020700</v>
       </c>
       <c r="I121">
-        <v>1022907160000</v>
+        <v>904276009900</v>
       </c>
       <c r="J121" t="str">
         <v>2022-12-12T14:44:00.000Z</v>
       </c>
       <c r="K121">
-        <v>13459408914000</v>
+        <v>12067229487000</v>
       </c>
       <c r="L121">
         <v>774334700</v>
@@ -6443,13 +6443,13 @@
         <v>-1779600</v>
       </c>
       <c r="N121">
-        <v>-99439626000</v>
+        <v>-127974862200</v>
       </c>
       <c r="O121">
         <v>-103011600</v>
       </c>
       <c r="P121">
-        <v>-1515688090000</v>
+        <v>-1472519601700</v>
       </c>
     </row>
     <row r="122">
@@ -6484,7 +6484,7 @@
         <v>2022-12-12T14:54:00.000Z</v>
       </c>
       <c r="K122">
-        <v>13459409934000</v>
+        <v>12067230507000</v>
       </c>
       <c r="L122">
         <v>774334800</v>
@@ -6499,7 +6499,7 @@
         <v>-103011700</v>
       </c>
       <c r="P122">
-        <v>-1515689110000</v>
+        <v>-1472520621700</v>
       </c>
     </row>
     <row r="123">
@@ -6534,7 +6534,7 @@
         <v>2022-12-12T14:58:00.000Z</v>
       </c>
       <c r="K123">
-        <v>13459418014000</v>
+        <v>12067238587000</v>
       </c>
       <c r="L123">
         <v>774335600</v>
@@ -6549,7 +6549,7 @@
         <v>-103012500</v>
       </c>
       <c r="P123">
-        <v>-1515697190000</v>
+        <v>-1472528701700</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20221212/VNINDEX_HOSE_5p_20221212.xlsx
+++ b/name/vnindex/20221212/VNINDEX_HOSE_5p_20221212.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P123"/>
+  <dimension ref="A1:AC123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>-3000</v>
       </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>3000</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>300</v>
+      </c>
+      <c r="U2">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V2">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W2">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X2">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y2">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z2">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA2">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB2">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>-5122211100</v>
       </c>
+      <c r="Q3">
+        <v>34913538300</v>
+      </c>
+      <c r="R3">
+        <v>40035749400</v>
+      </c>
+      <c r="S3">
+        <v>2497400</v>
+      </c>
+      <c r="T3">
+        <v>2915000</v>
+      </c>
+      <c r="U3">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V3">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W3">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X3">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y3">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z3">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA3">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB3">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC3">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>-864585400</v>
       </c>
+      <c r="Q4">
+        <v>86275738700</v>
+      </c>
+      <c r="R4">
+        <v>87140324100</v>
+      </c>
+      <c r="S4">
+        <v>6338900</v>
+      </c>
+      <c r="T4">
+        <v>6027300</v>
+      </c>
+      <c r="U4">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V4">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W4">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X4">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y4">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z4">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA4">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB4">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC4">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>156421400</v>
       </c>
+      <c r="Q5">
+        <v>151102107000</v>
+      </c>
+      <c r="R5">
+        <v>150945685600</v>
+      </c>
+      <c r="S5">
+        <v>10882200</v>
+      </c>
+      <c r="T5">
+        <v>10118200</v>
+      </c>
+      <c r="U5">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V5">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W5">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X5">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y5">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z5">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA5">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB5">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC5">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>-33831457000</v>
       </c>
+      <c r="Q6">
+        <v>187719610000</v>
+      </c>
+      <c r="R6">
+        <v>221551067000</v>
+      </c>
+      <c r="S6">
+        <v>13450900</v>
+      </c>
+      <c r="T6">
+        <v>15161500</v>
+      </c>
+      <c r="U6">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V6">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W6">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X6">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y6">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z6">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA6">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB6">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC6">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>-49300185800</v>
       </c>
+      <c r="Q7">
+        <v>218100893700</v>
+      </c>
+      <c r="R7">
+        <v>267401079500</v>
+      </c>
+      <c r="S7">
+        <v>15134700</v>
+      </c>
+      <c r="T7">
+        <v>18372400</v>
+      </c>
+      <c r="U7">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V7">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W7">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X7">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y7">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z7">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA7">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB7">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC7">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>-38314805000</v>
       </c>
+      <c r="Q8">
+        <v>258187438400</v>
+      </c>
+      <c r="R8">
+        <v>296502243400</v>
+      </c>
+      <c r="S8">
+        <v>17567600</v>
+      </c>
+      <c r="T8">
+        <v>20330400</v>
+      </c>
+      <c r="U8">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V8">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W8">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X8">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y8">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z8">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA8">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB8">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC8">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-37610052600</v>
       </c>
+      <c r="Q9">
+        <v>290502722300</v>
+      </c>
+      <c r="R9">
+        <v>328112774900</v>
+      </c>
+      <c r="S9">
+        <v>19547900</v>
+      </c>
+      <c r="T9">
+        <v>22288500</v>
+      </c>
+      <c r="U9">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V9">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W9">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X9">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y9">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z9">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA9">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB9">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC9">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>-21008626100</v>
       </c>
+      <c r="Q10">
+        <v>332016791100</v>
+      </c>
+      <c r="R10">
+        <v>353025417200</v>
+      </c>
+      <c r="S10">
+        <v>22274700</v>
+      </c>
+      <c r="T10">
+        <v>23919900</v>
+      </c>
+      <c r="U10">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V10">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W10">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X10">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y10">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z10">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA10">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB10">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC10">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>-6193781500</v>
       </c>
+      <c r="Q11">
+        <v>383319461600</v>
+      </c>
+      <c r="R11">
+        <v>389513243100</v>
+      </c>
+      <c r="S11">
+        <v>25788800</v>
+      </c>
+      <c r="T11">
+        <v>26452400</v>
+      </c>
+      <c r="U11">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V11">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W11">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X11">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y11">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z11">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA11">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB11">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC11">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>21784405300</v>
       </c>
+      <c r="Q12">
+        <v>441010823700</v>
+      </c>
+      <c r="R12">
+        <v>419226418400</v>
+      </c>
+      <c r="S12">
+        <v>29160400</v>
+      </c>
+      <c r="T12">
+        <v>28500700</v>
+      </c>
+      <c r="U12">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V12">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W12">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X12">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y12">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z12">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA12">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB12">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC12">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>34279795100</v>
       </c>
+      <c r="Q13">
+        <v>495272276700</v>
+      </c>
+      <c r="R13">
+        <v>460992481600</v>
+      </c>
+      <c r="S13">
+        <v>32460400</v>
+      </c>
+      <c r="T13">
+        <v>31161000</v>
+      </c>
+      <c r="U13">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V13">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W13">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X13">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y13">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z13">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA13">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB13">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>39355783800</v>
       </c>
+      <c r="Q14">
+        <v>546059296600</v>
+      </c>
+      <c r="R14">
+        <v>506703512800</v>
+      </c>
+      <c r="S14">
+        <v>35796500</v>
+      </c>
+      <c r="T14">
+        <v>33979800</v>
+      </c>
+      <c r="U14">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V14">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W14">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X14">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y14">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z14">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA14">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB14">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC14">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>58344568400</v>
       </c>
+      <c r="Q15">
+        <v>608324769300</v>
+      </c>
+      <c r="R15">
+        <v>549980200900</v>
+      </c>
+      <c r="S15">
+        <v>39552000</v>
+      </c>
+      <c r="T15">
+        <v>36477400</v>
+      </c>
+      <c r="U15">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V15">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W15">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X15">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y15">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z15">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA15">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB15">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC15">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>57650885300</v>
       </c>
+      <c r="Q16">
+        <v>655947006000</v>
+      </c>
+      <c r="R16">
+        <v>598296120700</v>
+      </c>
+      <c r="S16">
+        <v>43118900</v>
+      </c>
+      <c r="T16">
+        <v>38958900</v>
+      </c>
+      <c r="U16">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V16">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W16">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X16">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y16">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z16">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA16">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB16">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC16">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>68110993500</v>
       </c>
+      <c r="Q17">
+        <v>709100748200</v>
+      </c>
+      <c r="R17">
+        <v>640989754700</v>
+      </c>
+      <c r="S17">
+        <v>46269300</v>
+      </c>
+      <c r="T17">
+        <v>41548300</v>
+      </c>
+      <c r="U17">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V17">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W17">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X17">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y17">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z17">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA17">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB17">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC17">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>89817499300</v>
       </c>
+      <c r="Q18">
+        <v>769348442000</v>
+      </c>
+      <c r="R18">
+        <v>679530942700</v>
+      </c>
+      <c r="S18">
+        <v>49605900</v>
+      </c>
+      <c r="T18">
+        <v>43822900</v>
+      </c>
+      <c r="U18">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V18">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W18">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X18">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y18">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z18">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA18">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB18">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC18">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>91822207000</v>
       </c>
+      <c r="Q19">
+        <v>821521792500</v>
+      </c>
+      <c r="R19">
+        <v>729699585500</v>
+      </c>
+      <c r="S19">
+        <v>52451200</v>
+      </c>
+      <c r="T19">
+        <v>46603400</v>
+      </c>
+      <c r="U19">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V19">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W19">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X19">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y19">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z19">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA19">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB19">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC19">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>94058278100</v>
       </c>
+      <c r="Q20">
+        <v>863411811400</v>
+      </c>
+      <c r="R20">
+        <v>769353533300</v>
+      </c>
+      <c r="S20">
+        <v>55010800</v>
+      </c>
+      <c r="T20">
+        <v>48849000</v>
+      </c>
+      <c r="U20">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V20">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W20">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X20">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y20">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z20">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA20">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB20">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC20">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>93459065700</v>
       </c>
+      <c r="Q21">
+        <v>898194990100</v>
+      </c>
+      <c r="R21">
+        <v>804735924400</v>
+      </c>
+      <c r="S21">
+        <v>57214900</v>
+      </c>
+      <c r="T21">
+        <v>51036700</v>
+      </c>
+      <c r="U21">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V21">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W21">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X21">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y21">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z21">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA21">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB21">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>89685655800</v>
       </c>
+      <c r="Q22">
+        <v>945001365800</v>
+      </c>
+      <c r="R22">
+        <v>855315710000</v>
+      </c>
+      <c r="S22">
+        <v>59973900</v>
+      </c>
+      <c r="T22">
+        <v>54390100</v>
+      </c>
+      <c r="U22">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V22">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W22">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X22">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y22">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z22">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA22">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB22">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC22">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>78034294900</v>
       </c>
+      <c r="Q23">
+        <v>974123389000</v>
+      </c>
+      <c r="R23">
+        <v>896089094100</v>
+      </c>
+      <c r="S23">
+        <v>61811200</v>
+      </c>
+      <c r="T23">
+        <v>56639300</v>
+      </c>
+      <c r="U23">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V23">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W23">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X23">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y23">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z23">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA23">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB23">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>69359128900</v>
       </c>
+      <c r="Q24">
+        <v>1009054357300</v>
+      </c>
+      <c r="R24">
+        <v>939695228400</v>
+      </c>
+      <c r="S24">
+        <v>64001200</v>
+      </c>
+      <c r="T24">
+        <v>59419400</v>
+      </c>
+      <c r="U24">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V24">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W24">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X24">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y24">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z24">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA24">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB24">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC24">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>86291138100</v>
       </c>
+      <c r="Q25">
+        <v>1062481206400</v>
+      </c>
+      <c r="R25">
+        <v>976190068300</v>
+      </c>
+      <c r="S25">
+        <v>66668800</v>
+      </c>
+      <c r="T25">
+        <v>61610600</v>
+      </c>
+      <c r="U25">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V25">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W25">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X25">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y25">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z25">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA25">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB25">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC25">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>101739806900</v>
       </c>
+      <c r="Q26">
+        <v>1107563814300</v>
+      </c>
+      <c r="R26">
+        <v>1005824007400</v>
+      </c>
+      <c r="S26">
+        <v>69596900</v>
+      </c>
+      <c r="T26">
+        <v>63248500</v>
+      </c>
+      <c r="U26">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V26">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W26">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X26">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y26">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z26">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA26">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB26">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC26">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>114867469900</v>
       </c>
+      <c r="Q27">
+        <v>1144696017500</v>
+      </c>
+      <c r="R27">
+        <v>1029828547600</v>
+      </c>
+      <c r="S27">
+        <v>73041900</v>
+      </c>
+      <c r="T27">
+        <v>64658100</v>
+      </c>
+      <c r="U27">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V27">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W27">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X27">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y27">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z27">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA27">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB27">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC27">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>122362484000</v>
       </c>
+      <c r="Q28">
+        <v>1186803962600</v>
+      </c>
+      <c r="R28">
+        <v>1064441478600</v>
+      </c>
+      <c r="S28">
+        <v>75974800</v>
+      </c>
+      <c r="T28">
+        <v>66708900</v>
+      </c>
+      <c r="U28">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V28">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W28">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X28">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y28">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z28">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA28">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB28">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC28">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>158186968300</v>
       </c>
+      <c r="Q29">
+        <v>1249059540600</v>
+      </c>
+      <c r="R29">
+        <v>1090872572300</v>
+      </c>
+      <c r="S29">
+        <v>79442600</v>
+      </c>
+      <c r="T29">
+        <v>68491400</v>
+      </c>
+      <c r="U29">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V29">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W29">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X29">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y29">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z29">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA29">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB29">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC29">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>210235541700</v>
       </c>
+      <c r="Q30">
+        <v>1333067224300</v>
+      </c>
+      <c r="R30">
+        <v>1122831682600</v>
+      </c>
+      <c r="S30">
+        <v>85000400</v>
+      </c>
+      <c r="T30">
+        <v>70660800</v>
+      </c>
+      <c r="U30">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V30">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W30">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X30">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y30">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z30">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA30">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB30">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC30">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>272639472300</v>
       </c>
+      <c r="Q31">
+        <v>1426817123200</v>
+      </c>
+      <c r="R31">
+        <v>1154177650900</v>
+      </c>
+      <c r="S31">
+        <v>90698400</v>
+      </c>
+      <c r="T31">
+        <v>72569400</v>
+      </c>
+      <c r="U31">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V31">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W31">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X31">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y31">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z31">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA31">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB31">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC31">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>274548788500</v>
       </c>
+      <c r="Q32">
+        <v>1480161573900</v>
+      </c>
+      <c r="R32">
+        <v>1205612785400</v>
+      </c>
+      <c r="S32">
+        <v>93910100</v>
+      </c>
+      <c r="T32">
+        <v>75483400</v>
+      </c>
+      <c r="U32">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V32">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W32">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X32">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y32">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z32">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA32">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB32">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC32">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>264489684800</v>
       </c>
+      <c r="Q33">
+        <v>1505636386000</v>
+      </c>
+      <c r="R33">
+        <v>1241146701200</v>
+      </c>
+      <c r="S33">
+        <v>95546200</v>
+      </c>
+      <c r="T33">
+        <v>77962900</v>
+      </c>
+      <c r="U33">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V33">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W33">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X33">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y33">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z33">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA33">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB33">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC33">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>260131509000</v>
       </c>
+      <c r="Q34">
+        <v>1528253363500</v>
+      </c>
+      <c r="R34">
+        <v>1268121854500</v>
+      </c>
+      <c r="S34">
+        <v>96955900</v>
+      </c>
+      <c r="T34">
+        <v>79475800</v>
+      </c>
+      <c r="U34">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V34">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W34">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X34">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y34">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z34">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA34">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB34">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC34">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>264262653300</v>
       </c>
+      <c r="Q35">
+        <v>1564410001000</v>
+      </c>
+      <c r="R35">
+        <v>1300147347700</v>
+      </c>
+      <c r="S35">
+        <v>98857400</v>
+      </c>
+      <c r="T35">
+        <v>81382500</v>
+      </c>
+      <c r="U35">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V35">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W35">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X35">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y35">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z35">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA35">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB35">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC35">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>270466701800</v>
       </c>
+      <c r="Q36">
+        <v>1591185726200</v>
+      </c>
+      <c r="R36">
+        <v>1320719024400</v>
+      </c>
+      <c r="S36">
+        <v>100393100</v>
+      </c>
+      <c r="T36">
+        <v>82704500</v>
+      </c>
+      <c r="U36">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V36">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W36">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X36">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y36">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z36">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA36">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB36">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC36">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>270279477300</v>
       </c>
+      <c r="Q37">
+        <v>1611891983200</v>
+      </c>
+      <c r="R37">
+        <v>1341612505900</v>
+      </c>
+      <c r="S37">
+        <v>101563600</v>
+      </c>
+      <c r="T37">
+        <v>84186100</v>
+      </c>
+      <c r="U37">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V37">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W37">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X37">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y37">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z37">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA37">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB37">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>279414816200</v>
       </c>
+      <c r="Q38">
+        <v>1649016929600</v>
+      </c>
+      <c r="R38">
+        <v>1369602113400</v>
+      </c>
+      <c r="S38">
+        <v>103434300</v>
+      </c>
+      <c r="T38">
+        <v>86067500</v>
+      </c>
+      <c r="U38">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V38">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W38">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X38">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y38">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z38">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA38">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB38">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC38">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>301435052400</v>
       </c>
+      <c r="Q39">
+        <v>1691655829400</v>
+      </c>
+      <c r="R39">
+        <v>1390220777000</v>
+      </c>
+      <c r="S39">
+        <v>106007600</v>
+      </c>
+      <c r="T39">
+        <v>87464400</v>
+      </c>
+      <c r="U39">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V39">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W39">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X39">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y39">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z39">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA39">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB39">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC39">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>338874844500</v>
       </c>
+      <c r="Q40">
+        <v>1745714959000</v>
+      </c>
+      <c r="R40">
+        <v>1406840114500</v>
+      </c>
+      <c r="S40">
+        <v>109285600</v>
+      </c>
+      <c r="T40">
+        <v>88410800</v>
+      </c>
+      <c r="U40">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V40">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W40">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X40">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y40">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z40">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA40">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB40">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC40">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>382577869900</v>
       </c>
+      <c r="Q41">
+        <v>1812549519800</v>
+      </c>
+      <c r="R41">
+        <v>1429971649900</v>
+      </c>
+      <c r="S41">
+        <v>112785700</v>
+      </c>
+      <c r="T41">
+        <v>89841200</v>
+      </c>
+      <c r="U41">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V41">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W41">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X41">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y41">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z41">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA41">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB41">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC41">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>423485010500</v>
       </c>
+      <c r="Q42">
+        <v>1874414796800</v>
+      </c>
+      <c r="R42">
+        <v>1450929786300</v>
+      </c>
+      <c r="S42">
+        <v>116351900</v>
+      </c>
+      <c r="T42">
+        <v>90868900</v>
+      </c>
+      <c r="U42">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V42">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W42">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X42">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y42">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z42">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA42">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB42">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC42">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>454658429900</v>
       </c>
+      <c r="Q43">
+        <v>1930982758600</v>
+      </c>
+      <c r="R43">
+        <v>1476324328700</v>
+      </c>
+      <c r="S43">
+        <v>119506300</v>
+      </c>
+      <c r="T43">
+        <v>92263800</v>
+      </c>
+      <c r="U43">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V43">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W43">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X43">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y43">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z43">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA43">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB43">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC43">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>531345144600</v>
       </c>
+      <c r="Q44">
+        <v>2035637680400</v>
+      </c>
+      <c r="R44">
+        <v>1504292535800</v>
+      </c>
+      <c r="S44">
+        <v>125813400</v>
+      </c>
+      <c r="T44">
+        <v>93899000</v>
+      </c>
+      <c r="U44">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V44">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W44">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X44">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y44">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z44">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA44">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB44">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC44">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>570901054800</v>
       </c>
+      <c r="Q45">
+        <v>2102599084800</v>
+      </c>
+      <c r="R45">
+        <v>1531698030000</v>
+      </c>
+      <c r="S45">
+        <v>129883500</v>
+      </c>
+      <c r="T45">
+        <v>95509200</v>
+      </c>
+      <c r="U45">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V45">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W45">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X45">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y45">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z45">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA45">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB45">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC45">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>610757364100</v>
       </c>
+      <c r="Q46">
+        <v>2163196165800</v>
+      </c>
+      <c r="R46">
+        <v>1552438801700</v>
+      </c>
+      <c r="S46">
+        <v>133998400</v>
+      </c>
+      <c r="T46">
+        <v>96892300</v>
+      </c>
+      <c r="U46">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V46">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W46">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X46">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y46">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z46">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA46">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB46">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC46">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>622619467300</v>
       </c>
+      <c r="Q47">
+        <v>2202239560800</v>
+      </c>
+      <c r="R47">
+        <v>1579620093500</v>
+      </c>
+      <c r="S47">
+        <v>137312900</v>
+      </c>
+      <c r="T47">
+        <v>98718000</v>
+      </c>
+      <c r="U47">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V47">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W47">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X47">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y47">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z47">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA47">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB47">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>612640010300</v>
       </c>
+      <c r="Q48">
+        <v>2236346769200</v>
+      </c>
+      <c r="R48">
+        <v>1623706758900</v>
+      </c>
+      <c r="S48">
+        <v>139338400</v>
+      </c>
+      <c r="T48">
+        <v>101452200</v>
+      </c>
+      <c r="U48">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V48">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W48">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X48">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y48">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z48">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA48">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB48">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC48">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>619729202400</v>
       </c>
+      <c r="Q49">
+        <v>2268485141300</v>
+      </c>
+      <c r="R49">
+        <v>1648755938900</v>
+      </c>
+      <c r="S49">
+        <v>141092300</v>
+      </c>
+      <c r="T49">
+        <v>103272600</v>
+      </c>
+      <c r="U49">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V49">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W49">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X49">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y49">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z49">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA49">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB49">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC49">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>603910169600</v>
       </c>
+      <c r="Q50">
+        <v>2289751690400</v>
+      </c>
+      <c r="R50">
+        <v>1685841520800</v>
+      </c>
+      <c r="S50">
+        <v>142357200</v>
+      </c>
+      <c r="T50">
+        <v>105592100</v>
+      </c>
+      <c r="U50">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V50">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W50">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X50">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y50">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z50">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA50">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB50">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC50">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>603459483800</v>
       </c>
+      <c r="Q51">
+        <v>2313163056200</v>
+      </c>
+      <c r="R51">
+        <v>1709703572400</v>
+      </c>
+      <c r="S51">
+        <v>143639800</v>
+      </c>
+      <c r="T51">
+        <v>107152600</v>
+      </c>
+      <c r="U51">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V51">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W51">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X51">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y51">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z51">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA51">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB51">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>620401521900</v>
       </c>
+      <c r="Q52">
+        <v>2351623034000</v>
+      </c>
+      <c r="R52">
+        <v>1731221512100</v>
+      </c>
+      <c r="S52">
+        <v>145587900</v>
+      </c>
+      <c r="T52">
+        <v>109167700</v>
+      </c>
+      <c r="U52">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V52">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W52">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X52">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y52">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z52">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA52">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB52">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC52">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>653585033700</v>
       </c>
+      <c r="Q53">
+        <v>2403088172400</v>
+      </c>
+      <c r="R53">
+        <v>1749503138700</v>
+      </c>
+      <c r="S53">
+        <v>148508600</v>
+      </c>
+      <c r="T53">
+        <v>110300800</v>
+      </c>
+      <c r="U53">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V53">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W53">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X53">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y53">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z53">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA53">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB53">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC53">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>690272017400</v>
       </c>
+      <c r="Q54">
+        <v>2451915601600</v>
+      </c>
+      <c r="R54">
+        <v>1761643584200</v>
+      </c>
+      <c r="S54">
+        <v>151150000</v>
+      </c>
+      <c r="T54">
+        <v>111088000</v>
+      </c>
+      <c r="U54">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V54">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W54">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X54">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y54">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z54">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA54">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB54">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC54">
+        <v>3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>693345388000</v>
       </c>
+      <c r="Q55">
+        <v>2482751208600</v>
+      </c>
+      <c r="R55">
+        <v>1789405820600</v>
+      </c>
+      <c r="S55">
+        <v>153212700</v>
+      </c>
+      <c r="T55">
+        <v>112706800</v>
+      </c>
+      <c r="U55">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V55">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W55">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X55">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y55">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z55">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA55">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB55">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC55">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>677350378500</v>
       </c>
+      <c r="Q56">
+        <v>2505943059400</v>
+      </c>
+      <c r="R56">
+        <v>1828592680900</v>
+      </c>
+      <c r="S56">
+        <v>154750000</v>
+      </c>
+      <c r="T56">
+        <v>115070600</v>
+      </c>
+      <c r="U56">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V56">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W56">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X56">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y56">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z56">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA56">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB56">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC56">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>679357810900</v>
       </c>
+      <c r="Q57">
+        <v>2537944483700</v>
+      </c>
+      <c r="R57">
+        <v>1858586672800</v>
+      </c>
+      <c r="S57">
+        <v>156618600</v>
+      </c>
+      <c r="T57">
+        <v>117013600</v>
+      </c>
+      <c r="U57">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V57">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W57">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X57">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y57">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z57">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA57">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB57">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC57">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>673124977900</v>
       </c>
+      <c r="Q58">
+        <v>2564898703800</v>
+      </c>
+      <c r="R58">
+        <v>1891773725900</v>
+      </c>
+      <c r="S58">
+        <v>157994800</v>
+      </c>
+      <c r="T58">
+        <v>119197500</v>
+      </c>
+      <c r="U58">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V58">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W58">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X58">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y58">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z58">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA58">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB58">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC58">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>678319187700</v>
       </c>
+      <c r="Q59">
+        <v>2586028252500</v>
+      </c>
+      <c r="R59">
+        <v>1907709064800</v>
+      </c>
+      <c r="S59">
+        <v>159328400</v>
+      </c>
+      <c r="T59">
+        <v>120384300</v>
+      </c>
+      <c r="U59">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V59">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W59">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X59">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y59">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z59">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA59">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB59">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC59">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>688649228300</v>
       </c>
+      <c r="Q60">
+        <v>2618806179600</v>
+      </c>
+      <c r="R60">
+        <v>1930156951300</v>
+      </c>
+      <c r="S60">
+        <v>161057600</v>
+      </c>
+      <c r="T60">
+        <v>121934000</v>
+      </c>
+      <c r="U60">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V60">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W60">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X60">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y60">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z60">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA60">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB60">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC60">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>700883049200</v>
       </c>
+      <c r="Q61">
+        <v>2648291315400</v>
+      </c>
+      <c r="R61">
+        <v>1947408266200</v>
+      </c>
+      <c r="S61">
+        <v>162494100</v>
+      </c>
+      <c r="T61">
+        <v>123078300</v>
+      </c>
+      <c r="U61">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V61">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W61">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X61">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y61">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z61">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA61">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB61">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>710080045500</v>
       </c>
+      <c r="Q62">
+        <v>2674291322200</v>
+      </c>
+      <c r="R62">
+        <v>1964211276700</v>
+      </c>
+      <c r="S62">
+        <v>163948800</v>
+      </c>
+      <c r="T62">
+        <v>124074000</v>
+      </c>
+      <c r="U62">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V62">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W62">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X62">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y62">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z62">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA62">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB62">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC62">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>726258483000</v>
       </c>
+      <c r="Q63">
+        <v>2708609879700</v>
+      </c>
+      <c r="R63">
+        <v>1982351396700</v>
+      </c>
+      <c r="S63">
+        <v>165704800</v>
+      </c>
+      <c r="T63">
+        <v>125156800</v>
+      </c>
+      <c r="U63">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V63">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W63">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X63">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y63">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z63">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA63">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB63">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC63">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>740642956200</v>
       </c>
+      <c r="Q64">
+        <v>2743587835600</v>
+      </c>
+      <c r="R64">
+        <v>2002944879400</v>
+      </c>
+      <c r="S64">
+        <v>167605000</v>
+      </c>
+      <c r="T64">
+        <v>126399800</v>
+      </c>
+      <c r="U64">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V64">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W64">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X64">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y64">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z64">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA64">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB64">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC64">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>709991521200</v>
       </c>
+      <c r="Q65">
+        <v>2757230877200</v>
+      </c>
+      <c r="R65">
+        <v>2047239356000</v>
+      </c>
+      <c r="S65">
+        <v>168723100</v>
+      </c>
+      <c r="T65">
+        <v>129021700</v>
+      </c>
+      <c r="U65">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V65">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W65">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X65">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y65">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z65">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA65">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB65">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC65">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>641151197500</v>
       </c>
+      <c r="Q66">
+        <v>2766332108700</v>
+      </c>
+      <c r="R66">
+        <v>2125180911200</v>
+      </c>
+      <c r="S66">
+        <v>169911600</v>
+      </c>
+      <c r="T66">
+        <v>133896300</v>
+      </c>
+      <c r="U66">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V66">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W66">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X66">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y66">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z66">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA66">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB66">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC66">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>607395319100</v>
       </c>
+      <c r="Q67">
+        <v>2777006051000</v>
+      </c>
+      <c r="R67">
+        <v>2169610731900</v>
+      </c>
+      <c r="S67">
+        <v>171106700</v>
+      </c>
+      <c r="T67">
+        <v>136778400</v>
+      </c>
+      <c r="U67">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V67">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W67">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X67">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y67">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z67">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA67">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB67">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC67">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>599926273700</v>
       </c>
+      <c r="Q68">
+        <v>2795943965500</v>
+      </c>
+      <c r="R68">
+        <v>2196017691800</v>
+      </c>
+      <c r="S68">
+        <v>172302100</v>
+      </c>
+      <c r="T68">
+        <v>138696100</v>
+      </c>
+      <c r="U68">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V68">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W68">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X68">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y68">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z68">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA68">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB68">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC68">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>576999070700</v>
       </c>
+      <c r="Q69">
+        <v>2809455295000</v>
+      </c>
+      <c r="R69">
+        <v>2232456224300</v>
+      </c>
+      <c r="S69">
+        <v>173178400</v>
+      </c>
+      <c r="T69">
+        <v>140912300</v>
+      </c>
+      <c r="U69">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V69">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W69">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X69">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y69">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z69">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA69">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB69">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC69">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>561439211300</v>
       </c>
+      <c r="Q70">
+        <v>2821019941700</v>
+      </c>
+      <c r="R70">
+        <v>2259580730400</v>
+      </c>
+      <c r="S70">
+        <v>173861800</v>
+      </c>
+      <c r="T70">
+        <v>142466000</v>
+      </c>
+      <c r="U70">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V70">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W70">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X70">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y70">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z70">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA70">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB70">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC70">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>501371066200</v>
       </c>
+      <c r="Q71">
+        <v>2876206001700</v>
+      </c>
+      <c r="R71">
+        <v>2374834935500</v>
+      </c>
+      <c r="S71">
+        <v>177110300</v>
+      </c>
+      <c r="T71">
+        <v>150311600</v>
+      </c>
+      <c r="U71">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V71">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W71">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X71">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y71">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z71">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA71">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB71">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC71">
+        <v>5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>487861786800</v>
       </c>
+      <c r="Q72">
+        <v>2906436697000</v>
+      </c>
+      <c r="R72">
+        <v>2418574910200</v>
+      </c>
+      <c r="S72">
+        <v>178772300</v>
+      </c>
+      <c r="T72">
+        <v>153298800</v>
+      </c>
+      <c r="U72">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V72">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W72">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X72">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y72">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z72">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA72">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB72">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC72">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>489471853300</v>
       </c>
+      <c r="Q73">
+        <v>2947062237000</v>
+      </c>
+      <c r="R73">
+        <v>2457590383700</v>
+      </c>
+      <c r="S73">
+        <v>181156100</v>
+      </c>
+      <c r="T73">
+        <v>155753900</v>
+      </c>
+      <c r="U73">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V73">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W73">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X73">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y73">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z73">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA73">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB73">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC73">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>489760034200</v>
       </c>
+      <c r="Q74">
+        <v>2989345913200</v>
+      </c>
+      <c r="R74">
+        <v>2499585879000</v>
+      </c>
+      <c r="S74">
+        <v>183652500</v>
+      </c>
+      <c r="T74">
+        <v>158304400</v>
+      </c>
+      <c r="U74">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V74">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W74">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X74">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y74">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z74">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA74">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB74">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>499569401200</v>
       </c>
+      <c r="Q75">
+        <v>3037391455600</v>
+      </c>
+      <c r="R75">
+        <v>2537822054400</v>
+      </c>
+      <c r="S75">
+        <v>186121600</v>
+      </c>
+      <c r="T75">
+        <v>160728200</v>
+      </c>
+      <c r="U75">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V75">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W75">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X75">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y75">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z75">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA75">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB75">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC75">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>471837824300</v>
       </c>
+      <c r="Q76">
+        <v>3064059613800</v>
+      </c>
+      <c r="R76">
+        <v>2592221789500</v>
+      </c>
+      <c r="S76">
+        <v>187668300</v>
+      </c>
+      <c r="T76">
+        <v>164321400</v>
+      </c>
+      <c r="U76">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V76">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W76">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X76">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y76">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z76">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA76">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB76">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC76">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>397257393200</v>
       </c>
+      <c r="Q77">
+        <v>3089814354100</v>
+      </c>
+      <c r="R77">
+        <v>2692556960900</v>
+      </c>
+      <c r="S77">
+        <v>188962100</v>
+      </c>
+      <c r="T77">
+        <v>170650400</v>
+      </c>
+      <c r="U77">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V77">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W77">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X77">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y77">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z77">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA77">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB77">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC77">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>318213390500</v>
       </c>
+      <c r="Q78">
+        <v>3124902445800</v>
+      </c>
+      <c r="R78">
+        <v>2806689055300</v>
+      </c>
+      <c r="S78">
+        <v>190908300</v>
+      </c>
+      <c r="T78">
+        <v>178252500</v>
+      </c>
+      <c r="U78">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V78">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W78">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X78">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y78">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z78">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA78">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB78">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC78">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>245776913400</v>
       </c>
+      <c r="Q79">
+        <v>3152087051800</v>
+      </c>
+      <c r="R79">
+        <v>2906310138400</v>
+      </c>
+      <c r="S79">
+        <v>192699000</v>
+      </c>
+      <c r="T79">
+        <v>184789700</v>
+      </c>
+      <c r="U79">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V79">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W79">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X79">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y79">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z79">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA79">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB79">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC79">
+        <v>6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>246617335600</v>
       </c>
+      <c r="Q80">
+        <v>3204153051500</v>
+      </c>
+      <c r="R80">
+        <v>2957535715900</v>
+      </c>
+      <c r="S80">
+        <v>195977200</v>
+      </c>
+      <c r="T80">
+        <v>188051400</v>
+      </c>
+      <c r="U80">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V80">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W80">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X80">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y80">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z80">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA80">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB80">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC80">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>258975547400</v>
       </c>
+      <c r="Q81">
+        <v>3246064735400</v>
+      </c>
+      <c r="R81">
+        <v>2987089188000</v>
+      </c>
+      <c r="S81">
+        <v>198678300</v>
+      </c>
+      <c r="T81">
+        <v>189888200</v>
+      </c>
+      <c r="U81">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V81">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W81">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X81">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y81">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z81">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA81">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB81">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC81">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>241774681500</v>
       </c>
+      <c r="Q82">
+        <v>3272658068800</v>
+      </c>
+      <c r="R82">
+        <v>3030883387300</v>
+      </c>
+      <c r="S82">
+        <v>200385400</v>
+      </c>
+      <c r="T82">
+        <v>192632800</v>
+      </c>
+      <c r="U82">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V82">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W82">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X82">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y82">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z82">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA82">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB82">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC82">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>241564662300</v>
       </c>
+      <c r="Q83">
+        <v>3305805175200</v>
+      </c>
+      <c r="R83">
+        <v>3064240512900</v>
+      </c>
+      <c r="S83">
+        <v>202372100</v>
+      </c>
+      <c r="T83">
+        <v>194621700</v>
+      </c>
+      <c r="U83">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V83">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W83">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X83">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y83">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z83">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA83">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB83">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>239612241400</v>
       </c>
+      <c r="Q84">
+        <v>3338287450900</v>
+      </c>
+      <c r="R84">
+        <v>3098675209500</v>
+      </c>
+      <c r="S84">
+        <v>204502900</v>
+      </c>
+      <c r="T84">
+        <v>196882000</v>
+      </c>
+      <c r="U84">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V84">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W84">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X84">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y84">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z84">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA84">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB84">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC84">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>227364816600</v>
       </c>
+      <c r="Q85">
+        <v>3364528109800</v>
+      </c>
+      <c r="R85">
+        <v>3137163293200</v>
+      </c>
+      <c r="S85">
+        <v>206102700</v>
+      </c>
+      <c r="T85">
+        <v>199347700</v>
+      </c>
+      <c r="U85">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V85">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W85">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X85">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y85">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z85">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA85">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB85">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC85">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>181158575000</v>
       </c>
+      <c r="Q86">
+        <v>3389656836900</v>
+      </c>
+      <c r="R86">
+        <v>3208498261900</v>
+      </c>
+      <c r="S86">
+        <v>207563200</v>
+      </c>
+      <c r="T86">
+        <v>203343500</v>
+      </c>
+      <c r="U86">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V86">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W86">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X86">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y86">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z86">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA86">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB86">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC86">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>90844102000</v>
       </c>
+      <c r="Q87">
+        <v>3416097678500</v>
+      </c>
+      <c r="R87">
+        <v>3325253576500</v>
+      </c>
+      <c r="S87">
+        <v>209146700</v>
+      </c>
+      <c r="T87">
+        <v>210141300</v>
+      </c>
+      <c r="U87">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V87">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W87">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X87">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y87">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z87">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA87">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB87">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC87">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>60602957700</v>
       </c>
+      <c r="Q88">
+        <v>3447780014500</v>
+      </c>
+      <c r="R88">
+        <v>3387177056800</v>
+      </c>
+      <c r="S88">
+        <v>210813600</v>
+      </c>
+      <c r="T88">
+        <v>213934300</v>
+      </c>
+      <c r="U88">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V88">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W88">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X88">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y88">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z88">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA88">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB88">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC88">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>42489640700</v>
       </c>
+      <c r="Q89">
+        <v>3482617586500</v>
+      </c>
+      <c r="R89">
+        <v>3440127945800</v>
+      </c>
+      <c r="S89">
+        <v>212591200</v>
+      </c>
+      <c r="T89">
+        <v>217556200</v>
+      </c>
+      <c r="U89">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V89">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W89">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X89">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y89">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z89">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA89">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB89">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC89">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>39542564800</v>
       </c>
+      <c r="Q90">
+        <v>3518277053300</v>
+      </c>
+      <c r="R90">
+        <v>3478734488500</v>
+      </c>
+      <c r="S90">
+        <v>214633000</v>
+      </c>
+      <c r="T90">
+        <v>220710900</v>
+      </c>
+      <c r="U90">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V90">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W90">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X90">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y90">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z90">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA90">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB90">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC90">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>54792964800</v>
       </c>
+      <c r="Q91">
+        <v>3560428373600</v>
+      </c>
+      <c r="R91">
+        <v>3505635408800</v>
+      </c>
+      <c r="S91">
+        <v>217085500</v>
+      </c>
+      <c r="T91">
+        <v>222572400</v>
+      </c>
+      <c r="U91">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V91">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W91">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X91">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y91">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z91">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA91">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB91">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC91">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>90366756000</v>
       </c>
+      <c r="Q92">
+        <v>3616818628100</v>
+      </c>
+      <c r="R92">
+        <v>3526451872100</v>
+      </c>
+      <c r="S92">
+        <v>220145500</v>
+      </c>
+      <c r="T92">
+        <v>223839700</v>
+      </c>
+      <c r="U92">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V92">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W92">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X92">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y92">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z92">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA92">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB92">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC92">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>113405934700</v>
       </c>
+      <c r="Q93">
+        <v>3659107945100</v>
+      </c>
+      <c r="R93">
+        <v>3545702010400</v>
+      </c>
+      <c r="S93">
+        <v>222935100</v>
+      </c>
+      <c r="T93">
+        <v>225006000</v>
+      </c>
+      <c r="U93">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V93">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W93">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X93">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y93">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z93">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA93">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB93">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC93">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>116761454100</v>
       </c>
+      <c r="Q94">
+        <v>3689576930600</v>
+      </c>
+      <c r="R94">
+        <v>3572815476500</v>
+      </c>
+      <c r="S94">
+        <v>225037200</v>
+      </c>
+      <c r="T94">
+        <v>226693900</v>
+      </c>
+      <c r="U94">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V94">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W94">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X94">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y94">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z94">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA94">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB94">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC94">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>114070890100</v>
       </c>
+      <c r="Q95">
+        <v>3718464450400</v>
+      </c>
+      <c r="R95">
+        <v>3604393560300</v>
+      </c>
+      <c r="S95">
+        <v>226826200</v>
+      </c>
+      <c r="T95">
+        <v>228595300</v>
+      </c>
+      <c r="U95">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V95">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W95">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X95">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y95">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z95">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA95">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB95">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC95">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>33012057300</v>
       </c>
+      <c r="Q96">
+        <v>3732987755900</v>
+      </c>
+      <c r="R96">
+        <v>3699975698600</v>
+      </c>
+      <c r="S96">
+        <v>227751000</v>
+      </c>
+      <c r="T96">
+        <v>234177300</v>
+      </c>
+      <c r="U96">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V96">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W96">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X96">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y96">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z96">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA96">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB96">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC96">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>-72975889900</v>
       </c>
+      <c r="Q97">
+        <v>3749301351300</v>
+      </c>
+      <c r="R97">
+        <v>3822277241200</v>
+      </c>
+      <c r="S97">
+        <v>228711200</v>
+      </c>
+      <c r="T97">
+        <v>242625700</v>
+      </c>
+      <c r="U97">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V97">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W97">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X97">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y97">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z97">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA97">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB97">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC97">
+        <v>8.8</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>-111492677900</v>
       </c>
+      <c r="Q98">
+        <v>3786177516500</v>
+      </c>
+      <c r="R98">
+        <v>3897670194400</v>
+      </c>
+      <c r="S98">
+        <v>231132800</v>
+      </c>
+      <c r="T98">
+        <v>247514900</v>
+      </c>
+      <c r="U98">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V98">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W98">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X98">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y98">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z98">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA98">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB98">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC98">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>-107954499500</v>
       </c>
+      <c r="Q99">
+        <v>3821176346700</v>
+      </c>
+      <c r="R99">
+        <v>3929130846200</v>
+      </c>
+      <c r="S99">
+        <v>233337500</v>
+      </c>
+      <c r="T99">
+        <v>249522600</v>
+      </c>
+      <c r="U99">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V99">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W99">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X99">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y99">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z99">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA99">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB99">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC99">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>-112335300500</v>
       </c>
+      <c r="Q100">
+        <v>3851868105200</v>
+      </c>
+      <c r="R100">
+        <v>3964203405700</v>
+      </c>
+      <c r="S100">
+        <v>235047900</v>
+      </c>
+      <c r="T100">
+        <v>252011100</v>
+      </c>
+      <c r="U100">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V100">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W100">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X100">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y100">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z100">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA100">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB100">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC100">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>-125954286300</v>
       </c>
+      <c r="Q101">
+        <v>3878773650600</v>
+      </c>
+      <c r="R101">
+        <v>4004727936900</v>
+      </c>
+      <c r="S101">
+        <v>236522700</v>
+      </c>
+      <c r="T101">
+        <v>254323500</v>
+      </c>
+      <c r="U101">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V101">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W101">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X101">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y101">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z101">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA101">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB101">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC101">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>-210008953800</v>
       </c>
+      <c r="Q102">
+        <v>3902443453000</v>
+      </c>
+      <c r="R102">
+        <v>4112452406800</v>
+      </c>
+      <c r="S102">
+        <v>238065900</v>
+      </c>
+      <c r="T102">
+        <v>261108300</v>
+      </c>
+      <c r="U102">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V102">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W102">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X102">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y102">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z102">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA102">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB102">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC102">
+        <v>7</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-394670329900</v>
       </c>
+      <c r="Q103">
+        <v>3930966184300</v>
+      </c>
+      <c r="R103">
+        <v>4325636514200</v>
+      </c>
+      <c r="S103">
+        <v>239934500</v>
+      </c>
+      <c r="T103">
+        <v>276764400</v>
+      </c>
+      <c r="U103">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V103">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W103">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X103">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y103">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z103">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA103">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB103">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC103">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-578181515200</v>
       </c>
+      <c r="Q104">
+        <v>3975263398900</v>
+      </c>
+      <c r="R104">
+        <v>4553444914100</v>
+      </c>
+      <c r="S104">
+        <v>242727200</v>
+      </c>
+      <c r="T104">
+        <v>291708900</v>
+      </c>
+      <c r="U104">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V104">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W104">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X104">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y104">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z104">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA104">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB104">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC104">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-569257985400</v>
       </c>
+      <c r="Q105">
+        <v>4066116702600</v>
+      </c>
+      <c r="R105">
+        <v>4635374688000</v>
+      </c>
+      <c r="S105">
+        <v>249233600</v>
+      </c>
+      <c r="T105">
+        <v>297810500</v>
+      </c>
+      <c r="U105">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V105">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W105">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X105">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y105">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z105">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA105">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB105">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC105">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-551406285100</v>
       </c>
+      <c r="Q106">
+        <v>4129380490900</v>
+      </c>
+      <c r="R106">
+        <v>4680786776000</v>
+      </c>
+      <c r="S106">
+        <v>254717100</v>
+      </c>
+      <c r="T106">
+        <v>301015900</v>
+      </c>
+      <c r="U106">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V106">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W106">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X106">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y106">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z106">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA106">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB106">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC106">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-555134733800</v>
       </c>
+      <c r="Q107">
+        <v>4167507604000</v>
+      </c>
+      <c r="R107">
+        <v>4722642337800</v>
+      </c>
+      <c r="S107">
+        <v>257626300</v>
+      </c>
+      <c r="T107">
+        <v>304165900</v>
+      </c>
+      <c r="U107">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V107">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W107">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X107">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y107">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z107">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA107">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB107">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC107">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-634938686800</v>
       </c>
+      <c r="Q108">
+        <v>4197873051600</v>
+      </c>
+      <c r="R108">
+        <v>4832811738400</v>
+      </c>
+      <c r="S108">
+        <v>259538900</v>
+      </c>
+      <c r="T108">
+        <v>311239000</v>
+      </c>
+      <c r="U108">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V108">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W108">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X108">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y108">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z108">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA108">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB108">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC108">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>-704842774500</v>
       </c>
+      <c r="Q109">
+        <v>4233400504000</v>
+      </c>
+      <c r="R109">
+        <v>4938243278500</v>
+      </c>
+      <c r="S109">
+        <v>261575000</v>
+      </c>
+      <c r="T109">
+        <v>318381500</v>
+      </c>
+      <c r="U109">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V109">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W109">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X109">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y109">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z109">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA109">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB109">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC109">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-889660614100</v>
       </c>
+      <c r="Q110">
+        <v>4293210751700</v>
+      </c>
+      <c r="R110">
+        <v>5182871365800</v>
+      </c>
+      <c r="S110">
+        <v>264990500</v>
+      </c>
+      <c r="T110">
+        <v>333964300</v>
+      </c>
+      <c r="U110">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V110">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W110">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X110">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y110">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z110">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA110">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB110">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC110">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-1146109537600</v>
       </c>
+      <c r="Q111">
+        <v>4385623063600</v>
+      </c>
+      <c r="R111">
+        <v>5531732601200</v>
+      </c>
+      <c r="S111">
+        <v>271169300</v>
+      </c>
+      <c r="T111">
+        <v>359777000</v>
+      </c>
+      <c r="U111">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V111">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W111">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X111">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y111">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z111">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA111">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB111">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC111">
+        <v>21.2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>-1288136987900</v>
       </c>
+      <c r="Q112">
+        <v>4460000359800</v>
+      </c>
+      <c r="R112">
+        <v>5748137347700</v>
+      </c>
+      <c r="S112">
+        <v>276504500</v>
+      </c>
+      <c r="T112">
+        <v>375651600</v>
+      </c>
+      <c r="U112">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V112">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W112">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X112">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y112">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z112">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA112">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB112">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC112">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>-1348840492800</v>
       </c>
+      <c r="Q113">
+        <v>4552113404800</v>
+      </c>
+      <c r="R113">
+        <v>5900953897600</v>
+      </c>
+      <c r="S113">
+        <v>282913800</v>
+      </c>
+      <c r="T113">
+        <v>385631400</v>
+      </c>
+      <c r="U113">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V113">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W113">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X113">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y113">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z113">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA113">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB113">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC113">
+        <v>5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>-1382942930000</v>
       </c>
+      <c r="Q114">
+        <v>4662557243100</v>
+      </c>
+      <c r="R114">
+        <v>6045500173100</v>
+      </c>
+      <c r="S114">
+        <v>290181300</v>
+      </c>
+      <c r="T114">
+        <v>394832600</v>
+      </c>
+      <c r="U114">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V114">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W114">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X114">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y114">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z114">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA114">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB114">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC114">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>-1344845496500</v>
       </c>
+      <c r="Q115">
+        <v>4807349269900</v>
+      </c>
+      <c r="R115">
+        <v>6152194766400</v>
+      </c>
+      <c r="S115">
+        <v>300301300</v>
+      </c>
+      <c r="T115">
+        <v>401548400</v>
+      </c>
+      <c r="U115">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V115">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W115">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X115">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y115">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z115">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA115">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB115">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC115">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>-1344604919500</v>
       </c>
+      <c r="Q116">
+        <v>4807928566900</v>
+      </c>
+      <c r="R116">
+        <v>6152533486400</v>
+      </c>
+      <c r="S116">
+        <v>300332200</v>
+      </c>
+      <c r="T116">
+        <v>401570100</v>
+      </c>
+      <c r="U116">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V116">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W116">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X116">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y116">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z116">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA116">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB116">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,6 +10775,45 @@
       <c r="P117">
         <v>-1344606959500</v>
       </c>
+      <c r="Q117">
+        <v>4807928566900</v>
+      </c>
+      <c r="R117">
+        <v>6152535526400</v>
+      </c>
+      <c r="S117">
+        <v>300332200</v>
+      </c>
+      <c r="T117">
+        <v>401570300</v>
+      </c>
+      <c r="U117">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V117">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W117">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X117">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y117">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z117">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA117">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB117">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC117">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6301,6 +10864,45 @@
       <c r="P118">
         <v>-1344607979500</v>
       </c>
+      <c r="Q118">
+        <v>4807928566900</v>
+      </c>
+      <c r="R118">
+        <v>6152536546400</v>
+      </c>
+      <c r="S118">
+        <v>300332200</v>
+      </c>
+      <c r="T118">
+        <v>401570400</v>
+      </c>
+      <c r="U118">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V118">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W118">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X118">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y118">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z118">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA118">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB118">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC118">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6351,6 +10953,45 @@
       <c r="P119">
         <v>-1344604919500</v>
       </c>
+      <c r="Q119">
+        <v>4807931626900</v>
+      </c>
+      <c r="R119">
+        <v>6152536546400</v>
+      </c>
+      <c r="S119">
+        <v>300332500</v>
+      </c>
+      <c r="T119">
+        <v>401570400</v>
+      </c>
+      <c r="U119">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V119">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W119">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X119">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y119">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z119">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA119">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB119">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -6401,6 +11042,45 @@
       <c r="P120">
         <v>-1344544739500</v>
       </c>
+      <c r="Q120">
+        <v>4807991806900</v>
+      </c>
+      <c r="R120">
+        <v>6152536546400</v>
+      </c>
+      <c r="S120">
+        <v>300338400</v>
+      </c>
+      <c r="T120">
+        <v>401570400</v>
+      </c>
+      <c r="U120">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V120">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W120">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X120">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y120">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z120">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA120">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB120">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -6451,6 +11131,45 @@
       <c r="P121">
         <v>-1472519601700</v>
       </c>
+      <c r="Q121">
+        <v>4976578007700</v>
+      </c>
+      <c r="R121">
+        <v>6449097609400</v>
+      </c>
+      <c r="S121">
+        <v>313615800</v>
+      </c>
+      <c r="T121">
+        <v>416627400</v>
+      </c>
+      <c r="U121">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V121">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W121">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X121">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y121">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z121">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA121">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB121">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC121">
+        <v>10.6</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -6501,6 +11220,45 @@
       <c r="P122">
         <v>-1472520621700</v>
       </c>
+      <c r="Q122">
+        <v>4976578007700</v>
+      </c>
+      <c r="R122">
+        <v>6449098629400</v>
+      </c>
+      <c r="S122">
+        <v>313615800</v>
+      </c>
+      <c r="T122">
+        <v>416627500</v>
+      </c>
+      <c r="U122">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V122">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W122">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X122">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y122">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z122">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA122">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB122">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -6551,10 +11309,49 @@
       <c r="P123">
         <v>-1472528701700</v>
       </c>
+      <c r="Q123">
+        <v>4976578007700</v>
+      </c>
+      <c r="R123">
+        <v>6449106709400</v>
+      </c>
+      <c r="S123">
+        <v>313615800</v>
+      </c>
+      <c r="T123">
+        <v>416628300</v>
+      </c>
+      <c r="U123">
+        <v>40791623013.9</v>
+      </c>
+      <c r="V123">
+        <v>52861530404.9</v>
+      </c>
+      <c r="W123">
+        <v>98911791696.7</v>
+      </c>
+      <c r="X123">
+        <v>6347013.1</v>
+      </c>
+      <c r="Y123">
+        <v>2570621.3</v>
+      </c>
+      <c r="Z123">
+        <v>3414986.1</v>
+      </c>
+      <c r="AA123">
+        <v>-844364.8</v>
+      </c>
+      <c r="AB123">
+        <v>-12069907391</v>
+      </c>
+      <c r="AC123">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P123"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC123"/>
   </ignoredErrors>
 </worksheet>
 </file>